--- a/TestDemo/doc/2019年时间消费模板.xlsx
+++ b/TestDemo/doc/2019年时间消费模板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_eclipse\work3.0\Study\TestDemo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="824"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="10320" tabRatio="824"/>
   </bookViews>
   <sheets>
     <sheet name="时间消费" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="135">
   <si>
     <t>2018年第5周</t>
   </si>
@@ -527,6 +527,10 @@
     <t>厕所，休息</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>学习算法题</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -917,7 +921,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,6 +1049,12 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1147,6 +1157,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1161,6 +1174,12 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1198,20 +1217,11 @@
     <xf numFmtId="49" fontId="2" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1295,7 +1305,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1490,9 +1499,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-79F1-41E3-BADA-C41B9C072CC3}"/>
                 </c:ext>
@@ -1540,9 +1547,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-79F1-41E3-BADA-C41B9C072CC3}"/>
                 </c:ext>
@@ -1590,9 +1595,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-79F1-41E3-BADA-C41B9C072CC3}"/>
                 </c:ext>
@@ -1640,9 +1643,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-79F1-41E3-BADA-C41B9C072CC3}"/>
                 </c:ext>
@@ -1892,7 +1893,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2087,9 +2087,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-EC00-4BB4-95B3-3B29D894427C}"/>
                 </c:ext>
@@ -2137,9 +2135,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-EC00-4BB4-95B3-3B29D894427C}"/>
                 </c:ext>
@@ -2187,9 +2183,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-EC00-4BB4-95B3-3B29D894427C}"/>
                 </c:ext>
@@ -2237,9 +2231,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-EC00-4BB4-95B3-3B29D894427C}"/>
                 </c:ext>
@@ -2489,7 +2481,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2684,9 +2675,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-6083-4F96-B444-1E8C31F04A7C}"/>
                 </c:ext>
@@ -2734,9 +2723,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-6083-4F96-B444-1E8C31F04A7C}"/>
                 </c:ext>
@@ -2784,9 +2771,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-6083-4F96-B444-1E8C31F04A7C}"/>
                 </c:ext>
@@ -2834,9 +2819,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-6083-4F96-B444-1E8C31F04A7C}"/>
                 </c:ext>
@@ -4744,7 +4727,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4939,9 +4921,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-F21B-41C3-9B27-7F1292F58D99}"/>
                 </c:ext>
@@ -4989,9 +4969,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-F21B-41C3-9B27-7F1292F58D99}"/>
                 </c:ext>
@@ -5039,9 +5017,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-F21B-41C3-9B27-7F1292F58D99}"/>
                 </c:ext>
@@ -5089,9 +5065,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F21B-41C3-9B27-7F1292F58D99}"/>
                 </c:ext>
@@ -5341,7 +5315,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5536,9 +5509,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-6517-43DB-9475-9D9836F320B1}"/>
                 </c:ext>
@@ -5586,9 +5557,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-6517-43DB-9475-9D9836F320B1}"/>
                 </c:ext>
@@ -5636,9 +5605,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-6517-43DB-9475-9D9836F320B1}"/>
                 </c:ext>
@@ -5686,9 +5653,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-6517-43DB-9475-9D9836F320B1}"/>
                 </c:ext>
@@ -5938,7 +5903,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6133,9 +6097,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-56FF-4DF7-ACCA-DE0D9CACC85D}"/>
                 </c:ext>
@@ -6183,9 +6145,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-56FF-4DF7-ACCA-DE0D9CACC85D}"/>
                 </c:ext>
@@ -6233,9 +6193,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-56FF-4DF7-ACCA-DE0D9CACC85D}"/>
                 </c:ext>
@@ -6283,9 +6241,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-56FF-4DF7-ACCA-DE0D9CACC85D}"/>
                 </c:ext>
@@ -6535,7 +6491,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6730,9 +6685,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-259F-4100-82F4-60A02D940D3F}"/>
                 </c:ext>
@@ -6780,9 +6733,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-259F-4100-82F4-60A02D940D3F}"/>
                 </c:ext>
@@ -6830,9 +6781,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-259F-4100-82F4-60A02D940D3F}"/>
                 </c:ext>
@@ -6880,9 +6829,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-259F-4100-82F4-60A02D940D3F}"/>
                 </c:ext>
@@ -7132,7 +7079,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7327,9 +7273,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-8334-46F4-AD25-8128D6FF4055}"/>
                 </c:ext>
@@ -7377,9 +7321,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-8334-46F4-AD25-8128D6FF4055}"/>
                 </c:ext>
@@ -7427,9 +7369,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8334-46F4-AD25-8128D6FF4055}"/>
                 </c:ext>
@@ -7477,9 +7417,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-8334-46F4-AD25-8128D6FF4055}"/>
                 </c:ext>
@@ -7729,7 +7667,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7924,9 +7861,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-E6F4-4E15-B866-869414EFD333}"/>
                 </c:ext>
@@ -7974,9 +7909,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-E6F4-4E15-B866-869414EFD333}"/>
                 </c:ext>
@@ -8024,9 +7957,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-E6F4-4E15-B866-869414EFD333}"/>
                 </c:ext>
@@ -8074,9 +8005,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-E6F4-4E15-B866-869414EFD333}"/>
                 </c:ext>
@@ -8326,7 +8255,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8521,9 +8449,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-095D-4B68-8507-A31B6B05C43D}"/>
                 </c:ext>
@@ -8571,9 +8497,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-095D-4B68-8507-A31B6B05C43D}"/>
                 </c:ext>
@@ -8621,9 +8545,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-095D-4B68-8507-A31B6B05C43D}"/>
                 </c:ext>
@@ -8671,9 +8593,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-095D-4B68-8507-A31B6B05C43D}"/>
                 </c:ext>
@@ -8923,7 +8843,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9118,9 +9037,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-372A-4455-9E0A-DC5C70540386}"/>
                 </c:ext>
@@ -9168,9 +9085,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-372A-4455-9E0A-DC5C70540386}"/>
                 </c:ext>
@@ -9218,9 +9133,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-372A-4455-9E0A-DC5C70540386}"/>
                 </c:ext>
@@ -9268,9 +9181,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-372A-4455-9E0A-DC5C70540386}"/>
                 </c:ext>
@@ -10316,8 +10227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10340,83 +10251,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="98" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47" t="s">
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47" t="s">
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47" t="s">
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47" t="s">
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47" t="s">
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
-      <c r="BJ1" s="47"/>
-      <c r="BK1" s="47"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="49"/>
     </row>
     <row r="2" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
@@ -10610,7 +10521,7 @@
       </c>
     </row>
     <row r="3" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="47" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="36"/>
@@ -10632,38 +10543,38 @@
       <c r="R3" s="34"/>
       <c r="S3" s="18"/>
       <c r="T3" s="35"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="59"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="61"/>
       <c r="AA3" s="34"/>
       <c r="AB3" s="18"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
       <c r="AJ3" s="34"/>
       <c r="AK3" s="18"/>
       <c r="AL3" s="43"/>
       <c r="AM3" s="43"/>
       <c r="AN3" s="43"/>
       <c r="AO3" s="43"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="68"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="70"/>
       <c r="AS3" s="34"/>
       <c r="AT3" s="18"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="95"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="100"/>
       <c r="BA3" s="44"/>
       <c r="BB3" s="34"/>
       <c r="BC3" s="18"/>
@@ -10677,7 +10588,7 @@
       <c r="BK3" s="34"/>
     </row>
     <row r="4" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="47" t="s">
         <v>121</v>
       </c>
       <c r="B4" s="36"/>
@@ -10701,21 +10612,21 @@
       <c r="R4" s="37"/>
       <c r="S4" s="18"/>
       <c r="T4" s="38"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="60"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="62"/>
       <c r="AA4" s="37"/>
       <c r="AB4" s="18"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
       <c r="AJ4" s="37" t="s">
         <v>40</v>
       </c>
@@ -10724,17 +10635,17 @@
       <c r="AM4" s="43"/>
       <c r="AN4" s="43"/>
       <c r="AO4" s="43"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="69"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="71"/>
       <c r="AS4" s="37"/>
       <c r="AT4" s="18"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="96"/>
+      <c r="AU4" s="65"/>
+      <c r="AV4" s="65"/>
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="65"/>
+      <c r="AY4" s="65"/>
+      <c r="AZ4" s="101"/>
       <c r="BA4" s="45"/>
       <c r="BB4" s="37"/>
       <c r="BC4" s="18"/>
@@ -10748,7 +10659,7 @@
       <c r="BK4" s="37"/>
     </row>
     <row r="5" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="47" t="s">
         <v>111</v>
       </c>
       <c r="B5" s="36"/>
@@ -10758,7 +10669,7 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
-      <c r="I5" s="48"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="18"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
@@ -10767,43 +10678,43 @@
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="36"/>
-      <c r="R5" s="48"/>
+      <c r="R5" s="50"/>
       <c r="S5" s="18"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="48"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="50"/>
       <c r="AB5" s="18"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="48"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="71"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="50"/>
       <c r="AK5" s="18"/>
       <c r="AL5" s="43"/>
       <c r="AM5" s="43"/>
       <c r="AN5" s="43"/>
       <c r="AO5" s="43"/>
-      <c r="AP5" s="72"/>
-      <c r="AQ5" s="63"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="48"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="65"/>
+      <c r="AR5" s="71"/>
+      <c r="AS5" s="50"/>
       <c r="AT5" s="18"/>
-      <c r="AU5" s="63"/>
-      <c r="AV5" s="63"/>
-      <c r="AW5" s="63"/>
-      <c r="AX5" s="63"/>
-      <c r="AY5" s="63"/>
-      <c r="AZ5" s="96"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="101"/>
       <c r="BA5" s="45"/>
-      <c r="BB5" s="48"/>
+      <c r="BB5" s="50"/>
       <c r="BC5" s="18"/>
       <c r="BD5" s="43"/>
       <c r="BE5" s="43"/>
@@ -10812,10 +10723,10 @@
       <c r="BH5" s="43"/>
       <c r="BI5" s="43"/>
       <c r="BJ5" s="43"/>
-      <c r="BK5" s="48"/>
+      <c r="BK5" s="50"/>
     </row>
     <row r="6" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="47" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="36"/>
@@ -10825,7 +10736,7 @@
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
-      <c r="I6" s="49"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="18"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
@@ -10834,43 +10745,43 @@
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="36"/>
-      <c r="R6" s="49"/>
+      <c r="R6" s="51"/>
       <c r="S6" s="18"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="49"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="51"/>
       <c r="AB6" s="18"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="89"/>
-      <c r="AH6" s="69"/>
-      <c r="AI6" s="69"/>
-      <c r="AJ6" s="49"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="51"/>
       <c r="AK6" s="18"/>
       <c r="AL6" s="43"/>
       <c r="AM6" s="43"/>
       <c r="AN6" s="43"/>
       <c r="AO6" s="43"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="63"/>
-      <c r="AR6" s="69"/>
-      <c r="AS6" s="49"/>
+      <c r="AP6" s="74"/>
+      <c r="AQ6" s="65"/>
+      <c r="AR6" s="71"/>
+      <c r="AS6" s="51"/>
       <c r="AT6" s="18"/>
-      <c r="AU6" s="64"/>
-      <c r="AV6" s="64"/>
-      <c r="AW6" s="64"/>
-      <c r="AX6" s="64"/>
-      <c r="AY6" s="64"/>
-      <c r="AZ6" s="96"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="66"/>
+      <c r="AW6" s="66"/>
+      <c r="AX6" s="66"/>
+      <c r="AY6" s="66"/>
+      <c r="AZ6" s="101"/>
       <c r="BA6" s="45"/>
-      <c r="BB6" s="49"/>
+      <c r="BB6" s="51"/>
       <c r="BC6" s="18"/>
       <c r="BD6" s="43"/>
       <c r="BE6" s="43"/>
@@ -10879,10 +10790,10 @@
       <c r="BH6" s="43"/>
       <c r="BI6" s="43"/>
       <c r="BJ6" s="43"/>
-      <c r="BK6" s="49"/>
+      <c r="BK6" s="51"/>
     </row>
     <row r="7" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="47" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="36"/>
@@ -10906,21 +10817,21 @@
       <c r="R7" s="37"/>
       <c r="S7" s="18"/>
       <c r="T7" s="35"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="60"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="62"/>
       <c r="AA7" s="37"/>
       <c r="AB7" s="18"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="69"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="95"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
       <c r="AJ7" s="37" t="s">
         <v>41</v>
       </c>
@@ -10929,17 +10840,17 @@
       <c r="AM7" s="43"/>
       <c r="AN7" s="43"/>
       <c r="AO7" s="43"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="63"/>
-      <c r="AR7" s="69"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="65"/>
+      <c r="AR7" s="71"/>
       <c r="AS7" s="37"/>
       <c r="AT7" s="18"/>
-      <c r="AU7" s="65"/>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="65"/>
-      <c r="AY7" s="65"/>
-      <c r="AZ7" s="96"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67"/>
+      <c r="AW7" s="67"/>
+      <c r="AX7" s="67"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="101"/>
       <c r="BA7" s="45"/>
       <c r="BB7" s="37"/>
       <c r="BC7" s="18"/>
@@ -10953,7 +10864,7 @@
       <c r="BK7" s="37"/>
     </row>
     <row r="8" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="47" t="s">
         <v>113</v>
       </c>
       <c r="B8" s="36"/>
@@ -10963,7 +10874,7 @@
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
-      <c r="I8" s="50"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="18"/>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
@@ -10972,43 +10883,43 @@
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
-      <c r="R8" s="50"/>
+      <c r="R8" s="52"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="50"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="52"/>
       <c r="AB8" s="18"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="50"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="68"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="52"/>
       <c r="AK8" s="18"/>
       <c r="AL8" s="43"/>
       <c r="AM8" s="43"/>
       <c r="AN8" s="43"/>
       <c r="AO8" s="43"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="63"/>
-      <c r="AR8" s="69"/>
-      <c r="AS8" s="50"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="65"/>
+      <c r="AR8" s="71"/>
+      <c r="AS8" s="52"/>
       <c r="AT8" s="18"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="66"/>
-      <c r="AY8" s="66"/>
-      <c r="AZ8" s="96"/>
+      <c r="AU8" s="68"/>
+      <c r="AV8" s="68"/>
+      <c r="AW8" s="68"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="101"/>
       <c r="BA8" s="45"/>
-      <c r="BB8" s="50"/>
+      <c r="BB8" s="52"/>
       <c r="BC8" s="18"/>
       <c r="BD8" s="43"/>
       <c r="BE8" s="43"/>
@@ -11017,10 +10928,10 @@
       <c r="BH8" s="43"/>
       <c r="BI8" s="43"/>
       <c r="BJ8" s="43"/>
-      <c r="BK8" s="50"/>
+      <c r="BK8" s="52"/>
     </row>
     <row r="9" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="47" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="36"/>
@@ -11030,7 +10941,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="18"/>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
@@ -11039,43 +10950,43 @@
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
       <c r="Q9" s="36"/>
-      <c r="R9" s="51"/>
+      <c r="R9" s="53"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="51"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="53"/>
       <c r="AB9" s="18"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="51"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="53"/>
       <c r="AK9" s="18"/>
       <c r="AL9" s="43"/>
       <c r="AM9" s="43"/>
       <c r="AN9" s="43"/>
       <c r="AO9" s="43"/>
-      <c r="AP9" s="72"/>
-      <c r="AQ9" s="63"/>
-      <c r="AR9" s="69"/>
-      <c r="AS9" s="51"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="71"/>
+      <c r="AS9" s="53"/>
       <c r="AT9" s="18"/>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="66"/>
-      <c r="AW9" s="66"/>
-      <c r="AX9" s="66"/>
-      <c r="AY9" s="66"/>
-      <c r="AZ9" s="96"/>
+      <c r="AU9" s="68"/>
+      <c r="AV9" s="68"/>
+      <c r="AW9" s="68"/>
+      <c r="AX9" s="68"/>
+      <c r="AY9" s="68"/>
+      <c r="AZ9" s="101"/>
       <c r="BA9" s="45"/>
-      <c r="BB9" s="51"/>
+      <c r="BB9" s="53"/>
       <c r="BC9" s="18"/>
       <c r="BD9" s="43"/>
       <c r="BE9" s="43"/>
@@ -11084,10 +10995,10 @@
       <c r="BH9" s="43"/>
       <c r="BI9" s="43"/>
       <c r="BJ9" s="43"/>
-      <c r="BK9" s="51"/>
+      <c r="BK9" s="53"/>
     </row>
     <row r="10" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="47" t="s">
         <v>122</v>
       </c>
       <c r="B10" s="36"/>
@@ -11097,7 +11008,7 @@
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="18"/>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
@@ -11106,43 +11017,43 @@
       <c r="O10" s="36"/>
       <c r="P10" s="36"/>
       <c r="Q10" s="36"/>
-      <c r="R10" s="51"/>
+      <c r="R10" s="53"/>
       <c r="S10" s="18"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="51"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="53"/>
       <c r="AB10" s="18"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="51"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="53"/>
       <c r="AK10" s="18"/>
       <c r="AL10" s="43"/>
       <c r="AM10" s="43"/>
       <c r="AN10" s="43"/>
       <c r="AO10" s="43"/>
-      <c r="AP10" s="72"/>
-      <c r="AQ10" s="63"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="51"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="71"/>
+      <c r="AS10" s="53"/>
       <c r="AT10" s="18"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="66"/>
-      <c r="AX10" s="66"/>
-      <c r="AY10" s="66"/>
-      <c r="AZ10" s="96"/>
+      <c r="AU10" s="68"/>
+      <c r="AV10" s="68"/>
+      <c r="AW10" s="68"/>
+      <c r="AX10" s="68"/>
+      <c r="AY10" s="68"/>
+      <c r="AZ10" s="101"/>
       <c r="BA10" s="45"/>
-      <c r="BB10" s="51"/>
+      <c r="BB10" s="53"/>
       <c r="BC10" s="18"/>
       <c r="BD10" s="43"/>
       <c r="BE10" s="43"/>
@@ -11151,10 +11062,10 @@
       <c r="BH10" s="43"/>
       <c r="BI10" s="43"/>
       <c r="BJ10" s="43"/>
-      <c r="BK10" s="51"/>
+      <c r="BK10" s="53"/>
     </row>
     <row r="11" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="47" t="s">
         <v>123</v>
       </c>
       <c r="B11" s="36"/>
@@ -11164,7 +11075,7 @@
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="18"/>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
@@ -11173,43 +11084,43 @@
       <c r="O11" s="36"/>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
-      <c r="R11" s="51"/>
+      <c r="R11" s="53"/>
       <c r="S11" s="18"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="51"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="53"/>
       <c r="AB11" s="18"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="51"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="53"/>
       <c r="AK11" s="18"/>
       <c r="AL11" s="43"/>
       <c r="AM11" s="43"/>
       <c r="AN11" s="43"/>
       <c r="AO11" s="43"/>
-      <c r="AP11" s="72"/>
-      <c r="AQ11" s="63"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="51"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="65"/>
+      <c r="AR11" s="71"/>
+      <c r="AS11" s="53"/>
       <c r="AT11" s="18"/>
-      <c r="AU11" s="66"/>
-      <c r="AV11" s="66"/>
-      <c r="AW11" s="66"/>
-      <c r="AX11" s="66"/>
-      <c r="AY11" s="66"/>
-      <c r="AZ11" s="96"/>
+      <c r="AU11" s="68"/>
+      <c r="AV11" s="68"/>
+      <c r="AW11" s="68"/>
+      <c r="AX11" s="68"/>
+      <c r="AY11" s="68"/>
+      <c r="AZ11" s="101"/>
       <c r="BA11" s="45"/>
-      <c r="BB11" s="51"/>
+      <c r="BB11" s="53"/>
       <c r="BC11" s="18"/>
       <c r="BD11" s="43"/>
       <c r="BE11" s="43"/>
@@ -11218,10 +11129,10 @@
       <c r="BH11" s="43"/>
       <c r="BI11" s="43"/>
       <c r="BJ11" s="43"/>
-      <c r="BK11" s="51"/>
+      <c r="BK11" s="53"/>
     </row>
     <row r="12" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="47" t="s">
         <v>124</v>
       </c>
       <c r="B12" s="36"/>
@@ -11231,7 +11142,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="18"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
@@ -11240,43 +11151,43 @@
       <c r="O12" s="36"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
-      <c r="R12" s="51"/>
+      <c r="R12" s="53"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="51"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="53"/>
       <c r="AB12" s="18"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="67"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="51"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="53"/>
       <c r="AK12" s="18"/>
       <c r="AL12" s="43"/>
       <c r="AM12" s="43"/>
       <c r="AN12" s="43"/>
       <c r="AO12" s="43"/>
-      <c r="AP12" s="72"/>
-      <c r="AQ12" s="63"/>
-      <c r="AR12" s="69"/>
-      <c r="AS12" s="51"/>
+      <c r="AP12" s="74"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="71"/>
+      <c r="AS12" s="53"/>
       <c r="AT12" s="18"/>
-      <c r="AU12" s="67"/>
-      <c r="AV12" s="67"/>
-      <c r="AW12" s="67"/>
-      <c r="AX12" s="67"/>
-      <c r="AY12" s="67"/>
-      <c r="AZ12" s="96"/>
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="101"/>
       <c r="BA12" s="45"/>
-      <c r="BB12" s="51"/>
+      <c r="BB12" s="53"/>
       <c r="BC12" s="18"/>
       <c r="BD12" s="43"/>
       <c r="BE12" s="43"/>
@@ -11285,10 +11196,10 @@
       <c r="BH12" s="43"/>
       <c r="BI12" s="43"/>
       <c r="BJ12" s="43"/>
-      <c r="BK12" s="51"/>
+      <c r="BK12" s="53"/>
     </row>
     <row r="13" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="47" t="s">
         <v>101</v>
       </c>
       <c r="B13" s="36"/>
@@ -11298,7 +11209,7 @@
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="52"/>
+      <c r="I13" s="54"/>
       <c r="J13" s="18"/>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
@@ -11307,43 +11218,43 @@
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
       <c r="Q13" s="36"/>
-      <c r="R13" s="52"/>
+      <c r="R13" s="54"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="81"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="52"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="54"/>
       <c r="AB13" s="18"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="52"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="54"/>
       <c r="AK13" s="18"/>
       <c r="AL13" s="43"/>
       <c r="AM13" s="43"/>
       <c r="AN13" s="43"/>
       <c r="AO13" s="43"/>
-      <c r="AP13" s="72"/>
-      <c r="AQ13" s="64"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="52"/>
+      <c r="AP13" s="74"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="71"/>
+      <c r="AS13" s="54"/>
       <c r="AT13" s="18"/>
-      <c r="AU13" s="62"/>
-      <c r="AV13" s="62"/>
-      <c r="AW13" s="62"/>
-      <c r="AX13" s="62"/>
-      <c r="AY13" s="62"/>
-      <c r="AZ13" s="96"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="64"/>
+      <c r="AX13" s="64"/>
+      <c r="AY13" s="64"/>
+      <c r="AZ13" s="101"/>
       <c r="BA13" s="45"/>
-      <c r="BB13" s="52"/>
+      <c r="BB13" s="54"/>
       <c r="BC13" s="18"/>
       <c r="BD13" s="43"/>
       <c r="BE13" s="43"/>
@@ -11352,10 +11263,10 @@
       <c r="BH13" s="43"/>
       <c r="BI13" s="43"/>
       <c r="BJ13" s="43"/>
-      <c r="BK13" s="52"/>
+      <c r="BK13" s="54"/>
     </row>
     <row r="14" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="47" t="s">
         <v>125</v>
       </c>
       <c r="B14" s="36"/>
@@ -11378,22 +11289,22 @@
       <c r="Q14" s="36"/>
       <c r="R14" s="33"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="62"/>
       <c r="AA14" s="33"/>
       <c r="AB14" s="18"/>
-      <c r="AC14" s="63"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="63"/>
-      <c r="AF14" s="63"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="69"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="65"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
       <c r="AJ14" s="33" t="s">
         <v>42</v>
       </c>
@@ -11402,17 +11313,17 @@
       <c r="AM14" s="43"/>
       <c r="AN14" s="43"/>
       <c r="AO14" s="43"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="69"/>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="71"/>
       <c r="AS14" s="33"/>
       <c r="AT14" s="18"/>
-      <c r="AU14" s="63"/>
-      <c r="AV14" s="63"/>
-      <c r="AW14" s="63"/>
-      <c r="AX14" s="63"/>
-      <c r="AY14" s="63"/>
-      <c r="AZ14" s="96"/>
+      <c r="AU14" s="65"/>
+      <c r="AV14" s="65"/>
+      <c r="AW14" s="65"/>
+      <c r="AX14" s="65"/>
+      <c r="AY14" s="65"/>
+      <c r="AZ14" s="101"/>
       <c r="BA14" s="45"/>
       <c r="BB14" s="33"/>
       <c r="BC14" s="18"/>
@@ -11426,7 +11337,7 @@
       <c r="BK14" s="33"/>
     </row>
     <row r="15" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="47" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="36"/>
@@ -11436,7 +11347,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="74"/>
+      <c r="I15" s="76"/>
       <c r="J15" s="18"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
@@ -11445,43 +11356,43 @@
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="36"/>
-      <c r="R15" s="74"/>
+      <c r="R15" s="76"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="74"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="76"/>
       <c r="AB15" s="18"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="64"/>
-      <c r="AG15" s="91"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="74"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="96"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="76"/>
       <c r="AK15" s="18"/>
       <c r="AL15" s="43"/>
       <c r="AM15" s="43"/>
       <c r="AN15" s="43"/>
       <c r="AO15" s="43"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="63"/>
-      <c r="AR15" s="69"/>
-      <c r="AS15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="71"/>
+      <c r="AS15" s="76"/>
       <c r="AT15" s="18"/>
-      <c r="AU15" s="64"/>
-      <c r="AV15" s="64"/>
-      <c r="AW15" s="64"/>
-      <c r="AX15" s="64"/>
-      <c r="AY15" s="64"/>
-      <c r="AZ15" s="96"/>
+      <c r="AU15" s="66"/>
+      <c r="AV15" s="66"/>
+      <c r="AW15" s="66"/>
+      <c r="AX15" s="66"/>
+      <c r="AY15" s="66"/>
+      <c r="AZ15" s="101"/>
       <c r="BA15" s="45"/>
-      <c r="BB15" s="74"/>
+      <c r="BB15" s="76"/>
       <c r="BC15" s="18"/>
       <c r="BD15" s="43"/>
       <c r="BE15" s="43"/>
@@ -11490,10 +11401,10 @@
       <c r="BH15" s="43"/>
       <c r="BI15" s="43"/>
       <c r="BJ15" s="43"/>
-      <c r="BK15" s="74"/>
+      <c r="BK15" s="76"/>
     </row>
     <row r="16" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="47" t="s">
         <v>126</v>
       </c>
       <c r="B16" s="36"/>
@@ -11503,7 +11414,7 @@
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="75"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="18"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
@@ -11512,43 +11423,43 @@
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
-      <c r="R16" s="75"/>
+      <c r="R16" s="77"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="75"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="77"/>
       <c r="AB16" s="18"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="75"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="64"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="77"/>
       <c r="AK16" s="18"/>
       <c r="AL16" s="43"/>
       <c r="AM16" s="43"/>
       <c r="AN16" s="43"/>
       <c r="AO16" s="43"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="63"/>
-      <c r="AR16" s="70"/>
-      <c r="AS16" s="75"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="77"/>
       <c r="AT16" s="18"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
-      <c r="AX16" s="65"/>
-      <c r="AY16" s="65"/>
-      <c r="AZ16" s="96"/>
+      <c r="AU16" s="67"/>
+      <c r="AV16" s="67"/>
+      <c r="AW16" s="67"/>
+      <c r="AX16" s="67"/>
+      <c r="AY16" s="67"/>
+      <c r="AZ16" s="101"/>
       <c r="BA16" s="45"/>
-      <c r="BB16" s="75"/>
+      <c r="BB16" s="77"/>
       <c r="BC16" s="18"/>
       <c r="BD16" s="43"/>
       <c r="BE16" s="43"/>
@@ -11557,10 +11468,10 @@
       <c r="BH16" s="43"/>
       <c r="BI16" s="43"/>
       <c r="BJ16" s="43"/>
-      <c r="BK16" s="75"/>
+      <c r="BK16" s="77"/>
     </row>
     <row r="17" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="47" t="s">
         <v>103</v>
       </c>
       <c r="B17" s="36"/>
@@ -11570,7 +11481,7 @@
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="75"/>
+      <c r="I17" s="77"/>
       <c r="J17" s="18"/>
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
@@ -11579,43 +11490,43 @@
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
       <c r="Q17" s="36"/>
-      <c r="R17" s="75"/>
+      <c r="R17" s="77"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="75"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="77"/>
       <c r="AB17" s="18"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="63"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="75"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="77"/>
       <c r="AK17" s="18"/>
       <c r="AL17" s="43"/>
       <c r="AM17" s="43"/>
       <c r="AN17" s="43"/>
       <c r="AO17" s="43"/>
-      <c r="AP17" s="72"/>
-      <c r="AQ17" s="64"/>
-      <c r="AR17" s="62"/>
-      <c r="AS17" s="75"/>
+      <c r="AP17" s="74"/>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="64"/>
+      <c r="AS17" s="77"/>
       <c r="AT17" s="18"/>
-      <c r="AU17" s="66"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
-      <c r="AZ17" s="96"/>
+      <c r="AU17" s="68"/>
+      <c r="AV17" s="68"/>
+      <c r="AW17" s="68"/>
+      <c r="AX17" s="68"/>
+      <c r="AY17" s="68"/>
+      <c r="AZ17" s="101"/>
       <c r="BA17" s="45"/>
-      <c r="BB17" s="75"/>
+      <c r="BB17" s="77"/>
       <c r="BC17" s="18"/>
       <c r="BD17" s="43"/>
       <c r="BE17" s="43"/>
@@ -11624,22 +11535,22 @@
       <c r="BH17" s="43"/>
       <c r="BI17" s="43"/>
       <c r="BJ17" s="43"/>
-      <c r="BK17" s="75"/>
+      <c r="BK17" s="77"/>
     </row>
     <row r="18" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="47" t="s">
         <v>114</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="89" t="s">
         <v>132</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="76"/>
+      <c r="I18" s="78"/>
       <c r="J18" s="18"/>
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
@@ -11648,43 +11559,43 @@
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
       <c r="Q18" s="36"/>
-      <c r="R18" s="76"/>
+      <c r="R18" s="78"/>
       <c r="S18" s="18"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="76"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="78"/>
       <c r="AB18" s="18"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="64"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="76"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="78"/>
       <c r="AK18" s="18"/>
       <c r="AL18" s="43"/>
       <c r="AM18" s="43"/>
       <c r="AN18" s="43"/>
       <c r="AO18" s="43"/>
-      <c r="AP18" s="72"/>
-      <c r="AQ18" s="68"/>
-      <c r="AR18" s="63"/>
-      <c r="AS18" s="76"/>
+      <c r="AP18" s="74"/>
+      <c r="AQ18" s="70"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="78"/>
       <c r="AT18" s="18"/>
-      <c r="AU18" s="66"/>
-      <c r="AV18" s="66"/>
-      <c r="AW18" s="66"/>
-      <c r="AX18" s="66"/>
-      <c r="AY18" s="66"/>
-      <c r="AZ18" s="96"/>
+      <c r="AU18" s="68"/>
+      <c r="AV18" s="68"/>
+      <c r="AW18" s="68"/>
+      <c r="AX18" s="68"/>
+      <c r="AY18" s="68"/>
+      <c r="AZ18" s="101"/>
       <c r="BA18" s="45"/>
-      <c r="BB18" s="76"/>
+      <c r="BB18" s="78"/>
       <c r="BC18" s="18"/>
       <c r="BD18" s="43"/>
       <c r="BE18" s="43"/>
@@ -11693,16 +11604,16 @@
       <c r="BH18" s="43"/>
       <c r="BI18" s="43"/>
       <c r="BJ18" s="43"/>
-      <c r="BK18" s="76"/>
+      <c r="BK18" s="78"/>
     </row>
     <row r="19" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="47" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="100"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
@@ -11719,22 +11630,22 @@
       <c r="Q19" s="36"/>
       <c r="R19" s="37"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="60"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="62"/>
       <c r="AA19" s="37"/>
       <c r="AB19" s="18"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="69"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="74"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="68"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="71"/>
       <c r="AJ19" s="37" t="s">
         <v>43</v>
       </c>
@@ -11743,17 +11654,17 @@
       <c r="AM19" s="43"/>
       <c r="AN19" s="43"/>
       <c r="AO19" s="43"/>
-      <c r="AP19" s="72"/>
-      <c r="AQ19" s="69"/>
-      <c r="AR19" s="63"/>
+      <c r="AP19" s="74"/>
+      <c r="AQ19" s="71"/>
+      <c r="AR19" s="65"/>
       <c r="AS19" s="37"/>
       <c r="AT19" s="18"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="96"/>
+      <c r="AU19" s="68"/>
+      <c r="AV19" s="68"/>
+      <c r="AW19" s="68"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="101"/>
       <c r="BA19" s="45"/>
       <c r="BB19" s="37"/>
       <c r="BC19" s="18"/>
@@ -11767,19 +11678,19 @@
       <c r="BK19" s="37"/>
     </row>
     <row r="20" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="47" t="s">
         <v>131</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
-      <c r="E20" s="102" t="s">
+      <c r="E20" s="48" t="s">
         <v>133</v>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
-      <c r="I20" s="77"/>
+      <c r="I20" s="79"/>
       <c r="J20" s="18"/>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
@@ -11788,43 +11699,43 @@
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
       <c r="Q20" s="36"/>
-      <c r="R20" s="77"/>
+      <c r="R20" s="79"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="77"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="79"/>
       <c r="AB20" s="18"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="69"/>
-      <c r="AJ20" s="77"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="79"/>
       <c r="AK20" s="18"/>
       <c r="AL20" s="43"/>
       <c r="AM20" s="43"/>
       <c r="AN20" s="43"/>
       <c r="AO20" s="43"/>
-      <c r="AP20" s="72"/>
-      <c r="AQ20" s="69"/>
-      <c r="AR20" s="63"/>
-      <c r="AS20" s="77"/>
+      <c r="AP20" s="74"/>
+      <c r="AQ20" s="71"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="79"/>
       <c r="AT20" s="18"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="96"/>
+      <c r="AU20" s="68"/>
+      <c r="AV20" s="68"/>
+      <c r="AW20" s="68"/>
+      <c r="AX20" s="68"/>
+      <c r="AY20" s="68"/>
+      <c r="AZ20" s="101"/>
       <c r="BA20" s="45"/>
-      <c r="BB20" s="77"/>
+      <c r="BB20" s="79"/>
       <c r="BC20" s="18"/>
       <c r="BD20" s="43"/>
       <c r="BE20" s="43"/>
@@ -11833,20 +11744,22 @@
       <c r="BH20" s="43"/>
       <c r="BI20" s="43"/>
       <c r="BJ20" s="43"/>
-      <c r="BK20" s="77"/>
+      <c r="BK20" s="79"/>
     </row>
     <row r="21" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="47" t="s">
         <v>105</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="E21" s="104" t="s">
+        <v>134</v>
+      </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
-      <c r="I21" s="78"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="18"/>
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
@@ -11855,43 +11768,43 @@
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="36"/>
-      <c r="R21" s="78"/>
+      <c r="R21" s="80"/>
       <c r="S21" s="18"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="78"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="80"/>
       <c r="AB21" s="18"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="69"/>
-      <c r="AJ21" s="78"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="80"/>
       <c r="AK21" s="18"/>
       <c r="AL21" s="43"/>
       <c r="AM21" s="43"/>
       <c r="AN21" s="43"/>
       <c r="AO21" s="43"/>
-      <c r="AP21" s="72"/>
-      <c r="AQ21" s="69"/>
-      <c r="AR21" s="63"/>
-      <c r="AS21" s="78"/>
+      <c r="AP21" s="74"/>
+      <c r="AQ21" s="71"/>
+      <c r="AR21" s="65"/>
+      <c r="AS21" s="80"/>
       <c r="AT21" s="18"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="96"/>
+      <c r="AU21" s="68"/>
+      <c r="AV21" s="68"/>
+      <c r="AW21" s="68"/>
+      <c r="AX21" s="68"/>
+      <c r="AY21" s="68"/>
+      <c r="AZ21" s="101"/>
       <c r="BA21" s="45"/>
-      <c r="BB21" s="78"/>
+      <c r="BB21" s="80"/>
       <c r="BC21" s="18"/>
       <c r="BD21" s="43"/>
       <c r="BE21" s="43"/>
@@ -11900,20 +11813,20 @@
       <c r="BH21" s="43"/>
       <c r="BI21" s="43"/>
       <c r="BJ21" s="43"/>
-      <c r="BK21" s="78"/>
+      <c r="BK21" s="80"/>
     </row>
     <row r="22" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="47" t="s">
         <v>115</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="E22" s="103"/>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="78"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="18"/>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
@@ -11922,43 +11835,43 @@
       <c r="O22" s="36"/>
       <c r="P22" s="36"/>
       <c r="Q22" s="36"/>
-      <c r="R22" s="78"/>
+      <c r="R22" s="80"/>
       <c r="S22" s="18"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="78"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="80"/>
       <c r="AB22" s="18"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="69"/>
-      <c r="AJ22" s="78"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="68"/>
+      <c r="AF22" s="68"/>
+      <c r="AG22" s="68"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="80"/>
       <c r="AK22" s="18"/>
       <c r="AL22" s="43"/>
       <c r="AM22" s="43"/>
       <c r="AN22" s="43"/>
       <c r="AO22" s="43"/>
-      <c r="AP22" s="72"/>
-      <c r="AQ22" s="69"/>
-      <c r="AR22" s="63"/>
-      <c r="AS22" s="78"/>
+      <c r="AP22" s="74"/>
+      <c r="AQ22" s="71"/>
+      <c r="AR22" s="65"/>
+      <c r="AS22" s="80"/>
       <c r="AT22" s="18"/>
-      <c r="AU22" s="66"/>
-      <c r="AV22" s="66"/>
-      <c r="AW22" s="66"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
-      <c r="AZ22" s="96"/>
+      <c r="AU22" s="68"/>
+      <c r="AV22" s="68"/>
+      <c r="AW22" s="68"/>
+      <c r="AX22" s="68"/>
+      <c r="AY22" s="68"/>
+      <c r="AZ22" s="101"/>
       <c r="BA22" s="45"/>
-      <c r="BB22" s="78"/>
+      <c r="BB22" s="80"/>
       <c r="BC22" s="18"/>
       <c r="BD22" s="43"/>
       <c r="BE22" s="43"/>
@@ -11967,20 +11880,20 @@
       <c r="BH22" s="43"/>
       <c r="BI22" s="43"/>
       <c r="BJ22" s="43"/>
-      <c r="BK22" s="78"/>
+      <c r="BK22" s="80"/>
     </row>
     <row r="23" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="47" t="s">
         <v>106</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
+      <c r="E23" s="103"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
-      <c r="I23" s="78"/>
+      <c r="I23" s="80"/>
       <c r="J23" s="18"/>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
@@ -11989,43 +11902,43 @@
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
       <c r="Q23" s="36"/>
-      <c r="R23" s="78"/>
+      <c r="R23" s="80"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="78"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="91"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="80"/>
       <c r="AB23" s="18"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="69"/>
-      <c r="AJ23" s="78"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="68"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="80"/>
       <c r="AK23" s="18"/>
       <c r="AL23" s="43"/>
       <c r="AM23" s="43"/>
       <c r="AN23" s="43"/>
       <c r="AO23" s="43"/>
-      <c r="AP23" s="72"/>
-      <c r="AQ23" s="69"/>
-      <c r="AR23" s="63"/>
-      <c r="AS23" s="78"/>
+      <c r="AP23" s="74"/>
+      <c r="AQ23" s="71"/>
+      <c r="AR23" s="65"/>
+      <c r="AS23" s="80"/>
       <c r="AT23" s="18"/>
-      <c r="AU23" s="66"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="66"/>
-      <c r="AZ23" s="96"/>
+      <c r="AU23" s="68"/>
+      <c r="AV23" s="68"/>
+      <c r="AW23" s="68"/>
+      <c r="AX23" s="68"/>
+      <c r="AY23" s="68"/>
+      <c r="AZ23" s="101"/>
       <c r="BA23" s="45"/>
-      <c r="BB23" s="78"/>
+      <c r="BB23" s="80"/>
       <c r="BC23" s="18"/>
       <c r="BD23" s="43"/>
       <c r="BE23" s="43"/>
@@ -12034,16 +11947,16 @@
       <c r="BH23" s="43"/>
       <c r="BI23" s="43"/>
       <c r="BJ23" s="43"/>
-      <c r="BK23" s="78"/>
+      <c r="BK23" s="80"/>
     </row>
     <row r="24" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="47" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
@@ -12060,22 +11973,22 @@
       <c r="Q24" s="36"/>
       <c r="R24" s="37"/>
       <c r="S24" s="18"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="62"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="64"/>
       <c r="AA24" s="37"/>
       <c r="AB24" s="18"/>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="69"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="68"/>
+      <c r="AG24" s="68"/>
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="71"/>
       <c r="AJ24" s="37" t="s">
         <v>44</v>
       </c>
@@ -12084,17 +11997,17 @@
       <c r="AM24" s="43"/>
       <c r="AN24" s="43"/>
       <c r="AO24" s="43"/>
-      <c r="AP24" s="72"/>
-      <c r="AQ24" s="69"/>
-      <c r="AR24" s="63"/>
+      <c r="AP24" s="74"/>
+      <c r="AQ24" s="71"/>
+      <c r="AR24" s="65"/>
       <c r="AS24" s="37"/>
       <c r="AT24" s="18"/>
-      <c r="AU24" s="66"/>
-      <c r="AV24" s="66"/>
-      <c r="AW24" s="66"/>
-      <c r="AX24" s="66"/>
-      <c r="AY24" s="66"/>
-      <c r="AZ24" s="96"/>
+      <c r="AU24" s="68"/>
+      <c r="AV24" s="68"/>
+      <c r="AW24" s="68"/>
+      <c r="AX24" s="68"/>
+      <c r="AY24" s="68"/>
+      <c r="AZ24" s="101"/>
       <c r="BA24" s="45"/>
       <c r="BB24" s="37"/>
       <c r="BC24" s="18"/>
@@ -12108,7 +12021,7 @@
       <c r="BK24" s="37"/>
     </row>
     <row r="25" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="47" t="s">
         <v>117</v>
       </c>
       <c r="B25" s="36"/>
@@ -12118,7 +12031,7 @@
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
-      <c r="I25" s="92"/>
+      <c r="I25" s="97"/>
       <c r="J25" s="18"/>
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
@@ -12127,43 +12040,43 @@
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
-      <c r="R25" s="77"/>
+      <c r="R25" s="79"/>
       <c r="S25" s="18"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="77"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="79"/>
       <c r="AB25" s="18"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="66"/>
-      <c r="AF25" s="66"/>
-      <c r="AG25" s="66"/>
-      <c r="AH25" s="69"/>
-      <c r="AI25" s="69"/>
-      <c r="AJ25" s="77"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="68"/>
+      <c r="AG25" s="68"/>
+      <c r="AH25" s="71"/>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="79"/>
       <c r="AK25" s="18"/>
       <c r="AL25" s="43"/>
       <c r="AM25" s="43"/>
       <c r="AN25" s="43"/>
       <c r="AO25" s="43"/>
-      <c r="AP25" s="72"/>
-      <c r="AQ25" s="69"/>
-      <c r="AR25" s="63"/>
-      <c r="AS25" s="77"/>
+      <c r="AP25" s="74"/>
+      <c r="AQ25" s="71"/>
+      <c r="AR25" s="65"/>
+      <c r="AS25" s="79"/>
       <c r="AT25" s="18"/>
-      <c r="AU25" s="66"/>
-      <c r="AV25" s="66"/>
-      <c r="AW25" s="66"/>
-      <c r="AX25" s="66"/>
-      <c r="AY25" s="66"/>
-      <c r="AZ25" s="96"/>
+      <c r="AU25" s="68"/>
+      <c r="AV25" s="68"/>
+      <c r="AW25" s="68"/>
+      <c r="AX25" s="68"/>
+      <c r="AY25" s="68"/>
+      <c r="AZ25" s="101"/>
       <c r="BA25" s="45"/>
-      <c r="BB25" s="77"/>
+      <c r="BB25" s="79"/>
       <c r="BC25" s="18"/>
       <c r="BD25" s="43"/>
       <c r="BE25" s="43"/>
@@ -12172,10 +12085,10 @@
       <c r="BH25" s="43"/>
       <c r="BI25" s="43"/>
       <c r="BJ25" s="43"/>
-      <c r="BK25" s="77"/>
+      <c r="BK25" s="79"/>
     </row>
     <row r="26" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="47" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="36"/>
@@ -12185,7 +12098,7 @@
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
-      <c r="I26" s="93"/>
+      <c r="I26" s="98"/>
       <c r="J26" s="18"/>
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
@@ -12194,43 +12107,43 @@
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
       <c r="Q26" s="36"/>
-      <c r="R26" s="78"/>
+      <c r="R26" s="80"/>
       <c r="S26" s="18"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="78"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="84"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="80"/>
       <c r="AB26" s="18"/>
-      <c r="AC26" s="67"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="69"/>
-      <c r="AJ26" s="78"/>
+      <c r="AC26" s="69"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="68"/>
+      <c r="AF26" s="68"/>
+      <c r="AG26" s="68"/>
+      <c r="AH26" s="71"/>
+      <c r="AI26" s="71"/>
+      <c r="AJ26" s="80"/>
       <c r="AK26" s="18"/>
       <c r="AL26" s="43"/>
       <c r="AM26" s="43"/>
       <c r="AN26" s="43"/>
       <c r="AO26" s="43"/>
-      <c r="AP26" s="72"/>
-      <c r="AQ26" s="69"/>
-      <c r="AR26" s="63"/>
-      <c r="AS26" s="78"/>
+      <c r="AP26" s="74"/>
+      <c r="AQ26" s="71"/>
+      <c r="AR26" s="65"/>
+      <c r="AS26" s="80"/>
       <c r="AT26" s="18"/>
-      <c r="AU26" s="67"/>
-      <c r="AV26" s="67"/>
-      <c r="AW26" s="67"/>
-      <c r="AX26" s="67"/>
-      <c r="AY26" s="67"/>
-      <c r="AZ26" s="96"/>
+      <c r="AU26" s="69"/>
+      <c r="AV26" s="69"/>
+      <c r="AW26" s="69"/>
+      <c r="AX26" s="69"/>
+      <c r="AY26" s="69"/>
+      <c r="AZ26" s="101"/>
       <c r="BA26" s="45"/>
-      <c r="BB26" s="78"/>
+      <c r="BB26" s="80"/>
       <c r="BC26" s="18"/>
       <c r="BD26" s="43"/>
       <c r="BE26" s="43"/>
@@ -12239,10 +12152,10 @@
       <c r="BH26" s="43"/>
       <c r="BI26" s="43"/>
       <c r="BJ26" s="43"/>
-      <c r="BK26" s="78"/>
+      <c r="BK26" s="80"/>
     </row>
     <row r="27" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="47" t="s">
         <v>107</v>
       </c>
       <c r="B27" s="36"/>
@@ -12252,7 +12165,7 @@
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="93"/>
+      <c r="I27" s="98"/>
       <c r="J27" s="18"/>
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
@@ -12261,43 +12174,43 @@
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
-      <c r="R27" s="78"/>
+      <c r="R27" s="80"/>
       <c r="S27" s="18"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="78"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="68"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="80"/>
       <c r="AB27" s="18"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="66"/>
-      <c r="AF27" s="66"/>
-      <c r="AG27" s="66"/>
-      <c r="AH27" s="69"/>
-      <c r="AI27" s="69"/>
-      <c r="AJ27" s="78"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="74"/>
+      <c r="AE27" s="68"/>
+      <c r="AF27" s="68"/>
+      <c r="AG27" s="68"/>
+      <c r="AH27" s="71"/>
+      <c r="AI27" s="71"/>
+      <c r="AJ27" s="80"/>
       <c r="AK27" s="18"/>
       <c r="AL27" s="43"/>
       <c r="AM27" s="43"/>
       <c r="AN27" s="43"/>
       <c r="AO27" s="43"/>
-      <c r="AP27" s="72"/>
-      <c r="AQ27" s="69"/>
-      <c r="AR27" s="64"/>
-      <c r="AS27" s="78"/>
+      <c r="AP27" s="74"/>
+      <c r="AQ27" s="71"/>
+      <c r="AR27" s="66"/>
+      <c r="AS27" s="80"/>
       <c r="AT27" s="18"/>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="62"/>
-      <c r="AW27" s="62"/>
-      <c r="AX27" s="62"/>
-      <c r="AY27" s="62"/>
-      <c r="AZ27" s="96"/>
+      <c r="AU27" s="64"/>
+      <c r="AV27" s="64"/>
+      <c r="AW27" s="64"/>
+      <c r="AX27" s="64"/>
+      <c r="AY27" s="64"/>
+      <c r="AZ27" s="101"/>
       <c r="BA27" s="45"/>
-      <c r="BB27" s="78"/>
+      <c r="BB27" s="80"/>
       <c r="BC27" s="18"/>
       <c r="BD27" s="43"/>
       <c r="BE27" s="43"/>
@@ -12306,10 +12219,10 @@
       <c r="BH27" s="43"/>
       <c r="BI27" s="43"/>
       <c r="BJ27" s="43"/>
-      <c r="BK27" s="78"/>
+      <c r="BK27" s="80"/>
     </row>
     <row r="28" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="47" t="s">
         <v>127</v>
       </c>
       <c r="B28" s="36"/>
@@ -12319,7 +12232,7 @@
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
-      <c r="I28" s="93"/>
+      <c r="I28" s="98"/>
       <c r="J28" s="18"/>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
@@ -12328,43 +12241,43 @@
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
       <c r="Q28" s="36"/>
-      <c r="R28" s="78"/>
+      <c r="R28" s="80"/>
       <c r="S28" s="18"/>
       <c r="T28" s="35"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="78"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="68"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="80"/>
       <c r="AB28" s="18"/>
-      <c r="AC28" s="63"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="67"/>
-      <c r="AF28" s="67"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="69"/>
-      <c r="AJ28" s="78"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="69"/>
+      <c r="AF28" s="69"/>
+      <c r="AG28" s="68"/>
+      <c r="AH28" s="71"/>
+      <c r="AI28" s="71"/>
+      <c r="AJ28" s="80"/>
       <c r="AK28" s="18"/>
       <c r="AL28" s="43"/>
       <c r="AM28" s="43"/>
       <c r="AN28" s="43"/>
       <c r="AO28" s="43"/>
-      <c r="AP28" s="72"/>
-      <c r="AQ28" s="70"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="78"/>
+      <c r="AP28" s="74"/>
+      <c r="AQ28" s="72"/>
+      <c r="AR28" s="67"/>
+      <c r="AS28" s="80"/>
       <c r="AT28" s="18"/>
-      <c r="AU28" s="63"/>
-      <c r="AV28" s="63"/>
-      <c r="AW28" s="63"/>
-      <c r="AX28" s="63"/>
-      <c r="AY28" s="63"/>
-      <c r="AZ28" s="96"/>
+      <c r="AU28" s="65"/>
+      <c r="AV28" s="65"/>
+      <c r="AW28" s="65"/>
+      <c r="AX28" s="65"/>
+      <c r="AY28" s="65"/>
+      <c r="AZ28" s="101"/>
       <c r="BA28" s="45"/>
-      <c r="BB28" s="78"/>
+      <c r="BB28" s="80"/>
       <c r="BC28" s="18"/>
       <c r="BD28" s="43"/>
       <c r="BE28" s="43"/>
@@ -12373,10 +12286,10 @@
       <c r="BH28" s="43"/>
       <c r="BI28" s="43"/>
       <c r="BJ28" s="43"/>
-      <c r="BK28" s="78"/>
+      <c r="BK28" s="80"/>
     </row>
     <row r="29" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="47" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="36"/>
@@ -12386,7 +12299,7 @@
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
-      <c r="I29" s="93"/>
+      <c r="I29" s="98"/>
       <c r="J29" s="18"/>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
@@ -12395,43 +12308,43 @@
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
       <c r="Q29" s="36"/>
-      <c r="R29" s="78"/>
+      <c r="R29" s="80"/>
       <c r="S29" s="18"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="66"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="68"/>
       <c r="Z29" s="41"/>
-      <c r="AA29" s="78"/>
+      <c r="AA29" s="80"/>
       <c r="AB29" s="18"/>
-      <c r="AC29" s="63"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="65"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="69"/>
-      <c r="AI29" s="69"/>
-      <c r="AJ29" s="78"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="67"/>
+      <c r="AG29" s="68"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="80"/>
       <c r="AK29" s="18"/>
       <c r="AL29" s="43"/>
       <c r="AM29" s="43"/>
       <c r="AN29" s="43"/>
       <c r="AO29" s="43"/>
-      <c r="AP29" s="72"/>
-      <c r="AQ29" s="68"/>
-      <c r="AR29" s="66"/>
-      <c r="AS29" s="78"/>
+      <c r="AP29" s="74"/>
+      <c r="AQ29" s="70"/>
+      <c r="AR29" s="68"/>
+      <c r="AS29" s="80"/>
       <c r="AT29" s="18"/>
-      <c r="AU29" s="64"/>
-      <c r="AV29" s="64"/>
-      <c r="AW29" s="64"/>
-      <c r="AX29" s="64"/>
-      <c r="AY29" s="64"/>
-      <c r="AZ29" s="96"/>
+      <c r="AU29" s="66"/>
+      <c r="AV29" s="66"/>
+      <c r="AW29" s="66"/>
+      <c r="AX29" s="66"/>
+      <c r="AY29" s="66"/>
+      <c r="AZ29" s="101"/>
       <c r="BA29" s="45"/>
-      <c r="BB29" s="78"/>
+      <c r="BB29" s="80"/>
       <c r="BC29" s="18"/>
       <c r="BD29" s="43"/>
       <c r="BE29" s="43"/>
@@ -12440,10 +12353,10 @@
       <c r="BH29" s="43"/>
       <c r="BI29" s="43"/>
       <c r="BJ29" s="43"/>
-      <c r="BK29" s="78"/>
+      <c r="BK29" s="80"/>
     </row>
     <row r="30" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="47" t="s">
         <v>119</v>
       </c>
       <c r="B30" s="36"/>
@@ -12453,7 +12366,7 @@
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
-      <c r="I30" s="93"/>
+      <c r="I30" s="98"/>
       <c r="J30" s="18"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
@@ -12462,43 +12375,43 @@
       <c r="O30" s="36"/>
       <c r="P30" s="36"/>
       <c r="Q30" s="36"/>
-      <c r="R30" s="78"/>
+      <c r="R30" s="80"/>
       <c r="S30" s="18"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="78"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="68"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="80"/>
       <c r="AB30" s="18"/>
-      <c r="AC30" s="63"/>
-      <c r="AD30" s="73"/>
-      <c r="AE30" s="63"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="69"/>
-      <c r="AI30" s="69"/>
-      <c r="AJ30" s="78"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="68"/>
+      <c r="AG30" s="68"/>
+      <c r="AH30" s="71"/>
+      <c r="AI30" s="71"/>
+      <c r="AJ30" s="80"/>
       <c r="AK30" s="18"/>
       <c r="AL30" s="43"/>
       <c r="AM30" s="43"/>
       <c r="AN30" s="43"/>
       <c r="AO30" s="43"/>
-      <c r="AP30" s="72"/>
-      <c r="AQ30" s="69"/>
-      <c r="AR30" s="66"/>
-      <c r="AS30" s="78"/>
+      <c r="AP30" s="74"/>
+      <c r="AQ30" s="71"/>
+      <c r="AR30" s="68"/>
+      <c r="AS30" s="80"/>
       <c r="AT30" s="18"/>
-      <c r="AU30" s="65"/>
-      <c r="AV30" s="65"/>
-      <c r="AW30" s="65"/>
-      <c r="AX30" s="65"/>
-      <c r="AY30" s="65"/>
-      <c r="AZ30" s="96"/>
+      <c r="AU30" s="67"/>
+      <c r="AV30" s="67"/>
+      <c r="AW30" s="67"/>
+      <c r="AX30" s="67"/>
+      <c r="AY30" s="67"/>
+      <c r="AZ30" s="101"/>
       <c r="BA30" s="45"/>
-      <c r="BB30" s="78"/>
+      <c r="BB30" s="80"/>
       <c r="BC30" s="18"/>
       <c r="BD30" s="43"/>
       <c r="BE30" s="43"/>
@@ -12507,10 +12420,10 @@
       <c r="BH30" s="43"/>
       <c r="BI30" s="43"/>
       <c r="BJ30" s="43"/>
-      <c r="BK30" s="78"/>
+      <c r="BK30" s="80"/>
     </row>
     <row r="31" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="47" t="s">
         <v>128</v>
       </c>
       <c r="B31" s="36"/>
@@ -12520,7 +12433,7 @@
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
       <c r="H31" s="36"/>
-      <c r="I31" s="93"/>
+      <c r="I31" s="98"/>
       <c r="J31" s="18"/>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
@@ -12529,43 +12442,43 @@
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
       <c r="Q31" s="36"/>
-      <c r="R31" s="78"/>
+      <c r="R31" s="80"/>
       <c r="S31" s="18"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="78"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="68"/>
+      <c r="AA31" s="80"/>
       <c r="AB31" s="18"/>
-      <c r="AC31" s="63"/>
-      <c r="AD31" s="62"/>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="66"/>
-      <c r="AG31" s="67"/>
-      <c r="AH31" s="69"/>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="78"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="64"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="68"/>
+      <c r="AG31" s="69"/>
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="80"/>
       <c r="AK31" s="18"/>
       <c r="AL31" s="43"/>
       <c r="AM31" s="43"/>
       <c r="AN31" s="43"/>
       <c r="AO31" s="43"/>
-      <c r="AP31" s="72"/>
-      <c r="AQ31" s="69"/>
-      <c r="AR31" s="66"/>
-      <c r="AS31" s="78"/>
+      <c r="AP31" s="74"/>
+      <c r="AQ31" s="71"/>
+      <c r="AR31" s="68"/>
+      <c r="AS31" s="80"/>
       <c r="AT31" s="18"/>
-      <c r="AU31" s="66"/>
-      <c r="AV31" s="66"/>
-      <c r="AW31" s="66"/>
-      <c r="AX31" s="66"/>
-      <c r="AY31" s="66"/>
-      <c r="AZ31" s="96"/>
+      <c r="AU31" s="68"/>
+      <c r="AV31" s="68"/>
+      <c r="AW31" s="68"/>
+      <c r="AX31" s="68"/>
+      <c r="AY31" s="68"/>
+      <c r="AZ31" s="101"/>
       <c r="BA31" s="45"/>
-      <c r="BB31" s="78"/>
+      <c r="BB31" s="80"/>
       <c r="BC31" s="18"/>
       <c r="BD31" s="43"/>
       <c r="BE31" s="43"/>
@@ -12574,10 +12487,10 @@
       <c r="BH31" s="43"/>
       <c r="BI31" s="43"/>
       <c r="BJ31" s="43"/>
-      <c r="BK31" s="78"/>
+      <c r="BK31" s="80"/>
     </row>
     <row r="32" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="47" t="s">
         <v>129</v>
       </c>
       <c r="B32" s="36"/>
@@ -12587,7 +12500,7 @@
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
       <c r="H32" s="36"/>
-      <c r="I32" s="93"/>
+      <c r="I32" s="98"/>
       <c r="J32" s="18"/>
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
@@ -12596,43 +12509,43 @@
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
       <c r="Q32" s="36"/>
-      <c r="R32" s="78"/>
+      <c r="R32" s="80"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="83"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="69"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="78"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="80"/>
       <c r="AB32" s="18"/>
-      <c r="AC32" s="63"/>
-      <c r="AD32" s="63"/>
-      <c r="AE32" s="63"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="69"/>
-      <c r="AI32" s="69"/>
-      <c r="AJ32" s="78"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="65"/>
+      <c r="AF32" s="68"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="71"/>
+      <c r="AI32" s="71"/>
+      <c r="AJ32" s="80"/>
       <c r="AK32" s="18"/>
       <c r="AL32" s="43"/>
       <c r="AM32" s="43"/>
       <c r="AN32" s="43"/>
       <c r="AO32" s="43"/>
-      <c r="AP32" s="72"/>
-      <c r="AQ32" s="69"/>
-      <c r="AR32" s="71"/>
-      <c r="AS32" s="78"/>
+      <c r="AP32" s="74"/>
+      <c r="AQ32" s="71"/>
+      <c r="AR32" s="73"/>
+      <c r="AS32" s="80"/>
       <c r="AT32" s="18"/>
-      <c r="AU32" s="66"/>
-      <c r="AV32" s="66"/>
-      <c r="AW32" s="66"/>
-      <c r="AX32" s="66"/>
-      <c r="AY32" s="66"/>
-      <c r="AZ32" s="96"/>
+      <c r="AU32" s="68"/>
+      <c r="AV32" s="68"/>
+      <c r="AW32" s="68"/>
+      <c r="AX32" s="68"/>
+      <c r="AY32" s="68"/>
+      <c r="AZ32" s="101"/>
       <c r="BA32" s="45"/>
-      <c r="BB32" s="78"/>
+      <c r="BB32" s="80"/>
       <c r="BC32" s="18"/>
       <c r="BD32" s="43"/>
       <c r="BE32" s="43"/>
@@ -12641,10 +12554,10 @@
       <c r="BH32" s="43"/>
       <c r="BI32" s="43"/>
       <c r="BJ32" s="43"/>
-      <c r="BK32" s="78"/>
+      <c r="BK32" s="80"/>
     </row>
     <row r="33" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="99" t="s">
+      <c r="A33" s="47" t="s">
         <v>109</v>
       </c>
       <c r="B33" s="36"/>
@@ -12654,7 +12567,7 @@
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
       <c r="H33" s="36"/>
-      <c r="I33" s="93"/>
+      <c r="I33" s="98"/>
       <c r="J33" s="18"/>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
@@ -12663,43 +12576,43 @@
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
       <c r="Q33" s="36"/>
-      <c r="R33" s="79"/>
+      <c r="R33" s="81"/>
       <c r="S33" s="18"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="84"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="67"/>
-      <c r="Z33" s="67"/>
-      <c r="AA33" s="79"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="69"/>
+      <c r="AA33" s="81"/>
       <c r="AB33" s="18"/>
-      <c r="AC33" s="63"/>
-      <c r="AD33" s="63"/>
-      <c r="AE33" s="63"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="63"/>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="69"/>
-      <c r="AJ33" s="79"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="68"/>
+      <c r="AG33" s="65"/>
+      <c r="AH33" s="71"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="81"/>
       <c r="AK33" s="18"/>
       <c r="AL33" s="43"/>
       <c r="AM33" s="43"/>
       <c r="AN33" s="43"/>
       <c r="AO33" s="43"/>
-      <c r="AP33" s="72"/>
-      <c r="AQ33" s="69"/>
-      <c r="AR33" s="72"/>
-      <c r="AS33" s="79"/>
+      <c r="AP33" s="74"/>
+      <c r="AQ33" s="71"/>
+      <c r="AR33" s="74"/>
+      <c r="AS33" s="81"/>
       <c r="AT33" s="18"/>
-      <c r="AU33" s="66"/>
-      <c r="AV33" s="66"/>
-      <c r="AW33" s="66"/>
-      <c r="AX33" s="66"/>
-      <c r="AY33" s="66"/>
-      <c r="AZ33" s="96"/>
+      <c r="AU33" s="68"/>
+      <c r="AV33" s="68"/>
+      <c r="AW33" s="68"/>
+      <c r="AX33" s="68"/>
+      <c r="AY33" s="68"/>
+      <c r="AZ33" s="101"/>
       <c r="BA33" s="45"/>
-      <c r="BB33" s="79"/>
+      <c r="BB33" s="81"/>
       <c r="BC33" s="18"/>
       <c r="BD33" s="43"/>
       <c r="BE33" s="43"/>
@@ -12708,10 +12621,10 @@
       <c r="BH33" s="43"/>
       <c r="BI33" s="43"/>
       <c r="BJ33" s="43"/>
-      <c r="BK33" s="79"/>
+      <c r="BK33" s="81"/>
     </row>
     <row r="34" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="47" t="s">
         <v>120</v>
       </c>
       <c r="B34" s="36"/>
@@ -12721,7 +12634,7 @@
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
       <c r="H34" s="36"/>
-      <c r="I34" s="93"/>
+      <c r="I34" s="98"/>
       <c r="J34" s="18"/>
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
@@ -12732,22 +12645,22 @@
       <c r="Q34" s="36"/>
       <c r="R34" s="37"/>
       <c r="S34" s="18"/>
-      <c r="T34" s="81"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="81"/>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="64"/>
       <c r="AA34" s="37"/>
       <c r="AB34" s="18"/>
-      <c r="AC34" s="63"/>
-      <c r="AD34" s="63"/>
-      <c r="AE34" s="63"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="63"/>
-      <c r="AH34" s="69"/>
-      <c r="AI34" s="69"/>
+      <c r="AC34" s="65"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="68"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="71"/>
+      <c r="AI34" s="71"/>
       <c r="AJ34" s="37" t="s">
         <v>45</v>
       </c>
@@ -12756,17 +12669,17 @@
       <c r="AM34" s="43"/>
       <c r="AN34" s="43"/>
       <c r="AO34" s="43"/>
-      <c r="AP34" s="72"/>
-      <c r="AQ34" s="69"/>
-      <c r="AR34" s="72"/>
+      <c r="AP34" s="74"/>
+      <c r="AQ34" s="71"/>
+      <c r="AR34" s="74"/>
       <c r="AS34" s="37"/>
       <c r="AT34" s="18"/>
-      <c r="AU34" s="67"/>
-      <c r="AV34" s="67"/>
-      <c r="AW34" s="67"/>
-      <c r="AX34" s="67"/>
-      <c r="AY34" s="67"/>
-      <c r="AZ34" s="96"/>
+      <c r="AU34" s="69"/>
+      <c r="AV34" s="69"/>
+      <c r="AW34" s="69"/>
+      <c r="AX34" s="69"/>
+      <c r="AY34" s="69"/>
+      <c r="AZ34" s="101"/>
       <c r="BA34" s="45"/>
       <c r="BB34" s="37"/>
       <c r="BC34" s="18"/>
@@ -12780,7 +12693,7 @@
       <c r="BK34" s="37"/>
     </row>
     <row r="35" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="47" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="36"/>
@@ -12790,7 +12703,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
       <c r="H35" s="36"/>
-      <c r="I35" s="93"/>
+      <c r="I35" s="98"/>
       <c r="J35" s="18"/>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
@@ -12799,25 +12712,25 @@
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
       <c r="Q35" s="36"/>
-      <c r="R35" s="80"/>
+      <c r="R35" s="82"/>
       <c r="S35" s="18"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="63"/>
-      <c r="Z35" s="63"/>
-      <c r="AA35" s="80"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="65"/>
+      <c r="Z35" s="65"/>
+      <c r="AA35" s="82"/>
       <c r="AB35" s="18"/>
-      <c r="AC35" s="63"/>
-      <c r="AD35" s="63"/>
-      <c r="AE35" s="63"/>
-      <c r="AF35" s="66"/>
-      <c r="AG35" s="63"/>
-      <c r="AH35" s="69"/>
-      <c r="AI35" s="69"/>
-      <c r="AJ35" s="80">
+      <c r="AC35" s="65"/>
+      <c r="AD35" s="65"/>
+      <c r="AE35" s="65"/>
+      <c r="AF35" s="68"/>
+      <c r="AG35" s="65"/>
+      <c r="AH35" s="71"/>
+      <c r="AI35" s="71"/>
+      <c r="AJ35" s="82">
         <f>AJ40/4-AJ41/2</f>
         <v>3.625</v>
       </c>
@@ -12826,19 +12739,19 @@
       <c r="AM35" s="43"/>
       <c r="AN35" s="43"/>
       <c r="AO35" s="43"/>
-      <c r="AP35" s="72"/>
-      <c r="AQ35" s="69"/>
-      <c r="AR35" s="72"/>
-      <c r="AS35" s="80"/>
+      <c r="AP35" s="74"/>
+      <c r="AQ35" s="71"/>
+      <c r="AR35" s="74"/>
+      <c r="AS35" s="82"/>
       <c r="AT35" s="18"/>
-      <c r="AU35" s="62"/>
-      <c r="AV35" s="62"/>
-      <c r="AW35" s="62"/>
-      <c r="AX35" s="62"/>
-      <c r="AY35" s="62"/>
-      <c r="AZ35" s="96"/>
+      <c r="AU35" s="64"/>
+      <c r="AV35" s="64"/>
+      <c r="AW35" s="64"/>
+      <c r="AX35" s="64"/>
+      <c r="AY35" s="64"/>
+      <c r="AZ35" s="101"/>
       <c r="BA35" s="45"/>
-      <c r="BB35" s="80"/>
+      <c r="BB35" s="82"/>
       <c r="BC35" s="18"/>
       <c r="BD35" s="43"/>
       <c r="BE35" s="43"/>
@@ -12847,10 +12760,10 @@
       <c r="BH35" s="43"/>
       <c r="BI35" s="43"/>
       <c r="BJ35" s="43"/>
-      <c r="BK35" s="80"/>
+      <c r="BK35" s="82"/>
     </row>
     <row r="36" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="99" t="s">
+      <c r="A36" s="47" t="s">
         <v>130</v>
       </c>
       <c r="B36" s="36"/>
@@ -12860,7 +12773,7 @@
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
       <c r="H36" s="36"/>
-      <c r="I36" s="94"/>
+      <c r="I36" s="99"/>
       <c r="J36" s="18"/>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
@@ -12869,43 +12782,43 @@
       <c r="O36" s="36"/>
       <c r="P36" s="36"/>
       <c r="Q36" s="36"/>
-      <c r="R36" s="80"/>
+      <c r="R36" s="82"/>
       <c r="S36" s="18"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="54"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="70"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="64"/>
-      <c r="AA36" s="80"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="72"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="82"/>
       <c r="AB36" s="18"/>
-      <c r="AC36" s="64"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="64"/>
-      <c r="AF36" s="67"/>
-      <c r="AG36" s="64"/>
-      <c r="AH36" s="70"/>
-      <c r="AI36" s="70"/>
-      <c r="AJ36" s="80"/>
+      <c r="AC36" s="66"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="69"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="72"/>
+      <c r="AI36" s="72"/>
+      <c r="AJ36" s="82"/>
       <c r="AK36" s="18"/>
       <c r="AL36" s="43"/>
       <c r="AM36" s="43"/>
       <c r="AN36" s="43"/>
       <c r="AO36" s="43"/>
-      <c r="AP36" s="73"/>
-      <c r="AQ36" s="70"/>
-      <c r="AR36" s="73"/>
-      <c r="AS36" s="80"/>
+      <c r="AP36" s="75"/>
+      <c r="AQ36" s="72"/>
+      <c r="AR36" s="75"/>
+      <c r="AS36" s="82"/>
       <c r="AT36" s="18"/>
-      <c r="AU36" s="64"/>
-      <c r="AV36" s="64"/>
-      <c r="AW36" s="64"/>
-      <c r="AX36" s="64"/>
-      <c r="AY36" s="64"/>
-      <c r="AZ36" s="97"/>
+      <c r="AU36" s="66"/>
+      <c r="AV36" s="66"/>
+      <c r="AW36" s="66"/>
+      <c r="AX36" s="66"/>
+      <c r="AY36" s="66"/>
+      <c r="AZ36" s="102"/>
       <c r="BA36" s="46"/>
-      <c r="BB36" s="80"/>
+      <c r="BB36" s="82"/>
       <c r="BC36" s="18"/>
       <c r="BD36" s="43"/>
       <c r="BE36" s="43"/>
@@ -12914,7 +12827,7 @@
       <c r="BH36" s="43"/>
       <c r="BI36" s="43"/>
       <c r="BJ36" s="43"/>
-      <c r="BK36" s="80"/>
+      <c r="BK36" s="82"/>
     </row>
     <row r="37" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
@@ -14865,7 +14778,8 @@
       <c r="BK55" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="160">
+  <mergeCells count="161">
+    <mergeCell ref="E21:E24"/>
     <mergeCell ref="BK5:BK6"/>
     <mergeCell ref="BK8:BK13"/>
     <mergeCell ref="BK15:BK18"/>
@@ -14969,15 +14883,6 @@
     <mergeCell ref="AA20:AA23"/>
     <mergeCell ref="AA25:AA33"/>
     <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="W3:W7"/>
-    <mergeCell ref="W8:W12"/>
-    <mergeCell ref="W13:W15"/>
-    <mergeCell ref="W16:W21"/>
-    <mergeCell ref="W22:W24"/>
-    <mergeCell ref="W25:W29"/>
-    <mergeCell ref="W30:W33"/>
-    <mergeCell ref="W34:W36"/>
-    <mergeCell ref="U3:U6"/>
     <mergeCell ref="U7:U12"/>
     <mergeCell ref="U13:U16"/>
     <mergeCell ref="U17:U25"/>
@@ -14987,7 +14892,6 @@
     <mergeCell ref="V13:V15"/>
     <mergeCell ref="V16:V24"/>
     <mergeCell ref="V25:V36"/>
-    <mergeCell ref="R5:R6"/>
     <mergeCell ref="R8:R13"/>
     <mergeCell ref="R15:R18"/>
     <mergeCell ref="R20:R23"/>
@@ -15003,6 +14907,15 @@
     <mergeCell ref="T34:T36"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="S1:AA1"/>
+    <mergeCell ref="W3:W7"/>
+    <mergeCell ref="W8:W12"/>
+    <mergeCell ref="W13:W15"/>
+    <mergeCell ref="W16:W21"/>
+    <mergeCell ref="W22:W24"/>
+    <mergeCell ref="W25:W29"/>
+    <mergeCell ref="W30:W33"/>
+    <mergeCell ref="W34:W36"/>
+    <mergeCell ref="U3:U6"/>
     <mergeCell ref="AB1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
     <mergeCell ref="AT1:BB1"/>
@@ -15026,6 +14939,7 @@
     <mergeCell ref="AJ20:AJ23"/>
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="I20:I23"/>
+    <mergeCell ref="R5:R6"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15050,7 +14964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>

--- a/TestDemo/doc/2019年时间消费模板.xlsx
+++ b/TestDemo/doc/2019年时间消费模板.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_eclipse\work3.0\Study\TestDemo\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinpeilin/eclipse-workspace/Study/TestDemo/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9E7C7744-5725-F744-9269-EDE0231413A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="10320" tabRatio="824"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="时间消费" sheetId="9" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
   <si>
     <t>2018年第5周</t>
   </si>
@@ -531,12 +532,58 @@
     <t>学习算法题</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>回家</t>
+    <rPh sb="0" eb="2">
+      <t>hui jia</t>
+    </rPh>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <rPh sb="0" eb="1">
+      <t>liao tina</t>
+    </rPh>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身</t>
+    <rPh sb="0" eb="122">
+      <t>jian sheng</t>
+    </rPh>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱洗衣服</t>
+    <rPh sb="0" eb="1">
+      <t>xi</t>
+    </rPh>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>逛淘宝买衣服</t>
+    <rPh sb="0" eb="3">
+      <t>guang tao bao</t>
+    </rPh>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理计划</t>
+    <rPh sb="0" eb="2">
+      <t>zheng li</t>
+    </rPh>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Procrastination</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -644,6 +691,13 @@
     <font>
       <sz val="18"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -921,7 +975,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1055,8 +1109,8 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1073,32 +1127,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="15" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="15" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="15" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="15" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="15" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="15" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1136,35 +1202,47 @@
     <xf numFmtId="49" fontId="2" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="15" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="15" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="15" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="15" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="15" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="15" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1172,13 +1250,7 @@
     <xf numFmtId="49" fontId="11" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1190,51 +1262,60 @@
     <xf numFmtId="49" fontId="11" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FF33"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FF66FF33"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFCCCE46"/>
       <color rgb="FF5F527E"/>
@@ -10224,112 +10305,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="8" width="25.625" customWidth="1"/>
-    <col min="9" max="9" width="43.375" customWidth="1"/>
-    <col min="10" max="17" width="25.625" customWidth="1"/>
-    <col min="18" max="18" width="43.125" customWidth="1"/>
-    <col min="19" max="26" width="25.625" customWidth="1"/>
-    <col min="27" max="27" width="43.625" customWidth="1"/>
-    <col min="28" max="35" width="25.625" customWidth="1"/>
+    <col min="1" max="8" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="43.33203125" customWidth="1"/>
+    <col min="10" max="17" width="25.6640625" customWidth="1"/>
+    <col min="18" max="18" width="43.1640625" customWidth="1"/>
+    <col min="19" max="26" width="25.6640625" customWidth="1"/>
+    <col min="27" max="27" width="43.6640625" customWidth="1"/>
+    <col min="28" max="35" width="25.6640625" customWidth="1"/>
     <col min="36" max="36" width="44" customWidth="1"/>
-    <col min="37" max="44" width="25.625" customWidth="1"/>
-    <col min="45" max="45" width="55.625" customWidth="1"/>
-    <col min="46" max="53" width="25.625" customWidth="1"/>
+    <col min="37" max="44" width="25.6640625" customWidth="1"/>
+    <col min="45" max="45" width="55.6640625" customWidth="1"/>
+    <col min="46" max="53" width="25.6640625" customWidth="1"/>
     <col min="54" max="54" width="42" customWidth="1"/>
-    <col min="55" max="62" width="25.625" customWidth="1"/>
-    <col min="63" max="63" width="42.25" customWidth="1"/>
-    <col min="64" max="90" width="25.625" customWidth="1"/>
+    <col min="55" max="62" width="25.6640625" customWidth="1"/>
+    <col min="63" max="63" width="42.1640625" customWidth="1"/>
+    <col min="64" max="90" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:63" ht="34.5" customHeight="1">
+      <c r="A1" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="83" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49" t="s">
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49" t="s">
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49" t="s">
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49" t="s">
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="93"/>
+      <c r="AR1" s="93"/>
+      <c r="AS1" s="93"/>
+      <c r="AT1" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49" t="s">
+      <c r="AU1" s="93"/>
+      <c r="AV1" s="93"/>
+      <c r="AW1" s="93"/>
+      <c r="AX1" s="93"/>
+      <c r="AY1" s="93"/>
+      <c r="AZ1" s="93"/>
+      <c r="BA1" s="93"/>
+      <c r="BB1" s="93"/>
+      <c r="BC1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
+      <c r="BD1" s="93"/>
+      <c r="BE1" s="93"/>
+      <c r="BF1" s="93"/>
+      <c r="BG1" s="93"/>
+      <c r="BH1" s="93"/>
+      <c r="BI1" s="93"/>
+      <c r="BJ1" s="93"/>
+      <c r="BK1" s="93"/>
     </row>
-    <row r="2" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:63" ht="25" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -10520,7 +10601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="25" customHeight="1">
       <c r="A3" s="47" t="s">
         <v>98</v>
       </c>
@@ -10543,38 +10624,38 @@
       <c r="R3" s="34"/>
       <c r="S3" s="18"/>
       <c r="T3" s="35"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="61"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="100"/>
       <c r="AA3" s="34"/>
       <c r="AB3" s="18"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
       <c r="AJ3" s="34"/>
       <c r="AK3" s="18"/>
       <c r="AL3" s="43"/>
       <c r="AM3" s="43"/>
       <c r="AN3" s="43"/>
       <c r="AO3" s="43"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="64"/>
-      <c r="AR3" s="70"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="74"/>
       <c r="AS3" s="34"/>
       <c r="AT3" s="18"/>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="100"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="65"/>
       <c r="BA3" s="44"/>
       <c r="BB3" s="34"/>
       <c r="BC3" s="18"/>
@@ -10587,7 +10668,7 @@
       <c r="BJ3" s="43"/>
       <c r="BK3" s="34"/>
     </row>
-    <row r="4" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" ht="25" customHeight="1">
       <c r="A4" s="47" t="s">
         <v>121</v>
       </c>
@@ -10612,21 +10693,21 @@
       <c r="R4" s="37"/>
       <c r="S4" s="18"/>
       <c r="T4" s="38"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="62"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="101"/>
       <c r="AA4" s="37"/>
       <c r="AB4" s="18"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
       <c r="AJ4" s="37" t="s">
         <v>40</v>
       </c>
@@ -10635,17 +10716,17 @@
       <c r="AM4" s="43"/>
       <c r="AN4" s="43"/>
       <c r="AO4" s="43"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="71"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="75"/>
       <c r="AS4" s="37"/>
       <c r="AT4" s="18"/>
-      <c r="AU4" s="65"/>
-      <c r="AV4" s="65"/>
-      <c r="AW4" s="65"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="65"/>
-      <c r="AZ4" s="101"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="66"/>
       <c r="BA4" s="45"/>
       <c r="BB4" s="37"/>
       <c r="BC4" s="18"/>
@@ -10658,7 +10739,7 @@
       <c r="BJ4" s="43"/>
       <c r="BK4" s="37"/>
     </row>
-    <row r="5" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" ht="25" customHeight="1">
       <c r="A5" s="47" t="s">
         <v>111</v>
       </c>
@@ -10680,39 +10761,39 @@
       <c r="Q5" s="36"/>
       <c r="R5" s="50"/>
       <c r="S5" s="18"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="62"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="101"/>
       <c r="AA5" s="50"/>
       <c r="AB5" s="18"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="71"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="75"/>
       <c r="AJ5" s="50"/>
       <c r="AK5" s="18"/>
       <c r="AL5" s="43"/>
       <c r="AM5" s="43"/>
       <c r="AN5" s="43"/>
       <c r="AO5" s="43"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="65"/>
-      <c r="AR5" s="71"/>
+      <c r="AP5" s="78"/>
+      <c r="AQ5" s="69"/>
+      <c r="AR5" s="75"/>
       <c r="AS5" s="50"/>
       <c r="AT5" s="18"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="101"/>
+      <c r="AU5" s="69"/>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="66"/>
       <c r="BA5" s="45"/>
       <c r="BB5" s="50"/>
       <c r="BC5" s="18"/>
@@ -10725,7 +10806,7 @@
       <c r="BJ5" s="43"/>
       <c r="BK5" s="50"/>
     </row>
-    <row r="6" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" ht="25" customHeight="1">
       <c r="A6" s="47" t="s">
         <v>112</v>
       </c>
@@ -10747,39 +10828,39 @@
       <c r="Q6" s="36"/>
       <c r="R6" s="51"/>
       <c r="S6" s="18"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="62"/>
+      <c r="T6" s="91"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="101"/>
       <c r="AA6" s="51"/>
       <c r="AB6" s="18"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="94"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="75"/>
+      <c r="AI6" s="75"/>
       <c r="AJ6" s="51"/>
       <c r="AK6" s="18"/>
       <c r="AL6" s="43"/>
       <c r="AM6" s="43"/>
       <c r="AN6" s="43"/>
       <c r="AO6" s="43"/>
-      <c r="AP6" s="74"/>
-      <c r="AQ6" s="65"/>
-      <c r="AR6" s="71"/>
+      <c r="AP6" s="78"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="75"/>
       <c r="AS6" s="51"/>
       <c r="AT6" s="18"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="66"/>
-      <c r="AW6" s="66"/>
-      <c r="AX6" s="66"/>
-      <c r="AY6" s="66"/>
-      <c r="AZ6" s="101"/>
+      <c r="AU6" s="70"/>
+      <c r="AV6" s="70"/>
+      <c r="AW6" s="70"/>
+      <c r="AX6" s="70"/>
+      <c r="AY6" s="70"/>
+      <c r="AZ6" s="66"/>
       <c r="BA6" s="45"/>
       <c r="BB6" s="51"/>
       <c r="BC6" s="18"/>
@@ -10792,7 +10873,7 @@
       <c r="BJ6" s="43"/>
       <c r="BK6" s="51"/>
     </row>
-    <row r="7" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" ht="25" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>99</v>
       </c>
@@ -10817,21 +10898,21 @@
       <c r="R7" s="37"/>
       <c r="S7" s="18"/>
       <c r="T7" s="35"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="62"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="101"/>
       <c r="AA7" s="37"/>
       <c r="AB7" s="18"/>
-      <c r="AC7" s="68"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="68"/>
-      <c r="AG7" s="95"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
       <c r="AJ7" s="37" t="s">
         <v>41</v>
       </c>
@@ -10840,17 +10921,17 @@
       <c r="AM7" s="43"/>
       <c r="AN7" s="43"/>
       <c r="AO7" s="43"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="65"/>
-      <c r="AR7" s="71"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="75"/>
       <c r="AS7" s="37"/>
       <c r="AT7" s="18"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67"/>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="101"/>
+      <c r="AU7" s="71"/>
+      <c r="AV7" s="71"/>
+      <c r="AW7" s="71"/>
+      <c r="AX7" s="71"/>
+      <c r="AY7" s="71"/>
+      <c r="AZ7" s="66"/>
       <c r="BA7" s="45"/>
       <c r="BB7" s="37"/>
       <c r="BC7" s="18"/>
@@ -10863,7 +10944,7 @@
       <c r="BJ7" s="43"/>
       <c r="BK7" s="37"/>
     </row>
-    <row r="8" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" ht="25" customHeight="1">
       <c r="A8" s="47" t="s">
         <v>113</v>
       </c>
@@ -10885,39 +10966,39 @@
       <c r="Q8" s="36"/>
       <c r="R8" s="52"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="62"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="101"/>
       <c r="AA8" s="52"/>
       <c r="AB8" s="18"/>
-      <c r="AC8" s="68"/>
-      <c r="AD8" s="68"/>
-      <c r="AE8" s="68"/>
-      <c r="AF8" s="68"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="71"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="75"/>
       <c r="AJ8" s="52"/>
       <c r="AK8" s="18"/>
       <c r="AL8" s="43"/>
       <c r="AM8" s="43"/>
       <c r="AN8" s="43"/>
       <c r="AO8" s="43"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="65"/>
-      <c r="AR8" s="71"/>
+      <c r="AP8" s="78"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="75"/>
       <c r="AS8" s="52"/>
       <c r="AT8" s="18"/>
-      <c r="AU8" s="68"/>
-      <c r="AV8" s="68"/>
-      <c r="AW8" s="68"/>
-      <c r="AX8" s="68"/>
-      <c r="AY8" s="68"/>
-      <c r="AZ8" s="101"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="72"/>
+      <c r="AY8" s="72"/>
+      <c r="AZ8" s="66"/>
       <c r="BA8" s="45"/>
       <c r="BB8" s="52"/>
       <c r="BC8" s="18"/>
@@ -10930,7 +11011,7 @@
       <c r="BJ8" s="43"/>
       <c r="BK8" s="52"/>
     </row>
-    <row r="9" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" ht="25" customHeight="1">
       <c r="A9" s="47" t="s">
         <v>100</v>
       </c>
@@ -10952,39 +11033,39 @@
       <c r="Q9" s="36"/>
       <c r="R9" s="53"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="62"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="101"/>
       <c r="AA9" s="53"/>
       <c r="AB9" s="18"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="68"/>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="71"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="81"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
       <c r="AJ9" s="53"/>
       <c r="AK9" s="18"/>
       <c r="AL9" s="43"/>
       <c r="AM9" s="43"/>
       <c r="AN9" s="43"/>
       <c r="AO9" s="43"/>
-      <c r="AP9" s="74"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="71"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="69"/>
+      <c r="AR9" s="75"/>
       <c r="AS9" s="53"/>
       <c r="AT9" s="18"/>
-      <c r="AU9" s="68"/>
-      <c r="AV9" s="68"/>
-      <c r="AW9" s="68"/>
-      <c r="AX9" s="68"/>
-      <c r="AY9" s="68"/>
-      <c r="AZ9" s="101"/>
+      <c r="AU9" s="72"/>
+      <c r="AV9" s="72"/>
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="66"/>
       <c r="BA9" s="45"/>
       <c r="BB9" s="53"/>
       <c r="BC9" s="18"/>
@@ -10997,7 +11078,7 @@
       <c r="BJ9" s="43"/>
       <c r="BK9" s="53"/>
     </row>
-    <row r="10" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" ht="25" customHeight="1">
       <c r="A10" s="47" t="s">
         <v>122</v>
       </c>
@@ -11019,39 +11100,39 @@
       <c r="Q10" s="36"/>
       <c r="R10" s="53"/>
       <c r="S10" s="18"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="62"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="101"/>
       <c r="AA10" s="53"/>
       <c r="AB10" s="18"/>
-      <c r="AC10" s="68"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="68"/>
-      <c r="AF10" s="68"/>
-      <c r="AG10" s="95"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
       <c r="AJ10" s="53"/>
       <c r="AK10" s="18"/>
       <c r="AL10" s="43"/>
       <c r="AM10" s="43"/>
       <c r="AN10" s="43"/>
       <c r="AO10" s="43"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="71"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="75"/>
       <c r="AS10" s="53"/>
       <c r="AT10" s="18"/>
-      <c r="AU10" s="68"/>
-      <c r="AV10" s="68"/>
-      <c r="AW10" s="68"/>
-      <c r="AX10" s="68"/>
-      <c r="AY10" s="68"/>
-      <c r="AZ10" s="101"/>
+      <c r="AU10" s="72"/>
+      <c r="AV10" s="72"/>
+      <c r="AW10" s="72"/>
+      <c r="AX10" s="72"/>
+      <c r="AY10" s="72"/>
+      <c r="AZ10" s="66"/>
       <c r="BA10" s="45"/>
       <c r="BB10" s="53"/>
       <c r="BC10" s="18"/>
@@ -11064,7 +11145,7 @@
       <c r="BJ10" s="43"/>
       <c r="BK10" s="53"/>
     </row>
-    <row r="11" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" ht="25" customHeight="1">
       <c r="A11" s="47" t="s">
         <v>123</v>
       </c>
@@ -11086,39 +11167,39 @@
       <c r="Q11" s="36"/>
       <c r="R11" s="53"/>
       <c r="S11" s="18"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="62"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="101"/>
       <c r="AA11" s="53"/>
       <c r="AB11" s="18"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="81"/>
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
       <c r="AJ11" s="53"/>
       <c r="AK11" s="18"/>
       <c r="AL11" s="43"/>
       <c r="AM11" s="43"/>
       <c r="AN11" s="43"/>
       <c r="AO11" s="43"/>
-      <c r="AP11" s="74"/>
-      <c r="AQ11" s="65"/>
-      <c r="AR11" s="71"/>
+      <c r="AP11" s="78"/>
+      <c r="AQ11" s="69"/>
+      <c r="AR11" s="75"/>
       <c r="AS11" s="53"/>
       <c r="AT11" s="18"/>
-      <c r="AU11" s="68"/>
-      <c r="AV11" s="68"/>
-      <c r="AW11" s="68"/>
-      <c r="AX11" s="68"/>
-      <c r="AY11" s="68"/>
-      <c r="AZ11" s="101"/>
+      <c r="AU11" s="72"/>
+      <c r="AV11" s="72"/>
+      <c r="AW11" s="72"/>
+      <c r="AX11" s="72"/>
+      <c r="AY11" s="72"/>
+      <c r="AZ11" s="66"/>
       <c r="BA11" s="45"/>
       <c r="BB11" s="53"/>
       <c r="BC11" s="18"/>
@@ -11131,7 +11212,7 @@
       <c r="BJ11" s="43"/>
       <c r="BK11" s="53"/>
     </row>
-    <row r="12" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" ht="25" customHeight="1">
       <c r="A12" s="47" t="s">
         <v>124</v>
       </c>
@@ -11153,39 +11234,39 @@
       <c r="Q12" s="36"/>
       <c r="R12" s="53"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="62"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="101"/>
       <c r="AA12" s="53"/>
       <c r="AB12" s="18"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="81"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
       <c r="AJ12" s="53"/>
       <c r="AK12" s="18"/>
       <c r="AL12" s="43"/>
       <c r="AM12" s="43"/>
       <c r="AN12" s="43"/>
       <c r="AO12" s="43"/>
-      <c r="AP12" s="74"/>
-      <c r="AQ12" s="65"/>
-      <c r="AR12" s="71"/>
+      <c r="AP12" s="78"/>
+      <c r="AQ12" s="69"/>
+      <c r="AR12" s="75"/>
       <c r="AS12" s="53"/>
       <c r="AT12" s="18"/>
-      <c r="AU12" s="69"/>
-      <c r="AV12" s="69"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="101"/>
+      <c r="AU12" s="73"/>
+      <c r="AV12" s="73"/>
+      <c r="AW12" s="73"/>
+      <c r="AX12" s="73"/>
+      <c r="AY12" s="73"/>
+      <c r="AZ12" s="66"/>
       <c r="BA12" s="45"/>
       <c r="BB12" s="53"/>
       <c r="BC12" s="18"/>
@@ -11198,7 +11279,7 @@
       <c r="BJ12" s="43"/>
       <c r="BK12" s="53"/>
     </row>
-    <row r="13" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" ht="25" customHeight="1">
       <c r="A13" s="47" t="s">
         <v>101</v>
       </c>
@@ -11220,39 +11301,39 @@
       <c r="Q13" s="36"/>
       <c r="R13" s="54"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="62"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="101"/>
       <c r="AA13" s="54"/>
       <c r="AB13" s="18"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="71"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="78"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="81"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="75"/>
       <c r="AJ13" s="54"/>
       <c r="AK13" s="18"/>
       <c r="AL13" s="43"/>
       <c r="AM13" s="43"/>
       <c r="AN13" s="43"/>
       <c r="AO13" s="43"/>
-      <c r="AP13" s="74"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="71"/>
+      <c r="AP13" s="78"/>
+      <c r="AQ13" s="70"/>
+      <c r="AR13" s="75"/>
       <c r="AS13" s="54"/>
       <c r="AT13" s="18"/>
-      <c r="AU13" s="64"/>
-      <c r="AV13" s="64"/>
-      <c r="AW13" s="64"/>
-      <c r="AX13" s="64"/>
-      <c r="AY13" s="64"/>
-      <c r="AZ13" s="101"/>
+      <c r="AU13" s="68"/>
+      <c r="AV13" s="68"/>
+      <c r="AW13" s="68"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="66"/>
       <c r="BA13" s="45"/>
       <c r="BB13" s="54"/>
       <c r="BC13" s="18"/>
@@ -11265,7 +11346,7 @@
       <c r="BJ13" s="43"/>
       <c r="BK13" s="54"/>
     </row>
-    <row r="14" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" ht="25" customHeight="1">
       <c r="A14" s="47" t="s">
         <v>125</v>
       </c>
@@ -11289,22 +11370,22 @@
       <c r="Q14" s="36"/>
       <c r="R14" s="33"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="62"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="101"/>
       <c r="AA14" s="33"/>
       <c r="AB14" s="18"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="65"/>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="71"/>
-      <c r="AI14" s="71"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="78"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
       <c r="AJ14" s="33" t="s">
         <v>42</v>
       </c>
@@ -11313,17 +11394,17 @@
       <c r="AM14" s="43"/>
       <c r="AN14" s="43"/>
       <c r="AO14" s="43"/>
-      <c r="AP14" s="74"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="71"/>
+      <c r="AP14" s="78"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="75"/>
       <c r="AS14" s="33"/>
       <c r="AT14" s="18"/>
-      <c r="AU14" s="65"/>
-      <c r="AV14" s="65"/>
-      <c r="AW14" s="65"/>
-      <c r="AX14" s="65"/>
-      <c r="AY14" s="65"/>
-      <c r="AZ14" s="101"/>
+      <c r="AU14" s="69"/>
+      <c r="AV14" s="69"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="69"/>
+      <c r="AZ14" s="66"/>
       <c r="BA14" s="45"/>
       <c r="BB14" s="33"/>
       <c r="BC14" s="18"/>
@@ -11336,7 +11417,7 @@
       <c r="BJ14" s="43"/>
       <c r="BK14" s="33"/>
     </row>
-    <row r="15" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" ht="25" customHeight="1">
       <c r="A15" s="47" t="s">
         <v>102</v>
       </c>
@@ -11347,7 +11428,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="76"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="18"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
@@ -11356,43 +11437,43 @@
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="36"/>
-      <c r="R15" s="76"/>
+      <c r="R15" s="55"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="76"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="101"/>
+      <c r="AA15" s="55"/>
       <c r="AB15" s="18"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="96"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="76"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="78"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="55"/>
       <c r="AK15" s="18"/>
       <c r="AL15" s="43"/>
       <c r="AM15" s="43"/>
       <c r="AN15" s="43"/>
       <c r="AO15" s="43"/>
-      <c r="AP15" s="74"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="71"/>
-      <c r="AS15" s="76"/>
+      <c r="AP15" s="78"/>
+      <c r="AQ15" s="69"/>
+      <c r="AR15" s="75"/>
+      <c r="AS15" s="55"/>
       <c r="AT15" s="18"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="66"/>
-      <c r="AZ15" s="101"/>
+      <c r="AU15" s="70"/>
+      <c r="AV15" s="70"/>
+      <c r="AW15" s="70"/>
+      <c r="AX15" s="70"/>
+      <c r="AY15" s="70"/>
+      <c r="AZ15" s="66"/>
       <c r="BA15" s="45"/>
-      <c r="BB15" s="76"/>
+      <c r="BB15" s="55"/>
       <c r="BC15" s="18"/>
       <c r="BD15" s="43"/>
       <c r="BE15" s="43"/>
@@ -11401,9 +11482,9 @@
       <c r="BH15" s="43"/>
       <c r="BI15" s="43"/>
       <c r="BJ15" s="43"/>
-      <c r="BK15" s="76"/>
+      <c r="BK15" s="55"/>
     </row>
-    <row r="16" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" ht="25" customHeight="1">
       <c r="A16" s="47" t="s">
         <v>126</v>
       </c>
@@ -11414,7 +11495,7 @@
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="77"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="18"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
@@ -11423,43 +11504,43 @@
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
-      <c r="R16" s="77"/>
+      <c r="R16" s="56"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="77"/>
+      <c r="T16" s="91"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="56"/>
       <c r="AB16" s="18"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="64"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="77"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="56"/>
       <c r="AK16" s="18"/>
       <c r="AL16" s="43"/>
       <c r="AM16" s="43"/>
       <c r="AN16" s="43"/>
       <c r="AO16" s="43"/>
-      <c r="AP16" s="74"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="77"/>
+      <c r="AP16" s="78"/>
+      <c r="AQ16" s="69"/>
+      <c r="AR16" s="76"/>
+      <c r="AS16" s="56"/>
       <c r="AT16" s="18"/>
-      <c r="AU16" s="67"/>
-      <c r="AV16" s="67"/>
-      <c r="AW16" s="67"/>
-      <c r="AX16" s="67"/>
-      <c r="AY16" s="67"/>
-      <c r="AZ16" s="101"/>
+      <c r="AU16" s="71"/>
+      <c r="AV16" s="71"/>
+      <c r="AW16" s="71"/>
+      <c r="AX16" s="71"/>
+      <c r="AY16" s="71"/>
+      <c r="AZ16" s="66"/>
       <c r="BA16" s="45"/>
-      <c r="BB16" s="77"/>
+      <c r="BB16" s="56"/>
       <c r="BC16" s="18"/>
       <c r="BD16" s="43"/>
       <c r="BE16" s="43"/>
@@ -11468,9 +11549,9 @@
       <c r="BH16" s="43"/>
       <c r="BI16" s="43"/>
       <c r="BJ16" s="43"/>
-      <c r="BK16" s="77"/>
+      <c r="BK16" s="56"/>
     </row>
-    <row r="17" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" ht="25" customHeight="1">
       <c r="A17" s="47" t="s">
         <v>103</v>
       </c>
@@ -11481,7 +11562,7 @@
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="77"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="18"/>
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
@@ -11490,43 +11571,43 @@
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
       <c r="Q17" s="36"/>
-      <c r="R17" s="77"/>
+      <c r="R17" s="56"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="77"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="101"/>
+      <c r="AA17" s="56"/>
       <c r="AB17" s="18"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="77"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="56"/>
       <c r="AK17" s="18"/>
       <c r="AL17" s="43"/>
       <c r="AM17" s="43"/>
       <c r="AN17" s="43"/>
       <c r="AO17" s="43"/>
-      <c r="AP17" s="74"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="64"/>
-      <c r="AS17" s="77"/>
+      <c r="AP17" s="78"/>
+      <c r="AQ17" s="70"/>
+      <c r="AR17" s="68"/>
+      <c r="AS17" s="56"/>
       <c r="AT17" s="18"/>
-      <c r="AU17" s="68"/>
-      <c r="AV17" s="68"/>
-      <c r="AW17" s="68"/>
-      <c r="AX17" s="68"/>
-      <c r="AY17" s="68"/>
-      <c r="AZ17" s="101"/>
+      <c r="AU17" s="72"/>
+      <c r="AV17" s="72"/>
+      <c r="AW17" s="72"/>
+      <c r="AX17" s="72"/>
+      <c r="AY17" s="72"/>
+      <c r="AZ17" s="66"/>
       <c r="BA17" s="45"/>
-      <c r="BB17" s="77"/>
+      <c r="BB17" s="56"/>
       <c r="BC17" s="18"/>
       <c r="BD17" s="43"/>
       <c r="BE17" s="43"/>
@@ -11535,22 +11616,22 @@
       <c r="BH17" s="43"/>
       <c r="BI17" s="43"/>
       <c r="BJ17" s="43"/>
-      <c r="BK17" s="77"/>
+      <c r="BK17" s="56"/>
     </row>
-    <row r="18" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" ht="25" customHeight="1">
       <c r="A18" s="47" t="s">
         <v>114</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="89" t="s">
+      <c r="E18" s="96" t="s">
         <v>132</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="78"/>
+      <c r="I18" s="57"/>
       <c r="J18" s="18"/>
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
@@ -11559,43 +11640,43 @@
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
       <c r="Q18" s="36"/>
-      <c r="R18" s="78"/>
+      <c r="R18" s="57"/>
       <c r="S18" s="18"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="78"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="101"/>
+      <c r="AA18" s="57"/>
       <c r="AB18" s="18"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="68"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="71"/>
-      <c r="AJ18" s="78"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="78"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="70"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="57"/>
       <c r="AK18" s="18"/>
       <c r="AL18" s="43"/>
       <c r="AM18" s="43"/>
       <c r="AN18" s="43"/>
       <c r="AO18" s="43"/>
-      <c r="AP18" s="74"/>
-      <c r="AQ18" s="70"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="78"/>
+      <c r="AP18" s="78"/>
+      <c r="AQ18" s="74"/>
+      <c r="AR18" s="69"/>
+      <c r="AS18" s="57"/>
       <c r="AT18" s="18"/>
-      <c r="AU18" s="68"/>
-      <c r="AV18" s="68"/>
-      <c r="AW18" s="68"/>
-      <c r="AX18" s="68"/>
-      <c r="AY18" s="68"/>
-      <c r="AZ18" s="101"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
+      <c r="AW18" s="72"/>
+      <c r="AX18" s="72"/>
+      <c r="AY18" s="72"/>
+      <c r="AZ18" s="66"/>
       <c r="BA18" s="45"/>
-      <c r="BB18" s="78"/>
+      <c r="BB18" s="57"/>
       <c r="BC18" s="18"/>
       <c r="BD18" s="43"/>
       <c r="BE18" s="43"/>
@@ -11604,16 +11685,16 @@
       <c r="BH18" s="43"/>
       <c r="BI18" s="43"/>
       <c r="BJ18" s="43"/>
-      <c r="BK18" s="78"/>
+      <c r="BK18" s="57"/>
     </row>
-    <row r="19" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" ht="25" customHeight="1">
       <c r="A19" s="47" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="90"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
@@ -11630,22 +11711,22 @@
       <c r="Q19" s="36"/>
       <c r="R19" s="37"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="62"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="101"/>
       <c r="AA19" s="37"/>
       <c r="AB19" s="18"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="68"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="67"/>
-      <c r="AH19" s="71"/>
-      <c r="AI19" s="71"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="72"/>
+      <c r="AF19" s="72"/>
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="75"/>
+      <c r="AI19" s="75"/>
       <c r="AJ19" s="37" t="s">
         <v>43</v>
       </c>
@@ -11654,17 +11735,17 @@
       <c r="AM19" s="43"/>
       <c r="AN19" s="43"/>
       <c r="AO19" s="43"/>
-      <c r="AP19" s="74"/>
-      <c r="AQ19" s="71"/>
-      <c r="AR19" s="65"/>
+      <c r="AP19" s="78"/>
+      <c r="AQ19" s="75"/>
+      <c r="AR19" s="69"/>
       <c r="AS19" s="37"/>
       <c r="AT19" s="18"/>
-      <c r="AU19" s="68"/>
-      <c r="AV19" s="68"/>
-      <c r="AW19" s="68"/>
-      <c r="AX19" s="68"/>
-      <c r="AY19" s="68"/>
-      <c r="AZ19" s="101"/>
+      <c r="AU19" s="72"/>
+      <c r="AV19" s="72"/>
+      <c r="AW19" s="72"/>
+      <c r="AX19" s="72"/>
+      <c r="AY19" s="72"/>
+      <c r="AZ19" s="66"/>
       <c r="BA19" s="45"/>
       <c r="BB19" s="37"/>
       <c r="BC19" s="18"/>
@@ -11677,7 +11758,7 @@
       <c r="BJ19" s="43"/>
       <c r="BK19" s="37"/>
     </row>
-    <row r="20" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" ht="25" customHeight="1">
       <c r="A20" s="47" t="s">
         <v>131</v>
       </c>
@@ -11690,7 +11771,7 @@
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
-      <c r="I20" s="79"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="18"/>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
@@ -11699,43 +11780,43 @@
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
       <c r="Q20" s="36"/>
-      <c r="R20" s="79"/>
+      <c r="R20" s="58"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="79"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="101"/>
+      <c r="AA20" s="58"/>
       <c r="AB20" s="18"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="71"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="79"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="58"/>
       <c r="AK20" s="18"/>
       <c r="AL20" s="43"/>
       <c r="AM20" s="43"/>
       <c r="AN20" s="43"/>
       <c r="AO20" s="43"/>
-      <c r="AP20" s="74"/>
-      <c r="AQ20" s="71"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="79"/>
+      <c r="AP20" s="78"/>
+      <c r="AQ20" s="75"/>
+      <c r="AR20" s="69"/>
+      <c r="AS20" s="58"/>
       <c r="AT20" s="18"/>
-      <c r="AU20" s="68"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="101"/>
+      <c r="AU20" s="72"/>
+      <c r="AV20" s="72"/>
+      <c r="AW20" s="72"/>
+      <c r="AX20" s="72"/>
+      <c r="AY20" s="72"/>
+      <c r="AZ20" s="66"/>
       <c r="BA20" s="45"/>
-      <c r="BB20" s="79"/>
+      <c r="BB20" s="58"/>
       <c r="BC20" s="18"/>
       <c r="BD20" s="43"/>
       <c r="BE20" s="43"/>
@@ -11744,22 +11825,22 @@
       <c r="BH20" s="43"/>
       <c r="BI20" s="43"/>
       <c r="BJ20" s="43"/>
-      <c r="BK20" s="79"/>
+      <c r="BK20" s="58"/>
     </row>
-    <row r="21" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" ht="25" customHeight="1">
       <c r="A21" s="47" t="s">
         <v>105</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="104" t="s">
+      <c r="E21" s="109" t="s">
         <v>134</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
-      <c r="I21" s="80"/>
+      <c r="I21" s="59"/>
       <c r="J21" s="18"/>
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
@@ -11768,43 +11849,43 @@
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="36"/>
-      <c r="R21" s="80"/>
+      <c r="R21" s="59"/>
       <c r="S21" s="18"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="80"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="59"/>
       <c r="AB21" s="18"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="71"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="80"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="72"/>
+      <c r="AF21" s="72"/>
+      <c r="AG21" s="72"/>
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="75"/>
+      <c r="AJ21" s="59"/>
       <c r="AK21" s="18"/>
       <c r="AL21" s="43"/>
       <c r="AM21" s="43"/>
       <c r="AN21" s="43"/>
       <c r="AO21" s="43"/>
-      <c r="AP21" s="74"/>
-      <c r="AQ21" s="71"/>
-      <c r="AR21" s="65"/>
-      <c r="AS21" s="80"/>
+      <c r="AP21" s="78"/>
+      <c r="AQ21" s="75"/>
+      <c r="AR21" s="69"/>
+      <c r="AS21" s="59"/>
       <c r="AT21" s="18"/>
-      <c r="AU21" s="68"/>
-      <c r="AV21" s="68"/>
-      <c r="AW21" s="68"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="101"/>
+      <c r="AU21" s="72"/>
+      <c r="AV21" s="72"/>
+      <c r="AW21" s="72"/>
+      <c r="AX21" s="72"/>
+      <c r="AY21" s="72"/>
+      <c r="AZ21" s="66"/>
       <c r="BA21" s="45"/>
-      <c r="BB21" s="80"/>
+      <c r="BB21" s="59"/>
       <c r="BC21" s="18"/>
       <c r="BD21" s="43"/>
       <c r="BE21" s="43"/>
@@ -11813,20 +11894,20 @@
       <c r="BH21" s="43"/>
       <c r="BI21" s="43"/>
       <c r="BJ21" s="43"/>
-      <c r="BK21" s="80"/>
+      <c r="BK21" s="59"/>
     </row>
-    <row r="22" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" ht="25" customHeight="1">
       <c r="A22" s="47" t="s">
         <v>115</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="103"/>
+      <c r="E22" s="111"/>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="80"/>
+      <c r="I22" s="59"/>
       <c r="J22" s="18"/>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
@@ -11835,43 +11916,43 @@
       <c r="O22" s="36"/>
       <c r="P22" s="36"/>
       <c r="Q22" s="36"/>
-      <c r="R22" s="80"/>
+      <c r="R22" s="59"/>
       <c r="S22" s="18"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="80"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="101"/>
+      <c r="AA22" s="59"/>
       <c r="AB22" s="18"/>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="74"/>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="80"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="78"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="59"/>
       <c r="AK22" s="18"/>
       <c r="AL22" s="43"/>
       <c r="AM22" s="43"/>
       <c r="AN22" s="43"/>
       <c r="AO22" s="43"/>
-      <c r="AP22" s="74"/>
-      <c r="AQ22" s="71"/>
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="80"/>
+      <c r="AP22" s="78"/>
+      <c r="AQ22" s="75"/>
+      <c r="AR22" s="69"/>
+      <c r="AS22" s="59"/>
       <c r="AT22" s="18"/>
-      <c r="AU22" s="68"/>
-      <c r="AV22" s="68"/>
-      <c r="AW22" s="68"/>
-      <c r="AX22" s="68"/>
-      <c r="AY22" s="68"/>
-      <c r="AZ22" s="101"/>
+      <c r="AU22" s="72"/>
+      <c r="AV22" s="72"/>
+      <c r="AW22" s="72"/>
+      <c r="AX22" s="72"/>
+      <c r="AY22" s="72"/>
+      <c r="AZ22" s="66"/>
       <c r="BA22" s="45"/>
-      <c r="BB22" s="80"/>
+      <c r="BB22" s="59"/>
       <c r="BC22" s="18"/>
       <c r="BD22" s="43"/>
       <c r="BE22" s="43"/>
@@ -11880,20 +11961,20 @@
       <c r="BH22" s="43"/>
       <c r="BI22" s="43"/>
       <c r="BJ22" s="43"/>
-      <c r="BK22" s="80"/>
+      <c r="BK22" s="59"/>
     </row>
-    <row r="23" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" ht="25" customHeight="1">
       <c r="A23" s="47" t="s">
         <v>106</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="103"/>
+      <c r="E23" s="111"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
-      <c r="I23" s="80"/>
+      <c r="I23" s="59"/>
       <c r="J23" s="18"/>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
@@ -11902,43 +11983,43 @@
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
       <c r="Q23" s="36"/>
-      <c r="R23" s="80"/>
+      <c r="R23" s="59"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="80"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="59"/>
       <c r="AB23" s="18"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="74"/>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="68"/>
-      <c r="AH23" s="71"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="80"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="78"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="75"/>
+      <c r="AI23" s="75"/>
+      <c r="AJ23" s="59"/>
       <c r="AK23" s="18"/>
       <c r="AL23" s="43"/>
       <c r="AM23" s="43"/>
       <c r="AN23" s="43"/>
       <c r="AO23" s="43"/>
-      <c r="AP23" s="74"/>
-      <c r="AQ23" s="71"/>
-      <c r="AR23" s="65"/>
-      <c r="AS23" s="80"/>
+      <c r="AP23" s="78"/>
+      <c r="AQ23" s="75"/>
+      <c r="AR23" s="69"/>
+      <c r="AS23" s="59"/>
       <c r="AT23" s="18"/>
-      <c r="AU23" s="68"/>
-      <c r="AV23" s="68"/>
-      <c r="AW23" s="68"/>
-      <c r="AX23" s="68"/>
-      <c r="AY23" s="68"/>
-      <c r="AZ23" s="101"/>
+      <c r="AU23" s="72"/>
+      <c r="AV23" s="72"/>
+      <c r="AW23" s="72"/>
+      <c r="AX23" s="72"/>
+      <c r="AY23" s="72"/>
+      <c r="AZ23" s="66"/>
       <c r="BA23" s="45"/>
-      <c r="BB23" s="80"/>
+      <c r="BB23" s="59"/>
       <c r="BC23" s="18"/>
       <c r="BD23" s="43"/>
       <c r="BE23" s="43"/>
@@ -11947,16 +12028,16 @@
       <c r="BH23" s="43"/>
       <c r="BI23" s="43"/>
       <c r="BJ23" s="43"/>
-      <c r="BK23" s="80"/>
+      <c r="BK23" s="59"/>
     </row>
-    <row r="24" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" ht="25" customHeight="1">
       <c r="A24" s="47" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="90"/>
+      <c r="E24" s="112"/>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
@@ -11973,22 +12054,22 @@
       <c r="Q24" s="36"/>
       <c r="R24" s="37"/>
       <c r="S24" s="18"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="64"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="68"/>
       <c r="AA24" s="37"/>
       <c r="AB24" s="18"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="75"/>
-      <c r="AE24" s="68"/>
-      <c r="AF24" s="68"/>
-      <c r="AG24" s="68"/>
-      <c r="AH24" s="71"/>
-      <c r="AI24" s="71"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="75"/>
       <c r="AJ24" s="37" t="s">
         <v>44</v>
       </c>
@@ -11997,17 +12078,17 @@
       <c r="AM24" s="43"/>
       <c r="AN24" s="43"/>
       <c r="AO24" s="43"/>
-      <c r="AP24" s="74"/>
-      <c r="AQ24" s="71"/>
-      <c r="AR24" s="65"/>
+      <c r="AP24" s="78"/>
+      <c r="AQ24" s="75"/>
+      <c r="AR24" s="69"/>
       <c r="AS24" s="37"/>
       <c r="AT24" s="18"/>
-      <c r="AU24" s="68"/>
-      <c r="AV24" s="68"/>
-      <c r="AW24" s="68"/>
-      <c r="AX24" s="68"/>
-      <c r="AY24" s="68"/>
-      <c r="AZ24" s="101"/>
+      <c r="AU24" s="72"/>
+      <c r="AV24" s="72"/>
+      <c r="AW24" s="72"/>
+      <c r="AX24" s="72"/>
+      <c r="AY24" s="72"/>
+      <c r="AZ24" s="66"/>
       <c r="BA24" s="45"/>
       <c r="BB24" s="37"/>
       <c r="BC24" s="18"/>
@@ -12020,18 +12101,18 @@
       <c r="BJ24" s="43"/>
       <c r="BK24" s="37"/>
     </row>
-    <row r="25" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" ht="25" customHeight="1">
       <c r="A25" s="47" t="s">
         <v>117</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
+      <c r="E25" s="103"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
-      <c r="I25" s="97"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="18"/>
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
@@ -12040,43 +12121,43 @@
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
-      <c r="R25" s="79"/>
+      <c r="R25" s="58"/>
       <c r="S25" s="18"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="79"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="58"/>
       <c r="AB25" s="18"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="73"/>
-      <c r="AE25" s="68"/>
-      <c r="AF25" s="68"/>
-      <c r="AG25" s="68"/>
-      <c r="AH25" s="71"/>
-      <c r="AI25" s="71"/>
-      <c r="AJ25" s="79"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="75"/>
+      <c r="AI25" s="75"/>
+      <c r="AJ25" s="58"/>
       <c r="AK25" s="18"/>
       <c r="AL25" s="43"/>
       <c r="AM25" s="43"/>
       <c r="AN25" s="43"/>
       <c r="AO25" s="43"/>
-      <c r="AP25" s="74"/>
-      <c r="AQ25" s="71"/>
-      <c r="AR25" s="65"/>
-      <c r="AS25" s="79"/>
+      <c r="AP25" s="78"/>
+      <c r="AQ25" s="75"/>
+      <c r="AR25" s="69"/>
+      <c r="AS25" s="58"/>
       <c r="AT25" s="18"/>
-      <c r="AU25" s="68"/>
-      <c r="AV25" s="68"/>
-      <c r="AW25" s="68"/>
-      <c r="AX25" s="68"/>
-      <c r="AY25" s="68"/>
-      <c r="AZ25" s="101"/>
+      <c r="AU25" s="72"/>
+      <c r="AV25" s="72"/>
+      <c r="AW25" s="72"/>
+      <c r="AX25" s="72"/>
+      <c r="AY25" s="72"/>
+      <c r="AZ25" s="66"/>
       <c r="BA25" s="45"/>
-      <c r="BB25" s="79"/>
+      <c r="BB25" s="58"/>
       <c r="BC25" s="18"/>
       <c r="BD25" s="43"/>
       <c r="BE25" s="43"/>
@@ -12085,20 +12166,22 @@
       <c r="BH25" s="43"/>
       <c r="BI25" s="43"/>
       <c r="BJ25" s="43"/>
-      <c r="BK25" s="79"/>
+      <c r="BK25" s="58"/>
     </row>
-    <row r="26" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" ht="25" customHeight="1">
       <c r="A26" s="47" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
+      <c r="E26" s="107" t="s">
+        <v>135</v>
+      </c>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
-      <c r="I26" s="98"/>
+      <c r="I26" s="63"/>
       <c r="J26" s="18"/>
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
@@ -12107,43 +12190,43 @@
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
       <c r="Q26" s="36"/>
-      <c r="R26" s="80"/>
+      <c r="R26" s="59"/>
       <c r="S26" s="18"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="80"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="84"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="69"/>
+      <c r="AA26" s="59"/>
       <c r="AB26" s="18"/>
-      <c r="AC26" s="69"/>
-      <c r="AD26" s="74"/>
-      <c r="AE26" s="68"/>
-      <c r="AF26" s="68"/>
-      <c r="AG26" s="68"/>
-      <c r="AH26" s="71"/>
-      <c r="AI26" s="71"/>
-      <c r="AJ26" s="80"/>
+      <c r="AC26" s="73"/>
+      <c r="AD26" s="78"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="75"/>
+      <c r="AJ26" s="59"/>
       <c r="AK26" s="18"/>
       <c r="AL26" s="43"/>
       <c r="AM26" s="43"/>
       <c r="AN26" s="43"/>
       <c r="AO26" s="43"/>
-      <c r="AP26" s="74"/>
-      <c r="AQ26" s="71"/>
-      <c r="AR26" s="65"/>
-      <c r="AS26" s="80"/>
+      <c r="AP26" s="78"/>
+      <c r="AQ26" s="75"/>
+      <c r="AR26" s="69"/>
+      <c r="AS26" s="59"/>
       <c r="AT26" s="18"/>
-      <c r="AU26" s="69"/>
-      <c r="AV26" s="69"/>
-      <c r="AW26" s="69"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="69"/>
-      <c r="AZ26" s="101"/>
+      <c r="AU26" s="73"/>
+      <c r="AV26" s="73"/>
+      <c r="AW26" s="73"/>
+      <c r="AX26" s="73"/>
+      <c r="AY26" s="73"/>
+      <c r="AZ26" s="66"/>
       <c r="BA26" s="45"/>
-      <c r="BB26" s="80"/>
+      <c r="BB26" s="59"/>
       <c r="BC26" s="18"/>
       <c r="BD26" s="43"/>
       <c r="BE26" s="43"/>
@@ -12152,20 +12235,20 @@
       <c r="BH26" s="43"/>
       <c r="BI26" s="43"/>
       <c r="BJ26" s="43"/>
-      <c r="BK26" s="80"/>
+      <c r="BK26" s="59"/>
     </row>
-    <row r="27" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" ht="25" customHeight="1">
       <c r="A27" s="47" t="s">
         <v>107</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="98"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="18"/>
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
@@ -12174,43 +12257,43 @@
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
-      <c r="R27" s="80"/>
+      <c r="R27" s="59"/>
       <c r="S27" s="18"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="68"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="80"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="59"/>
       <c r="AB27" s="18"/>
-      <c r="AC27" s="64"/>
-      <c r="AD27" s="74"/>
-      <c r="AE27" s="68"/>
-      <c r="AF27" s="68"/>
-      <c r="AG27" s="68"/>
-      <c r="AH27" s="71"/>
-      <c r="AI27" s="71"/>
-      <c r="AJ27" s="80"/>
+      <c r="AC27" s="68"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="75"/>
+      <c r="AI27" s="75"/>
+      <c r="AJ27" s="59"/>
       <c r="AK27" s="18"/>
       <c r="AL27" s="43"/>
       <c r="AM27" s="43"/>
       <c r="AN27" s="43"/>
       <c r="AO27" s="43"/>
-      <c r="AP27" s="74"/>
-      <c r="AQ27" s="71"/>
-      <c r="AR27" s="66"/>
-      <c r="AS27" s="80"/>
+      <c r="AP27" s="78"/>
+      <c r="AQ27" s="75"/>
+      <c r="AR27" s="70"/>
+      <c r="AS27" s="59"/>
       <c r="AT27" s="18"/>
-      <c r="AU27" s="64"/>
-      <c r="AV27" s="64"/>
-      <c r="AW27" s="64"/>
-      <c r="AX27" s="64"/>
-      <c r="AY27" s="64"/>
-      <c r="AZ27" s="101"/>
+      <c r="AU27" s="68"/>
+      <c r="AV27" s="68"/>
+      <c r="AW27" s="68"/>
+      <c r="AX27" s="68"/>
+      <c r="AY27" s="68"/>
+      <c r="AZ27" s="66"/>
       <c r="BA27" s="45"/>
-      <c r="BB27" s="80"/>
+      <c r="BB27" s="59"/>
       <c r="BC27" s="18"/>
       <c r="BD27" s="43"/>
       <c r="BE27" s="43"/>
@@ -12219,20 +12302,22 @@
       <c r="BH27" s="43"/>
       <c r="BI27" s="43"/>
       <c r="BJ27" s="43"/>
-      <c r="BK27" s="80"/>
+      <c r="BK27" s="59"/>
     </row>
-    <row r="28" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" ht="25" customHeight="1">
       <c r="A28" s="47" t="s">
         <v>127</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
+      <c r="E28" s="104" t="s">
+        <v>136</v>
+      </c>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
-      <c r="I28" s="98"/>
+      <c r="I28" s="63"/>
       <c r="J28" s="18"/>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
@@ -12241,43 +12326,43 @@
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
       <c r="Q28" s="36"/>
-      <c r="R28" s="80"/>
+      <c r="R28" s="59"/>
       <c r="S28" s="18"/>
       <c r="T28" s="35"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="80"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="84"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="59"/>
       <c r="AB28" s="18"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="74"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="69"/>
-      <c r="AG28" s="68"/>
-      <c r="AH28" s="71"/>
-      <c r="AI28" s="71"/>
-      <c r="AJ28" s="80"/>
+      <c r="AC28" s="69"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="73"/>
+      <c r="AF28" s="73"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="75"/>
+      <c r="AJ28" s="59"/>
       <c r="AK28" s="18"/>
       <c r="AL28" s="43"/>
       <c r="AM28" s="43"/>
       <c r="AN28" s="43"/>
       <c r="AO28" s="43"/>
-      <c r="AP28" s="74"/>
-      <c r="AQ28" s="72"/>
-      <c r="AR28" s="67"/>
-      <c r="AS28" s="80"/>
+      <c r="AP28" s="78"/>
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="71"/>
+      <c r="AS28" s="59"/>
       <c r="AT28" s="18"/>
-      <c r="AU28" s="65"/>
-      <c r="AV28" s="65"/>
-      <c r="AW28" s="65"/>
-      <c r="AX28" s="65"/>
-      <c r="AY28" s="65"/>
-      <c r="AZ28" s="101"/>
+      <c r="AU28" s="69"/>
+      <c r="AV28" s="69"/>
+      <c r="AW28" s="69"/>
+      <c r="AX28" s="69"/>
+      <c r="AY28" s="69"/>
+      <c r="AZ28" s="66"/>
       <c r="BA28" s="45"/>
-      <c r="BB28" s="80"/>
+      <c r="BB28" s="59"/>
       <c r="BC28" s="18"/>
       <c r="BD28" s="43"/>
       <c r="BE28" s="43"/>
@@ -12286,20 +12371,20 @@
       <c r="BH28" s="43"/>
       <c r="BI28" s="43"/>
       <c r="BJ28" s="43"/>
-      <c r="BK28" s="80"/>
+      <c r="BK28" s="59"/>
     </row>
-    <row r="29" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" ht="25" customHeight="1">
       <c r="A29" s="47" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="E29" s="105"/>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
-      <c r="I29" s="98"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="18"/>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
@@ -12308,43 +12393,43 @@
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
       <c r="Q29" s="36"/>
-      <c r="R29" s="80"/>
+      <c r="R29" s="59"/>
       <c r="S29" s="18"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="68"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="72"/>
       <c r="Z29" s="41"/>
-      <c r="AA29" s="80"/>
+      <c r="AA29" s="59"/>
       <c r="AB29" s="18"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="74"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="67"/>
-      <c r="AG29" s="68"/>
-      <c r="AH29" s="71"/>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="80"/>
+      <c r="AC29" s="69"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="68"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="75"/>
+      <c r="AJ29" s="59"/>
       <c r="AK29" s="18"/>
       <c r="AL29" s="43"/>
       <c r="AM29" s="43"/>
       <c r="AN29" s="43"/>
       <c r="AO29" s="43"/>
-      <c r="AP29" s="74"/>
-      <c r="AQ29" s="70"/>
-      <c r="AR29" s="68"/>
-      <c r="AS29" s="80"/>
+      <c r="AP29" s="78"/>
+      <c r="AQ29" s="74"/>
+      <c r="AR29" s="72"/>
+      <c r="AS29" s="59"/>
       <c r="AT29" s="18"/>
-      <c r="AU29" s="66"/>
-      <c r="AV29" s="66"/>
-      <c r="AW29" s="66"/>
-      <c r="AX29" s="66"/>
-      <c r="AY29" s="66"/>
-      <c r="AZ29" s="101"/>
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="70"/>
+      <c r="AW29" s="70"/>
+      <c r="AX29" s="70"/>
+      <c r="AY29" s="70"/>
+      <c r="AZ29" s="66"/>
       <c r="BA29" s="45"/>
-      <c r="BB29" s="80"/>
+      <c r="BB29" s="59"/>
       <c r="BC29" s="18"/>
       <c r="BD29" s="43"/>
       <c r="BE29" s="43"/>
@@ -12353,20 +12438,22 @@
       <c r="BH29" s="43"/>
       <c r="BI29" s="43"/>
       <c r="BJ29" s="43"/>
-      <c r="BK29" s="80"/>
+      <c r="BK29" s="59"/>
     </row>
-    <row r="30" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" ht="25" customHeight="1">
       <c r="A30" s="47" t="s">
         <v>119</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
+      <c r="E30" s="106" t="s">
+        <v>137</v>
+      </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
-      <c r="I30" s="98"/>
+      <c r="I30" s="63"/>
       <c r="J30" s="18"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
@@ -12375,43 +12462,43 @@
       <c r="O30" s="36"/>
       <c r="P30" s="36"/>
       <c r="Q30" s="36"/>
-      <c r="R30" s="80"/>
+      <c r="R30" s="59"/>
       <c r="S30" s="18"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="88"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="86"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="80"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="59"/>
       <c r="AB30" s="18"/>
-      <c r="AC30" s="65"/>
-      <c r="AD30" s="75"/>
-      <c r="AE30" s="65"/>
-      <c r="AF30" s="68"/>
-      <c r="AG30" s="68"/>
-      <c r="AH30" s="71"/>
-      <c r="AI30" s="71"/>
-      <c r="AJ30" s="80"/>
+      <c r="AC30" s="69"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="69"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="75"/>
+      <c r="AI30" s="75"/>
+      <c r="AJ30" s="59"/>
       <c r="AK30" s="18"/>
       <c r="AL30" s="43"/>
       <c r="AM30" s="43"/>
       <c r="AN30" s="43"/>
       <c r="AO30" s="43"/>
-      <c r="AP30" s="74"/>
-      <c r="AQ30" s="71"/>
-      <c r="AR30" s="68"/>
-      <c r="AS30" s="80"/>
+      <c r="AP30" s="78"/>
+      <c r="AQ30" s="75"/>
+      <c r="AR30" s="72"/>
+      <c r="AS30" s="59"/>
       <c r="AT30" s="18"/>
-      <c r="AU30" s="67"/>
-      <c r="AV30" s="67"/>
-      <c r="AW30" s="67"/>
-      <c r="AX30" s="67"/>
-      <c r="AY30" s="67"/>
-      <c r="AZ30" s="101"/>
+      <c r="AU30" s="71"/>
+      <c r="AV30" s="71"/>
+      <c r="AW30" s="71"/>
+      <c r="AX30" s="71"/>
+      <c r="AY30" s="71"/>
+      <c r="AZ30" s="66"/>
       <c r="BA30" s="45"/>
-      <c r="BB30" s="80"/>
+      <c r="BB30" s="59"/>
       <c r="BC30" s="18"/>
       <c r="BD30" s="43"/>
       <c r="BE30" s="43"/>
@@ -12420,20 +12507,22 @@
       <c r="BH30" s="43"/>
       <c r="BI30" s="43"/>
       <c r="BJ30" s="43"/>
-      <c r="BK30" s="80"/>
+      <c r="BK30" s="59"/>
     </row>
-    <row r="31" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" ht="25" customHeight="1">
       <c r="A31" s="47" t="s">
         <v>128</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
+      <c r="E31" s="104" t="s">
+        <v>138</v>
+      </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
       <c r="H31" s="36"/>
-      <c r="I31" s="98"/>
+      <c r="I31" s="63"/>
       <c r="J31" s="18"/>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
@@ -12442,43 +12531,43 @@
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
       <c r="Q31" s="36"/>
-      <c r="R31" s="80"/>
+      <c r="R31" s="59"/>
       <c r="S31" s="18"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="93"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="80"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="99"/>
+      <c r="X31" s="75"/>
+      <c r="Y31" s="72"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="59"/>
       <c r="AB31" s="18"/>
-      <c r="AC31" s="65"/>
-      <c r="AD31" s="64"/>
-      <c r="AE31" s="65"/>
-      <c r="AF31" s="68"/>
-      <c r="AG31" s="69"/>
-      <c r="AH31" s="71"/>
-      <c r="AI31" s="71"/>
-      <c r="AJ31" s="80"/>
+      <c r="AC31" s="69"/>
+      <c r="AD31" s="68"/>
+      <c r="AE31" s="69"/>
+      <c r="AF31" s="72"/>
+      <c r="AG31" s="73"/>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="75"/>
+      <c r="AJ31" s="59"/>
       <c r="AK31" s="18"/>
       <c r="AL31" s="43"/>
       <c r="AM31" s="43"/>
       <c r="AN31" s="43"/>
       <c r="AO31" s="43"/>
-      <c r="AP31" s="74"/>
-      <c r="AQ31" s="71"/>
-      <c r="AR31" s="68"/>
-      <c r="AS31" s="80"/>
+      <c r="AP31" s="78"/>
+      <c r="AQ31" s="75"/>
+      <c r="AR31" s="72"/>
+      <c r="AS31" s="59"/>
       <c r="AT31" s="18"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="68"/>
-      <c r="AX31" s="68"/>
-      <c r="AY31" s="68"/>
-      <c r="AZ31" s="101"/>
+      <c r="AU31" s="72"/>
+      <c r="AV31" s="72"/>
+      <c r="AW31" s="72"/>
+      <c r="AX31" s="72"/>
+      <c r="AY31" s="72"/>
+      <c r="AZ31" s="66"/>
       <c r="BA31" s="45"/>
-      <c r="BB31" s="80"/>
+      <c r="BB31" s="59"/>
       <c r="BC31" s="18"/>
       <c r="BD31" s="43"/>
       <c r="BE31" s="43"/>
@@ -12487,20 +12576,20 @@
       <c r="BH31" s="43"/>
       <c r="BI31" s="43"/>
       <c r="BJ31" s="43"/>
-      <c r="BK31" s="80"/>
+      <c r="BK31" s="59"/>
     </row>
-    <row r="32" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63" ht="25" customHeight="1">
       <c r="A32" s="47" t="s">
         <v>129</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="E32" s="105"/>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
       <c r="H32" s="36"/>
-      <c r="I32" s="98"/>
+      <c r="I32" s="63"/>
       <c r="J32" s="18"/>
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
@@ -12509,43 +12598,43 @@
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
       <c r="Q32" s="36"/>
-      <c r="R32" s="80"/>
+      <c r="R32" s="59"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="88"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="93"/>
-      <c r="X32" s="71"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="80"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="99"/>
+      <c r="X32" s="75"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="59"/>
       <c r="AB32" s="18"/>
-      <c r="AC32" s="65"/>
-      <c r="AD32" s="65"/>
-      <c r="AE32" s="65"/>
-      <c r="AF32" s="68"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="71"/>
-      <c r="AI32" s="71"/>
-      <c r="AJ32" s="80"/>
+      <c r="AC32" s="69"/>
+      <c r="AD32" s="69"/>
+      <c r="AE32" s="69"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="68"/>
+      <c r="AH32" s="75"/>
+      <c r="AI32" s="75"/>
+      <c r="AJ32" s="59"/>
       <c r="AK32" s="18"/>
       <c r="AL32" s="43"/>
       <c r="AM32" s="43"/>
       <c r="AN32" s="43"/>
       <c r="AO32" s="43"/>
-      <c r="AP32" s="74"/>
-      <c r="AQ32" s="71"/>
-      <c r="AR32" s="73"/>
-      <c r="AS32" s="80"/>
+      <c r="AP32" s="78"/>
+      <c r="AQ32" s="75"/>
+      <c r="AR32" s="77"/>
+      <c r="AS32" s="59"/>
       <c r="AT32" s="18"/>
-      <c r="AU32" s="68"/>
-      <c r="AV32" s="68"/>
-      <c r="AW32" s="68"/>
-      <c r="AX32" s="68"/>
-      <c r="AY32" s="68"/>
-      <c r="AZ32" s="101"/>
+      <c r="AU32" s="72"/>
+      <c r="AV32" s="72"/>
+      <c r="AW32" s="72"/>
+      <c r="AX32" s="72"/>
+      <c r="AY32" s="72"/>
+      <c r="AZ32" s="66"/>
       <c r="BA32" s="45"/>
-      <c r="BB32" s="80"/>
+      <c r="BB32" s="59"/>
       <c r="BC32" s="18"/>
       <c r="BD32" s="43"/>
       <c r="BE32" s="43"/>
@@ -12554,20 +12643,22 @@
       <c r="BH32" s="43"/>
       <c r="BI32" s="43"/>
       <c r="BJ32" s="43"/>
-      <c r="BK32" s="80"/>
+      <c r="BK32" s="59"/>
     </row>
-    <row r="33" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" ht="25" customHeight="1">
       <c r="A33" s="47" t="s">
         <v>109</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
+      <c r="E33" s="104" t="s">
+        <v>139</v>
+      </c>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
       <c r="H33" s="36"/>
-      <c r="I33" s="98"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="18"/>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
@@ -12576,43 +12667,43 @@
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
       <c r="Q33" s="36"/>
-      <c r="R33" s="81"/>
+      <c r="R33" s="60"/>
       <c r="S33" s="18"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="60"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="71"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="81"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="60"/>
       <c r="AB33" s="18"/>
-      <c r="AC33" s="65"/>
-      <c r="AD33" s="65"/>
-      <c r="AE33" s="65"/>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="65"/>
-      <c r="AH33" s="71"/>
-      <c r="AI33" s="71"/>
-      <c r="AJ33" s="81"/>
+      <c r="AC33" s="69"/>
+      <c r="AD33" s="69"/>
+      <c r="AE33" s="69"/>
+      <c r="AF33" s="72"/>
+      <c r="AG33" s="69"/>
+      <c r="AH33" s="75"/>
+      <c r="AI33" s="75"/>
+      <c r="AJ33" s="60"/>
       <c r="AK33" s="18"/>
       <c r="AL33" s="43"/>
       <c r="AM33" s="43"/>
       <c r="AN33" s="43"/>
       <c r="AO33" s="43"/>
-      <c r="AP33" s="74"/>
-      <c r="AQ33" s="71"/>
-      <c r="AR33" s="74"/>
-      <c r="AS33" s="81"/>
+      <c r="AP33" s="78"/>
+      <c r="AQ33" s="75"/>
+      <c r="AR33" s="78"/>
+      <c r="AS33" s="60"/>
       <c r="AT33" s="18"/>
-      <c r="AU33" s="68"/>
-      <c r="AV33" s="68"/>
-      <c r="AW33" s="68"/>
-      <c r="AX33" s="68"/>
-      <c r="AY33" s="68"/>
-      <c r="AZ33" s="101"/>
+      <c r="AU33" s="72"/>
+      <c r="AV33" s="72"/>
+      <c r="AW33" s="72"/>
+      <c r="AX33" s="72"/>
+      <c r="AY33" s="72"/>
+      <c r="AZ33" s="66"/>
       <c r="BA33" s="45"/>
-      <c r="BB33" s="81"/>
+      <c r="BB33" s="60"/>
       <c r="BC33" s="18"/>
       <c r="BD33" s="43"/>
       <c r="BE33" s="43"/>
@@ -12621,20 +12712,20 @@
       <c r="BH33" s="43"/>
       <c r="BI33" s="43"/>
       <c r="BJ33" s="43"/>
-      <c r="BK33" s="81"/>
+      <c r="BK33" s="60"/>
     </row>
-    <row r="34" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" ht="25" customHeight="1">
       <c r="A34" s="47" t="s">
         <v>120</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
+      <c r="E34" s="105"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
       <c r="H34" s="36"/>
-      <c r="I34" s="98"/>
+      <c r="I34" s="63"/>
       <c r="J34" s="18"/>
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
@@ -12645,22 +12736,22 @@
       <c r="Q34" s="36"/>
       <c r="R34" s="37"/>
       <c r="S34" s="18"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="88"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="84"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="64"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="90"/>
+      <c r="W34" s="86"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
       <c r="AA34" s="37"/>
       <c r="AB34" s="18"/>
-      <c r="AC34" s="65"/>
-      <c r="AD34" s="65"/>
-      <c r="AE34" s="65"/>
-      <c r="AF34" s="68"/>
-      <c r="AG34" s="65"/>
-      <c r="AH34" s="71"/>
-      <c r="AI34" s="71"/>
+      <c r="AC34" s="69"/>
+      <c r="AD34" s="69"/>
+      <c r="AE34" s="69"/>
+      <c r="AF34" s="72"/>
+      <c r="AG34" s="69"/>
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="75"/>
       <c r="AJ34" s="37" t="s">
         <v>45</v>
       </c>
@@ -12669,17 +12760,17 @@
       <c r="AM34" s="43"/>
       <c r="AN34" s="43"/>
       <c r="AO34" s="43"/>
-      <c r="AP34" s="74"/>
-      <c r="AQ34" s="71"/>
-      <c r="AR34" s="74"/>
+      <c r="AP34" s="78"/>
+      <c r="AQ34" s="75"/>
+      <c r="AR34" s="78"/>
       <c r="AS34" s="37"/>
       <c r="AT34" s="18"/>
-      <c r="AU34" s="69"/>
-      <c r="AV34" s="69"/>
-      <c r="AW34" s="69"/>
-      <c r="AX34" s="69"/>
-      <c r="AY34" s="69"/>
-      <c r="AZ34" s="101"/>
+      <c r="AU34" s="73"/>
+      <c r="AV34" s="73"/>
+      <c r="AW34" s="73"/>
+      <c r="AX34" s="73"/>
+      <c r="AY34" s="73"/>
+      <c r="AZ34" s="66"/>
       <c r="BA34" s="45"/>
       <c r="BB34" s="37"/>
       <c r="BC34" s="18"/>
@@ -12692,18 +12783,20 @@
       <c r="BJ34" s="43"/>
       <c r="BK34" s="37"/>
     </row>
-    <row r="35" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" ht="25" customHeight="1">
       <c r="A35" s="47" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
+      <c r="E35" s="109" t="s">
+        <v>140</v>
+      </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
       <c r="H35" s="36"/>
-      <c r="I35" s="98"/>
+      <c r="I35" s="63"/>
       <c r="J35" s="18"/>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
@@ -12712,25 +12805,25 @@
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
       <c r="Q35" s="36"/>
-      <c r="R35" s="82"/>
+      <c r="R35" s="61"/>
       <c r="S35" s="18"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="88"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="82"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="87"/>
+      <c r="V35" s="90"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="75"/>
+      <c r="Y35" s="69"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="61"/>
       <c r="AB35" s="18"/>
-      <c r="AC35" s="65"/>
-      <c r="AD35" s="65"/>
-      <c r="AE35" s="65"/>
-      <c r="AF35" s="68"/>
-      <c r="AG35" s="65"/>
-      <c r="AH35" s="71"/>
-      <c r="AI35" s="71"/>
-      <c r="AJ35" s="82">
+      <c r="AC35" s="69"/>
+      <c r="AD35" s="69"/>
+      <c r="AE35" s="69"/>
+      <c r="AF35" s="72"/>
+      <c r="AG35" s="69"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="75"/>
+      <c r="AJ35" s="61">
         <f>AJ40/4-AJ41/2</f>
         <v>3.625</v>
       </c>
@@ -12739,19 +12832,19 @@
       <c r="AM35" s="43"/>
       <c r="AN35" s="43"/>
       <c r="AO35" s="43"/>
-      <c r="AP35" s="74"/>
-      <c r="AQ35" s="71"/>
-      <c r="AR35" s="74"/>
-      <c r="AS35" s="82"/>
+      <c r="AP35" s="78"/>
+      <c r="AQ35" s="75"/>
+      <c r="AR35" s="78"/>
+      <c r="AS35" s="61"/>
       <c r="AT35" s="18"/>
-      <c r="AU35" s="64"/>
-      <c r="AV35" s="64"/>
-      <c r="AW35" s="64"/>
-      <c r="AX35" s="64"/>
-      <c r="AY35" s="64"/>
-      <c r="AZ35" s="101"/>
+      <c r="AU35" s="68"/>
+      <c r="AV35" s="68"/>
+      <c r="AW35" s="68"/>
+      <c r="AX35" s="68"/>
+      <c r="AY35" s="68"/>
+      <c r="AZ35" s="66"/>
       <c r="BA35" s="45"/>
-      <c r="BB35" s="82"/>
+      <c r="BB35" s="61"/>
       <c r="BC35" s="18"/>
       <c r="BD35" s="43"/>
       <c r="BE35" s="43"/>
@@ -12760,20 +12853,20 @@
       <c r="BH35" s="43"/>
       <c r="BI35" s="43"/>
       <c r="BJ35" s="43"/>
-      <c r="BK35" s="82"/>
+      <c r="BK35" s="61"/>
     </row>
-    <row r="36" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" ht="25" customHeight="1">
       <c r="A36" s="47" t="s">
         <v>130</v>
       </c>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
+      <c r="E36" s="110"/>
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
       <c r="H36" s="36"/>
-      <c r="I36" s="99"/>
+      <c r="I36" s="64"/>
       <c r="J36" s="18"/>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
@@ -12782,43 +12875,43 @@
       <c r="O36" s="36"/>
       <c r="P36" s="36"/>
       <c r="Q36" s="36"/>
-      <c r="R36" s="82"/>
+      <c r="R36" s="61"/>
       <c r="S36" s="18"/>
-      <c r="T36" s="85"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="85"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="82"/>
+      <c r="T36" s="88"/>
+      <c r="U36" s="88"/>
+      <c r="V36" s="91"/>
+      <c r="W36" s="88"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="70"/>
+      <c r="Z36" s="70"/>
+      <c r="AA36" s="61"/>
       <c r="AB36" s="18"/>
-      <c r="AC36" s="66"/>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="69"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="72"/>
-      <c r="AI36" s="72"/>
-      <c r="AJ36" s="82"/>
+      <c r="AC36" s="70"/>
+      <c r="AD36" s="70"/>
+      <c r="AE36" s="70"/>
+      <c r="AF36" s="73"/>
+      <c r="AG36" s="70"/>
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="76"/>
+      <c r="AJ36" s="61"/>
       <c r="AK36" s="18"/>
       <c r="AL36" s="43"/>
       <c r="AM36" s="43"/>
       <c r="AN36" s="43"/>
       <c r="AO36" s="43"/>
-      <c r="AP36" s="75"/>
-      <c r="AQ36" s="72"/>
-      <c r="AR36" s="75"/>
-      <c r="AS36" s="82"/>
+      <c r="AP36" s="79"/>
+      <c r="AQ36" s="76"/>
+      <c r="AR36" s="79"/>
+      <c r="AS36" s="61"/>
       <c r="AT36" s="18"/>
-      <c r="AU36" s="66"/>
-      <c r="AV36" s="66"/>
-      <c r="AW36" s="66"/>
-      <c r="AX36" s="66"/>
-      <c r="AY36" s="66"/>
-      <c r="AZ36" s="102"/>
+      <c r="AU36" s="70"/>
+      <c r="AV36" s="70"/>
+      <c r="AW36" s="70"/>
+      <c r="AX36" s="70"/>
+      <c r="AY36" s="70"/>
+      <c r="AZ36" s="67"/>
       <c r="BA36" s="46"/>
-      <c r="BB36" s="82"/>
+      <c r="BB36" s="61"/>
       <c r="BC36" s="18"/>
       <c r="BD36" s="43"/>
       <c r="BE36" s="43"/>
@@ -12827,9 +12920,9 @@
       <c r="BH36" s="43"/>
       <c r="BI36" s="43"/>
       <c r="BJ36" s="43"/>
-      <c r="BK36" s="82"/>
+      <c r="BK36" s="61"/>
     </row>
-    <row r="37" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63" ht="25" customHeight="1">
       <c r="A37" s="19" t="s">
         <v>46</v>
       </c>
@@ -12937,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" ht="25" customHeight="1">
       <c r="A38" s="22" t="s">
         <v>47</v>
       </c>
@@ -13093,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" ht="25" customHeight="1">
       <c r="A39" s="25" t="s">
         <v>48</v>
       </c>
@@ -13195,7 +13288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:63" ht="25" customHeight="1">
       <c r="A40" s="26" t="s">
         <v>49</v>
       </c>
@@ -13339,9 +13432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>50</v>
+    <row r="41" spans="1:63" ht="25" customHeight="1">
+      <c r="A41" s="103" t="s">
+        <v>141</v>
       </c>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -13473,7 +13566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:63" ht="25" customHeight="1">
       <c r="A42" s="30" t="s">
         <v>51</v>
       </c>
@@ -13720,7 +13813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:63" ht="25" customHeight="1">
       <c r="A43" s="31" t="s">
         <v>52</v>
       </c>
@@ -13803,7 +13896,7 @@
       <c r="BJ43" s="23"/>
       <c r="BK43" s="24"/>
     </row>
-    <row r="44" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63" ht="25" customHeight="1">
       <c r="A44" s="31" t="s">
         <v>55</v>
       </c>
@@ -13886,14 +13979,16 @@
       <c r="BJ44" s="23"/>
       <c r="BK44" s="24"/>
     </row>
-    <row r="45" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:63" ht="25" customHeight="1">
       <c r="A45" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
+      <c r="E45" s="113" t="s">
+        <v>53</v>
+      </c>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -13969,7 +14064,7 @@
       <c r="BJ45" s="23"/>
       <c r="BK45" s="23"/>
     </row>
-    <row r="46" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:63" ht="25" customHeight="1">
       <c r="A46" s="31" t="s">
         <v>57</v>
       </c>
@@ -14052,7 +14147,7 @@
       <c r="BJ46" s="23"/>
       <c r="BK46" s="23"/>
     </row>
-    <row r="47" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:63" ht="25" customHeight="1">
       <c r="A47" s="31" t="s">
         <v>58</v>
       </c>
@@ -14135,7 +14230,7 @@
       <c r="BJ47" s="23"/>
       <c r="BK47" s="23"/>
     </row>
-    <row r="48" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:63" ht="25" customHeight="1">
       <c r="A48" s="31" t="s">
         <v>59</v>
       </c>
@@ -14220,7 +14315,7 @@
       <c r="BJ48" s="23"/>
       <c r="BK48" s="24"/>
     </row>
-    <row r="49" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:63" ht="25" customHeight="1">
       <c r="A49" s="31" t="s">
         <v>60</v>
       </c>
@@ -14303,7 +14398,7 @@
       <c r="BJ49" s="23"/>
       <c r="BK49" s="24"/>
     </row>
-    <row r="50" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:63" ht="25" customHeight="1">
       <c r="A50" s="31" t="s">
         <v>61</v>
       </c>
@@ -14382,7 +14477,7 @@
       <c r="BJ50" s="23"/>
       <c r="BK50" s="24"/>
     </row>
-    <row r="51" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:63" ht="25" customHeight="1">
       <c r="A51" s="31" t="s">
         <v>62</v>
       </c>
@@ -14461,7 +14556,7 @@
       <c r="BJ51" s="23"/>
       <c r="BK51" s="24"/>
     </row>
-    <row r="52" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:63" ht="25" customHeight="1">
       <c r="A52" s="31" t="s">
         <v>63</v>
       </c>
@@ -14540,7 +14635,7 @@
       <c r="BJ52" s="23"/>
       <c r="BK52" s="24"/>
     </row>
-    <row r="53" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:63" ht="25" customHeight="1">
       <c r="A53" s="31" t="s">
         <v>64</v>
       </c>
@@ -14619,7 +14714,7 @@
       <c r="BJ53" s="23"/>
       <c r="BK53" s="24"/>
     </row>
-    <row r="54" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:63" ht="25" customHeight="1">
       <c r="A54" s="31" t="s">
         <v>65</v>
       </c>
@@ -14698,7 +14793,7 @@
       <c r="BJ54" s="23"/>
       <c r="BK54" s="24"/>
     </row>
-    <row r="55" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:63" ht="25" customHeight="1">
       <c r="A55" s="31" t="s">
         <v>66</v>
       </c>
@@ -14778,7 +14873,149 @@
       <c r="BK55" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="166">
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BB1"/>
+    <mergeCell ref="BC1:BK1"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="T8:T12"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="Z3:Z23"/>
+    <mergeCell ref="AG16:AG18"/>
+    <mergeCell ref="AG19:AG31"/>
+    <mergeCell ref="AH3:AH36"/>
+    <mergeCell ref="AP3:AP36"/>
+    <mergeCell ref="AQ3:AQ13"/>
+    <mergeCell ref="AQ14:AQ17"/>
+    <mergeCell ref="AI3:AI36"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AJ8:AJ13"/>
+    <mergeCell ref="AJ15:AJ18"/>
+    <mergeCell ref="AJ20:AJ23"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R8:R13"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="R25:R33"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="T23:T27"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T34:T36"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="S1:AA1"/>
+    <mergeCell ref="W3:W7"/>
+    <mergeCell ref="W8:W12"/>
+    <mergeCell ref="W13:W15"/>
+    <mergeCell ref="W16:W21"/>
+    <mergeCell ref="W22:W24"/>
+    <mergeCell ref="W25:W29"/>
+    <mergeCell ref="W30:W33"/>
+    <mergeCell ref="W34:W36"/>
+    <mergeCell ref="U3:U6"/>
+    <mergeCell ref="U7:U12"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="U17:U25"/>
+    <mergeCell ref="U26:U36"/>
+    <mergeCell ref="V3:V7"/>
+    <mergeCell ref="V8:V12"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="V16:V24"/>
+    <mergeCell ref="V25:V36"/>
+    <mergeCell ref="Z24:Z28"/>
+    <mergeCell ref="Z30:Z33"/>
+    <mergeCell ref="Z34:Z36"/>
+    <mergeCell ref="AD6:AD9"/>
+    <mergeCell ref="AD10:AD24"/>
+    <mergeCell ref="AD25:AD30"/>
+    <mergeCell ref="AD31:AD36"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="X5:X11"/>
+    <mergeCell ref="X12:X16"/>
+    <mergeCell ref="X17:X36"/>
+    <mergeCell ref="Y3:Y8"/>
+    <mergeCell ref="Y9:Y12"/>
+    <mergeCell ref="Y13:Y33"/>
+    <mergeCell ref="Y34:Y36"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AA8:AA13"/>
+    <mergeCell ref="AA15:AA18"/>
+    <mergeCell ref="AA20:AA23"/>
+    <mergeCell ref="AA25:AA33"/>
+    <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="AG32:AG36"/>
+    <mergeCell ref="AG3:AG5"/>
+    <mergeCell ref="AG6:AG15"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AC6:AC12"/>
+    <mergeCell ref="AC13:AC15"/>
+    <mergeCell ref="AC16:AC26"/>
+    <mergeCell ref="AC27:AC36"/>
+    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="AF3:AF5"/>
+    <mergeCell ref="AF6:AF12"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="AF16:AF28"/>
+    <mergeCell ref="AF29:AF36"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="AE6:AE12"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="AE16:AE28"/>
+    <mergeCell ref="AE29:AE36"/>
+    <mergeCell ref="AJ25:AJ33"/>
+    <mergeCell ref="AJ35:AJ36"/>
+    <mergeCell ref="AQ18:AQ28"/>
+    <mergeCell ref="AQ29:AQ36"/>
+    <mergeCell ref="AU3:AU6"/>
+    <mergeCell ref="AU7:AU12"/>
+    <mergeCell ref="AU13:AU15"/>
+    <mergeCell ref="AU16:AU26"/>
+    <mergeCell ref="AU27:AU29"/>
+    <mergeCell ref="AU30:AU34"/>
+    <mergeCell ref="AU35:AU36"/>
+    <mergeCell ref="AR3:AR16"/>
+    <mergeCell ref="AR17:AR27"/>
+    <mergeCell ref="AR28:AR31"/>
+    <mergeCell ref="AR32:AR36"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AS8:AS13"/>
+    <mergeCell ref="AS15:AS18"/>
+    <mergeCell ref="AS20:AS23"/>
+    <mergeCell ref="AS25:AS33"/>
+    <mergeCell ref="AS35:AS36"/>
+    <mergeCell ref="AX13:AX15"/>
+    <mergeCell ref="AX16:AX26"/>
+    <mergeCell ref="AX27:AX29"/>
+    <mergeCell ref="AX30:AX34"/>
+    <mergeCell ref="AX35:AX36"/>
+    <mergeCell ref="AV3:AV6"/>
+    <mergeCell ref="AV7:AV12"/>
+    <mergeCell ref="AV13:AV15"/>
+    <mergeCell ref="AV16:AV26"/>
+    <mergeCell ref="AV27:AV29"/>
+    <mergeCell ref="AW3:AW6"/>
+    <mergeCell ref="AW7:AW12"/>
+    <mergeCell ref="AW13:AW15"/>
+    <mergeCell ref="AW16:AW26"/>
+    <mergeCell ref="AW27:AW29"/>
+    <mergeCell ref="AW30:AW34"/>
+    <mergeCell ref="AW35:AW36"/>
+    <mergeCell ref="AV30:AV34"/>
+    <mergeCell ref="AV35:AV36"/>
     <mergeCell ref="E21:E24"/>
     <mergeCell ref="BK5:BK6"/>
     <mergeCell ref="BK8:BK13"/>
@@ -14803,143 +15040,6 @@
     <mergeCell ref="AY35:AY36"/>
     <mergeCell ref="AX3:AX6"/>
     <mergeCell ref="AX7:AX12"/>
-    <mergeCell ref="AX13:AX15"/>
-    <mergeCell ref="AX16:AX26"/>
-    <mergeCell ref="AX27:AX29"/>
-    <mergeCell ref="AX30:AX34"/>
-    <mergeCell ref="AX35:AX36"/>
-    <mergeCell ref="AV3:AV6"/>
-    <mergeCell ref="AV7:AV12"/>
-    <mergeCell ref="AV13:AV15"/>
-    <mergeCell ref="AV16:AV26"/>
-    <mergeCell ref="AV27:AV29"/>
-    <mergeCell ref="AW3:AW6"/>
-    <mergeCell ref="AW7:AW12"/>
-    <mergeCell ref="AW13:AW15"/>
-    <mergeCell ref="AW16:AW26"/>
-    <mergeCell ref="AW27:AW29"/>
-    <mergeCell ref="AW30:AW34"/>
-    <mergeCell ref="AW35:AW36"/>
-    <mergeCell ref="AV30:AV34"/>
-    <mergeCell ref="AV35:AV36"/>
-    <mergeCell ref="AJ25:AJ33"/>
-    <mergeCell ref="AJ35:AJ36"/>
-    <mergeCell ref="AQ18:AQ28"/>
-    <mergeCell ref="AQ29:AQ36"/>
-    <mergeCell ref="AU3:AU6"/>
-    <mergeCell ref="AU7:AU12"/>
-    <mergeCell ref="AU13:AU15"/>
-    <mergeCell ref="AU16:AU26"/>
-    <mergeCell ref="AU27:AU29"/>
-    <mergeCell ref="AU30:AU34"/>
-    <mergeCell ref="AU35:AU36"/>
-    <mergeCell ref="AR3:AR16"/>
-    <mergeCell ref="AR17:AR27"/>
-    <mergeCell ref="AR28:AR31"/>
-    <mergeCell ref="AR32:AR36"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AS8:AS13"/>
-    <mergeCell ref="AS15:AS18"/>
-    <mergeCell ref="AS20:AS23"/>
-    <mergeCell ref="AS25:AS33"/>
-    <mergeCell ref="AS35:AS36"/>
-    <mergeCell ref="AG32:AG36"/>
-    <mergeCell ref="AG3:AG5"/>
-    <mergeCell ref="AG6:AG15"/>
-    <mergeCell ref="AC3:AC5"/>
-    <mergeCell ref="AC6:AC12"/>
-    <mergeCell ref="AC13:AC15"/>
-    <mergeCell ref="AC16:AC26"/>
-    <mergeCell ref="AC27:AC36"/>
-    <mergeCell ref="AD3:AD5"/>
-    <mergeCell ref="AF3:AF5"/>
-    <mergeCell ref="AF6:AF12"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="AF16:AF28"/>
-    <mergeCell ref="AF29:AF36"/>
-    <mergeCell ref="AE3:AE5"/>
-    <mergeCell ref="AE6:AE12"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="AE16:AE28"/>
-    <mergeCell ref="AE29:AE36"/>
-    <mergeCell ref="Z24:Z28"/>
-    <mergeCell ref="Z30:Z33"/>
-    <mergeCell ref="Z34:Z36"/>
-    <mergeCell ref="AD6:AD9"/>
-    <mergeCell ref="AD10:AD24"/>
-    <mergeCell ref="AD25:AD30"/>
-    <mergeCell ref="AD31:AD36"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="X5:X11"/>
-    <mergeCell ref="X12:X16"/>
-    <mergeCell ref="X17:X36"/>
-    <mergeCell ref="Y3:Y8"/>
-    <mergeCell ref="Y9:Y12"/>
-    <mergeCell ref="Y13:Y33"/>
-    <mergeCell ref="Y34:Y36"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AA8:AA13"/>
-    <mergeCell ref="AA15:AA18"/>
-    <mergeCell ref="AA20:AA23"/>
-    <mergeCell ref="AA25:AA33"/>
-    <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="U7:U12"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="U17:U25"/>
-    <mergeCell ref="U26:U36"/>
-    <mergeCell ref="V3:V7"/>
-    <mergeCell ref="V8:V12"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="V16:V24"/>
-    <mergeCell ref="V25:V36"/>
-    <mergeCell ref="R8:R13"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="R25:R33"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="T23:T27"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T34:T36"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="S1:AA1"/>
-    <mergeCell ref="W3:W7"/>
-    <mergeCell ref="W8:W12"/>
-    <mergeCell ref="W13:W15"/>
-    <mergeCell ref="W16:W21"/>
-    <mergeCell ref="W22:W24"/>
-    <mergeCell ref="W25:W29"/>
-    <mergeCell ref="W30:W33"/>
-    <mergeCell ref="W34:W36"/>
-    <mergeCell ref="U3:U6"/>
-    <mergeCell ref="AB1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BB1"/>
-    <mergeCell ref="BC1:BK1"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="T8:T12"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="Z3:Z23"/>
-    <mergeCell ref="AG16:AG18"/>
-    <mergeCell ref="AG19:AG31"/>
-    <mergeCell ref="AH3:AH36"/>
-    <mergeCell ref="AP3:AP36"/>
-    <mergeCell ref="AQ3:AQ13"/>
-    <mergeCell ref="AQ14:AQ17"/>
-    <mergeCell ref="AI3:AI36"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AJ8:AJ13"/>
-    <mergeCell ref="AJ15:AJ18"/>
-    <mergeCell ref="AJ20:AJ23"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="R5:R6"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14948,7 +15048,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>数据源!$A$1:$B$1</xm:f>
           </x14:formula1>
@@ -14961,16 +15061,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
         <v>53</v>
       </c>
@@ -14985,7 +15085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -14993,20 +15093,20 @@
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="13.625" style="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
@@ -15029,7 +15129,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="25" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -15053,7 +15153,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="25" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -15077,7 +15177,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="25" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -15101,7 +15201,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="25" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -15125,7 +15225,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="25" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -15149,7 +15249,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="25" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -15173,7 +15273,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="25" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -15197,7 +15297,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="25" customHeight="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -15221,7 +15321,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="25" customHeight="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -15245,7 +15345,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="25" customHeight="1">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -15269,7 +15369,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="25" customHeight="1">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -15293,7 +15393,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="25" customHeight="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -15317,7 +15417,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="25" customHeight="1">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -15341,7 +15441,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="25" customHeight="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -15365,7 +15465,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="25" customHeight="1">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -15389,7 +15489,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="25" customHeight="1">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -15413,7 +15513,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="25" customHeight="1">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -15437,7 +15537,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="25" customHeight="1">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -15461,7 +15561,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="25" customHeight="1">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -15485,7 +15585,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="25" customHeight="1">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -15509,7 +15609,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="25" customHeight="1">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -15533,7 +15633,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="25" customHeight="1">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -15557,7 +15657,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="25" customHeight="1">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -15581,7 +15681,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="25" customHeight="1">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -15605,7 +15705,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="25" customHeight="1">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -15629,7 +15729,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="25" customHeight="1">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -15653,7 +15753,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="25" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>69</v>
       </c>
@@ -15682,7 +15782,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="25" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="14" t="s">
         <v>70</v>

--- a/TestDemo/doc/2019年时间消费模板.xlsx
+++ b/TestDemo/doc/2019年时间消费模板.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinpeilin/eclipse-workspace/Study/TestDemo/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_eclipse\work3.0\Study\TestDemo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9E7C7744-5725-F744-9269-EDE0231413A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" tabRatio="824"/>
   </bookViews>
   <sheets>
     <sheet name="时间消费" sheetId="9" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="148">
   <si>
     <t>2018年第5周</t>
   </si>
@@ -548,7 +547,7 @@
   </si>
   <si>
     <t>健身</t>
-    <rPh sb="0" eb="122">
+    <rPh sb="0" eb="2">
       <t>jian sheng</t>
     </rPh>
     <phoneticPr fontId="14" type="noConversion"/>
@@ -578,12 +577,36 @@
     <t>Procrastination</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>赖床</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱，吃早餐</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐地铁，没看书</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rest</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guilt Free Play</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定计划</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -975,7 +998,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,8 +1132,23 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1211,6 +1249,12 @@
     <xf numFmtId="49" fontId="2" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1223,11 +1267,23 @@
     <xf numFmtId="49" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1238,21 +1294,6 @@
     <xf numFmtId="49" fontId="7" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1260,6 +1301,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1271,51 +1327,24 @@
     <xf numFmtId="49" fontId="2" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FF66FF33"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFCCCE46"/>
       <color rgb="FF5F527E"/>
@@ -1386,6 +1415,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1580,7 +1610,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-79F1-41E3-BADA-C41B9C072CC3}"/>
                 </c:ext>
@@ -1628,7 +1660,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-79F1-41E3-BADA-C41B9C072CC3}"/>
                 </c:ext>
@@ -1676,7 +1710,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-79F1-41E3-BADA-C41B9C072CC3}"/>
                 </c:ext>
@@ -1724,7 +1760,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-79F1-41E3-BADA-C41B9C072CC3}"/>
                 </c:ext>
@@ -10305,112 +10343,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" customWidth="1"/>
-    <col min="10" max="17" width="25.6640625" customWidth="1"/>
-    <col min="18" max="18" width="43.1640625" customWidth="1"/>
-    <col min="19" max="26" width="25.6640625" customWidth="1"/>
-    <col min="27" max="27" width="43.6640625" customWidth="1"/>
-    <col min="28" max="35" width="25.6640625" customWidth="1"/>
+    <col min="1" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="9" width="43.375" customWidth="1"/>
+    <col min="10" max="17" width="25.625" customWidth="1"/>
+    <col min="18" max="18" width="43.125" customWidth="1"/>
+    <col min="19" max="26" width="25.625" customWidth="1"/>
+    <col min="27" max="27" width="43.625" customWidth="1"/>
+    <col min="28" max="35" width="25.625" customWidth="1"/>
     <col min="36" max="36" width="44" customWidth="1"/>
-    <col min="37" max="44" width="25.6640625" customWidth="1"/>
-    <col min="45" max="45" width="55.6640625" customWidth="1"/>
-    <col min="46" max="53" width="25.6640625" customWidth="1"/>
+    <col min="37" max="44" width="25.625" customWidth="1"/>
+    <col min="45" max="45" width="55.625" customWidth="1"/>
+    <col min="46" max="53" width="25.625" customWidth="1"/>
     <col min="54" max="54" width="42" customWidth="1"/>
-    <col min="55" max="62" width="25.6640625" customWidth="1"/>
-    <col min="63" max="63" width="42.1640625" customWidth="1"/>
-    <col min="64" max="90" width="25.6640625" customWidth="1"/>
+    <col min="55" max="62" width="25.625" customWidth="1"/>
+    <col min="63" max="63" width="42.125" customWidth="1"/>
+    <col min="64" max="90" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="34.5" customHeight="1">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:63" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="92" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93" t="s">
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93" t="s">
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93" t="s">
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="93"/>
-      <c r="AM1" s="93"/>
-      <c r="AN1" s="93"/>
-      <c r="AO1" s="93"/>
-      <c r="AP1" s="93"/>
-      <c r="AQ1" s="93"/>
-      <c r="AR1" s="93"/>
-      <c r="AS1" s="93"/>
-      <c r="AT1" s="93" t="s">
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="AU1" s="93"/>
-      <c r="AV1" s="93"/>
-      <c r="AW1" s="93"/>
-      <c r="AX1" s="93"/>
-      <c r="AY1" s="93"/>
-      <c r="AZ1" s="93"/>
-      <c r="BA1" s="93"/>
-      <c r="BB1" s="93"/>
-      <c r="BC1" s="93" t="s">
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="89"/>
+      <c r="BB1" s="89"/>
+      <c r="BC1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="BD1" s="93"/>
-      <c r="BE1" s="93"/>
-      <c r="BF1" s="93"/>
-      <c r="BG1" s="93"/>
-      <c r="BH1" s="93"/>
-      <c r="BI1" s="93"/>
-      <c r="BJ1" s="93"/>
-      <c r="BK1" s="93"/>
+      <c r="BD1" s="89"/>
+      <c r="BE1" s="89"/>
+      <c r="BF1" s="89"/>
+      <c r="BG1" s="89"/>
+      <c r="BH1" s="89"/>
+      <c r="BI1" s="89"/>
+      <c r="BJ1" s="89"/>
+      <c r="BK1" s="89"/>
     </row>
-    <row r="2" spans="1:63" ht="25" customHeight="1">
+    <row r="2" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -10601,7 +10639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="25" customHeight="1">
+    <row r="3" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>98</v>
       </c>
@@ -10609,7 +10647,9 @@
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="F3" s="114" t="s">
+        <v>142</v>
+      </c>
       <c r="G3" s="36"/>
       <c r="H3" s="36"/>
       <c r="I3" s="34"/>
@@ -10624,38 +10664,38 @@
       <c r="R3" s="34"/>
       <c r="S3" s="18"/>
       <c r="T3" s="35"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="100"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="111"/>
       <c r="AA3" s="34"/>
       <c r="AB3" s="18"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="74"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
       <c r="AJ3" s="34"/>
       <c r="AK3" s="18"/>
       <c r="AL3" s="43"/>
       <c r="AM3" s="43"/>
       <c r="AN3" s="43"/>
       <c r="AO3" s="43"/>
-      <c r="AP3" s="77"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="74"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="79"/>
       <c r="AS3" s="34"/>
       <c r="AT3" s="18"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="65"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="70"/>
       <c r="BA3" s="44"/>
       <c r="BB3" s="34"/>
       <c r="BC3" s="18"/>
@@ -10668,7 +10708,7 @@
       <c r="BJ3" s="43"/>
       <c r="BK3" s="34"/>
     </row>
-    <row r="4" spans="1:63" ht="25" customHeight="1">
+    <row r="4" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>121</v>
       </c>
@@ -10676,7 +10716,9 @@
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="F4" s="108" t="s">
+        <v>143</v>
+      </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="37" t="s">
@@ -10693,21 +10735,21 @@
       <c r="R4" s="37"/>
       <c r="S4" s="18"/>
       <c r="T4" s="38"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="101"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="112"/>
       <c r="AA4" s="37"/>
       <c r="AB4" s="18"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="75"/>
-      <c r="AI4" s="75"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
       <c r="AJ4" s="37" t="s">
         <v>40</v>
       </c>
@@ -10716,17 +10758,17 @@
       <c r="AM4" s="43"/>
       <c r="AN4" s="43"/>
       <c r="AO4" s="43"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="75"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="80"/>
       <c r="AS4" s="37"/>
       <c r="AT4" s="18"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="66"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="71"/>
       <c r="BA4" s="45"/>
       <c r="BB4" s="37"/>
       <c r="BC4" s="18"/>
@@ -10739,7 +10781,7 @@
       <c r="BJ4" s="43"/>
       <c r="BK4" s="37"/>
     </row>
-    <row r="5" spans="1:63" ht="25" customHeight="1">
+    <row r="5" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>111</v>
       </c>
@@ -10747,10 +10789,10 @@
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="F5" s="109"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
-      <c r="I5" s="50"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="18"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
@@ -10759,43 +10801,43 @@
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
       <c r="Q5" s="36"/>
-      <c r="R5" s="50"/>
+      <c r="R5" s="55"/>
       <c r="S5" s="18"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="50"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="55"/>
       <c r="AB5" s="18"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="75"/>
-      <c r="AI5" s="75"/>
-      <c r="AJ5" s="50"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="75"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="55"/>
       <c r="AK5" s="18"/>
       <c r="AL5" s="43"/>
       <c r="AM5" s="43"/>
       <c r="AN5" s="43"/>
       <c r="AO5" s="43"/>
-      <c r="AP5" s="78"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="75"/>
-      <c r="AS5" s="50"/>
+      <c r="AP5" s="83"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="80"/>
+      <c r="AS5" s="55"/>
       <c r="AT5" s="18"/>
-      <c r="AU5" s="69"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="66"/>
+      <c r="AU5" s="74"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="71"/>
       <c r="BA5" s="45"/>
-      <c r="BB5" s="50"/>
+      <c r="BB5" s="55"/>
       <c r="BC5" s="18"/>
       <c r="BD5" s="43"/>
       <c r="BE5" s="43"/>
@@ -10804,9 +10846,9 @@
       <c r="BH5" s="43"/>
       <c r="BI5" s="43"/>
       <c r="BJ5" s="43"/>
-      <c r="BK5" s="50"/>
+      <c r="BK5" s="55"/>
     </row>
-    <row r="6" spans="1:63" ht="25" customHeight="1">
+    <row r="6" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>112</v>
       </c>
@@ -10814,10 +10856,12 @@
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="F6" s="106" t="s">
+        <v>144</v>
+      </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
-      <c r="I6" s="51"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="18"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
@@ -10826,43 +10870,43 @@
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="36"/>
-      <c r="R6" s="51"/>
+      <c r="R6" s="56"/>
       <c r="S6" s="18"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="101"/>
-      <c r="AA6" s="51"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="112"/>
+      <c r="AA6" s="56"/>
       <c r="AB6" s="18"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="75"/>
-      <c r="AI6" s="75"/>
-      <c r="AJ6" s="51"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="80"/>
+      <c r="AI6" s="80"/>
+      <c r="AJ6" s="56"/>
       <c r="AK6" s="18"/>
       <c r="AL6" s="43"/>
       <c r="AM6" s="43"/>
       <c r="AN6" s="43"/>
       <c r="AO6" s="43"/>
-      <c r="AP6" s="78"/>
-      <c r="AQ6" s="69"/>
-      <c r="AR6" s="75"/>
-      <c r="AS6" s="51"/>
+      <c r="AP6" s="83"/>
+      <c r="AQ6" s="74"/>
+      <c r="AR6" s="80"/>
+      <c r="AS6" s="56"/>
       <c r="AT6" s="18"/>
-      <c r="AU6" s="70"/>
-      <c r="AV6" s="70"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="70"/>
-      <c r="AY6" s="70"/>
-      <c r="AZ6" s="66"/>
+      <c r="AU6" s="75"/>
+      <c r="AV6" s="75"/>
+      <c r="AW6" s="75"/>
+      <c r="AX6" s="75"/>
+      <c r="AY6" s="75"/>
+      <c r="AZ6" s="71"/>
       <c r="BA6" s="45"/>
-      <c r="BB6" s="51"/>
+      <c r="BB6" s="56"/>
       <c r="BC6" s="18"/>
       <c r="BD6" s="43"/>
       <c r="BE6" s="43"/>
@@ -10871,9 +10915,9 @@
       <c r="BH6" s="43"/>
       <c r="BI6" s="43"/>
       <c r="BJ6" s="43"/>
-      <c r="BK6" s="51"/>
+      <c r="BK6" s="56"/>
     </row>
-    <row r="7" spans="1:63" ht="25" customHeight="1">
+    <row r="7" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>99</v>
       </c>
@@ -10881,7 +10925,7 @@
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="37" t="s">
@@ -10898,21 +10942,21 @@
       <c r="R7" s="37"/>
       <c r="S7" s="18"/>
       <c r="T7" s="35"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="101"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="112"/>
       <c r="AA7" s="37"/>
       <c r="AB7" s="18"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="81"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="80"/>
+      <c r="AI7" s="80"/>
       <c r="AJ7" s="37" t="s">
         <v>41</v>
       </c>
@@ -10921,17 +10965,17 @@
       <c r="AM7" s="43"/>
       <c r="AN7" s="43"/>
       <c r="AO7" s="43"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="75"/>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="80"/>
       <c r="AS7" s="37"/>
       <c r="AT7" s="18"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="71"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="66"/>
+      <c r="AU7" s="76"/>
+      <c r="AV7" s="76"/>
+      <c r="AW7" s="76"/>
+      <c r="AX7" s="76"/>
+      <c r="AY7" s="76"/>
+      <c r="AZ7" s="71"/>
       <c r="BA7" s="45"/>
       <c r="BB7" s="37"/>
       <c r="BC7" s="18"/>
@@ -10944,7 +10988,7 @@
       <c r="BJ7" s="43"/>
       <c r="BK7" s="37"/>
     </row>
-    <row r="8" spans="1:63" ht="25" customHeight="1">
+    <row r="8" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>113</v>
       </c>
@@ -10952,10 +10996,12 @@
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="F8" s="115" t="s">
+        <v>147</v>
+      </c>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
-      <c r="I8" s="52"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="18"/>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
@@ -10964,43 +11010,43 @@
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
-      <c r="R8" s="52"/>
+      <c r="R8" s="57"/>
       <c r="S8" s="18"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="52"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="57"/>
       <c r="AB8" s="18"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="52"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+      <c r="AJ8" s="57"/>
       <c r="AK8" s="18"/>
       <c r="AL8" s="43"/>
       <c r="AM8" s="43"/>
       <c r="AN8" s="43"/>
       <c r="AO8" s="43"/>
-      <c r="AP8" s="78"/>
-      <c r="AQ8" s="69"/>
-      <c r="AR8" s="75"/>
-      <c r="AS8" s="52"/>
+      <c r="AP8" s="83"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="80"/>
+      <c r="AS8" s="57"/>
       <c r="AT8" s="18"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="72"/>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="66"/>
+      <c r="AU8" s="77"/>
+      <c r="AV8" s="77"/>
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="77"/>
+      <c r="AY8" s="77"/>
+      <c r="AZ8" s="71"/>
       <c r="BA8" s="45"/>
-      <c r="BB8" s="52"/>
+      <c r="BB8" s="57"/>
       <c r="BC8" s="18"/>
       <c r="BD8" s="43"/>
       <c r="BE8" s="43"/>
@@ -11009,9 +11055,9 @@
       <c r="BH8" s="43"/>
       <c r="BI8" s="43"/>
       <c r="BJ8" s="43"/>
-      <c r="BK8" s="52"/>
+      <c r="BK8" s="57"/>
     </row>
-    <row r="9" spans="1:63" ht="25" customHeight="1">
+    <row r="9" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>100</v>
       </c>
@@ -11022,7 +11068,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
-      <c r="I9" s="53"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="18"/>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
@@ -11031,43 +11077,43 @@
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
       <c r="Q9" s="36"/>
-      <c r="R9" s="53"/>
+      <c r="R9" s="58"/>
       <c r="S9" s="18"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="53"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="58"/>
       <c r="AB9" s="18"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="81"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="53"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="80"/>
+      <c r="AJ9" s="58"/>
       <c r="AK9" s="18"/>
       <c r="AL9" s="43"/>
       <c r="AM9" s="43"/>
       <c r="AN9" s="43"/>
       <c r="AO9" s="43"/>
-      <c r="AP9" s="78"/>
-      <c r="AQ9" s="69"/>
-      <c r="AR9" s="75"/>
-      <c r="AS9" s="53"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="80"/>
+      <c r="AS9" s="58"/>
       <c r="AT9" s="18"/>
-      <c r="AU9" s="72"/>
-      <c r="AV9" s="72"/>
-      <c r="AW9" s="72"/>
-      <c r="AX9" s="72"/>
-      <c r="AY9" s="72"/>
-      <c r="AZ9" s="66"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="71"/>
       <c r="BA9" s="45"/>
-      <c r="BB9" s="53"/>
+      <c r="BB9" s="58"/>
       <c r="BC9" s="18"/>
       <c r="BD9" s="43"/>
       <c r="BE9" s="43"/>
@@ -11076,9 +11122,9 @@
       <c r="BH9" s="43"/>
       <c r="BI9" s="43"/>
       <c r="BJ9" s="43"/>
-      <c r="BK9" s="53"/>
+      <c r="BK9" s="58"/>
     </row>
-    <row r="10" spans="1:63" ht="25" customHeight="1">
+    <row r="10" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>122</v>
       </c>
@@ -11089,7 +11135,7 @@
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
-      <c r="I10" s="53"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="18"/>
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
@@ -11098,43 +11144,43 @@
       <c r="O10" s="36"/>
       <c r="P10" s="36"/>
       <c r="Q10" s="36"/>
-      <c r="R10" s="53"/>
+      <c r="R10" s="58"/>
       <c r="S10" s="18"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="101"/>
-      <c r="AA10" s="53"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="58"/>
       <c r="AB10" s="18"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="81"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="53"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="58"/>
       <c r="AK10" s="18"/>
       <c r="AL10" s="43"/>
       <c r="AM10" s="43"/>
       <c r="AN10" s="43"/>
       <c r="AO10" s="43"/>
-      <c r="AP10" s="78"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="53"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="80"/>
+      <c r="AS10" s="58"/>
       <c r="AT10" s="18"/>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="72"/>
-      <c r="AW10" s="72"/>
-      <c r="AX10" s="72"/>
-      <c r="AY10" s="72"/>
-      <c r="AZ10" s="66"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="71"/>
       <c r="BA10" s="45"/>
-      <c r="BB10" s="53"/>
+      <c r="BB10" s="58"/>
       <c r="BC10" s="18"/>
       <c r="BD10" s="43"/>
       <c r="BE10" s="43"/>
@@ -11143,9 +11189,9 @@
       <c r="BH10" s="43"/>
       <c r="BI10" s="43"/>
       <c r="BJ10" s="43"/>
-      <c r="BK10" s="53"/>
+      <c r="BK10" s="58"/>
     </row>
-    <row r="11" spans="1:63" ht="25" customHeight="1">
+    <row r="11" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>123</v>
       </c>
@@ -11156,7 +11202,7 @@
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
-      <c r="I11" s="53"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="18"/>
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
@@ -11165,43 +11211,43 @@
       <c r="O11" s="36"/>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
-      <c r="R11" s="53"/>
+      <c r="R11" s="58"/>
       <c r="S11" s="18"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="53"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="58"/>
       <c r="AB11" s="18"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="81"/>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="53"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="80"/>
+      <c r="AI11" s="80"/>
+      <c r="AJ11" s="58"/>
       <c r="AK11" s="18"/>
       <c r="AL11" s="43"/>
       <c r="AM11" s="43"/>
       <c r="AN11" s="43"/>
       <c r="AO11" s="43"/>
-      <c r="AP11" s="78"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="75"/>
-      <c r="AS11" s="53"/>
+      <c r="AP11" s="83"/>
+      <c r="AQ11" s="74"/>
+      <c r="AR11" s="80"/>
+      <c r="AS11" s="58"/>
       <c r="AT11" s="18"/>
-      <c r="AU11" s="72"/>
-      <c r="AV11" s="72"/>
-      <c r="AW11" s="72"/>
-      <c r="AX11" s="72"/>
-      <c r="AY11" s="72"/>
-      <c r="AZ11" s="66"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="77"/>
+      <c r="AW11" s="77"/>
+      <c r="AX11" s="77"/>
+      <c r="AY11" s="77"/>
+      <c r="AZ11" s="71"/>
       <c r="BA11" s="45"/>
-      <c r="BB11" s="53"/>
+      <c r="BB11" s="58"/>
       <c r="BC11" s="18"/>
       <c r="BD11" s="43"/>
       <c r="BE11" s="43"/>
@@ -11210,9 +11256,9 @@
       <c r="BH11" s="43"/>
       <c r="BI11" s="43"/>
       <c r="BJ11" s="43"/>
-      <c r="BK11" s="53"/>
+      <c r="BK11" s="58"/>
     </row>
-    <row r="12" spans="1:63" ht="25" customHeight="1">
+    <row r="12" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>124</v>
       </c>
@@ -11223,7 +11269,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="53"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="18"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
@@ -11232,43 +11278,43 @@
       <c r="O12" s="36"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
-      <c r="R12" s="53"/>
+      <c r="R12" s="58"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="53"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="112"/>
+      <c r="AA12" s="58"/>
       <c r="AB12" s="18"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="81"/>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="75"/>
-      <c r="AJ12" s="53"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="80"/>
+      <c r="AI12" s="80"/>
+      <c r="AJ12" s="58"/>
       <c r="AK12" s="18"/>
       <c r="AL12" s="43"/>
       <c r="AM12" s="43"/>
       <c r="AN12" s="43"/>
       <c r="AO12" s="43"/>
-      <c r="AP12" s="78"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="75"/>
-      <c r="AS12" s="53"/>
+      <c r="AP12" s="83"/>
+      <c r="AQ12" s="74"/>
+      <c r="AR12" s="80"/>
+      <c r="AS12" s="58"/>
       <c r="AT12" s="18"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="73"/>
-      <c r="AW12" s="73"/>
-      <c r="AX12" s="73"/>
-      <c r="AY12" s="73"/>
-      <c r="AZ12" s="66"/>
+      <c r="AU12" s="78"/>
+      <c r="AV12" s="78"/>
+      <c r="AW12" s="78"/>
+      <c r="AX12" s="78"/>
+      <c r="AY12" s="78"/>
+      <c r="AZ12" s="71"/>
       <c r="BA12" s="45"/>
-      <c r="BB12" s="53"/>
+      <c r="BB12" s="58"/>
       <c r="BC12" s="18"/>
       <c r="BD12" s="43"/>
       <c r="BE12" s="43"/>
@@ -11277,9 +11323,9 @@
       <c r="BH12" s="43"/>
       <c r="BI12" s="43"/>
       <c r="BJ12" s="43"/>
-      <c r="BK12" s="53"/>
+      <c r="BK12" s="58"/>
     </row>
-    <row r="13" spans="1:63" ht="25" customHeight="1">
+    <row r="13" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>101</v>
       </c>
@@ -11290,7 +11336,7 @@
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="54"/>
+      <c r="I13" s="59"/>
       <c r="J13" s="18"/>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
@@ -11299,43 +11345,43 @@
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
       <c r="Q13" s="36"/>
-      <c r="R13" s="54"/>
+      <c r="R13" s="59"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="54"/>
+      <c r="T13" s="100"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="59"/>
       <c r="AB13" s="18"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="81"/>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="75"/>
-      <c r="AJ13" s="54"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="80"/>
+      <c r="AI13" s="80"/>
+      <c r="AJ13" s="59"/>
       <c r="AK13" s="18"/>
       <c r="AL13" s="43"/>
       <c r="AM13" s="43"/>
       <c r="AN13" s="43"/>
       <c r="AO13" s="43"/>
-      <c r="AP13" s="78"/>
-      <c r="AQ13" s="70"/>
-      <c r="AR13" s="75"/>
-      <c r="AS13" s="54"/>
+      <c r="AP13" s="83"/>
+      <c r="AQ13" s="75"/>
+      <c r="AR13" s="80"/>
+      <c r="AS13" s="59"/>
       <c r="AT13" s="18"/>
-      <c r="AU13" s="68"/>
-      <c r="AV13" s="68"/>
-      <c r="AW13" s="68"/>
-      <c r="AX13" s="68"/>
-      <c r="AY13" s="68"/>
-      <c r="AZ13" s="66"/>
+      <c r="AU13" s="73"/>
+      <c r="AV13" s="73"/>
+      <c r="AW13" s="73"/>
+      <c r="AX13" s="73"/>
+      <c r="AY13" s="73"/>
+      <c r="AZ13" s="71"/>
       <c r="BA13" s="45"/>
-      <c r="BB13" s="54"/>
+      <c r="BB13" s="59"/>
       <c r="BC13" s="18"/>
       <c r="BD13" s="43"/>
       <c r="BE13" s="43"/>
@@ -11344,9 +11390,9 @@
       <c r="BH13" s="43"/>
       <c r="BI13" s="43"/>
       <c r="BJ13" s="43"/>
-      <c r="BK13" s="54"/>
+      <c r="BK13" s="59"/>
     </row>
-    <row r="14" spans="1:63" ht="25" customHeight="1">
+    <row r="14" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>125</v>
       </c>
@@ -11370,22 +11416,22 @@
       <c r="Q14" s="36"/>
       <c r="R14" s="33"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="112"/>
       <c r="AA14" s="33"/>
       <c r="AB14" s="18"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="78"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="81"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="80"/>
       <c r="AJ14" s="33" t="s">
         <v>42</v>
       </c>
@@ -11394,17 +11440,17 @@
       <c r="AM14" s="43"/>
       <c r="AN14" s="43"/>
       <c r="AO14" s="43"/>
-      <c r="AP14" s="78"/>
-      <c r="AQ14" s="68"/>
-      <c r="AR14" s="75"/>
+      <c r="AP14" s="83"/>
+      <c r="AQ14" s="73"/>
+      <c r="AR14" s="80"/>
       <c r="AS14" s="33"/>
       <c r="AT14" s="18"/>
-      <c r="AU14" s="69"/>
-      <c r="AV14" s="69"/>
-      <c r="AW14" s="69"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="69"/>
-      <c r="AZ14" s="66"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="74"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="74"/>
+      <c r="AY14" s="74"/>
+      <c r="AZ14" s="71"/>
       <c r="BA14" s="45"/>
       <c r="BB14" s="33"/>
       <c r="BC14" s="18"/>
@@ -11417,7 +11463,7 @@
       <c r="BJ14" s="43"/>
       <c r="BK14" s="33"/>
     </row>
-    <row r="15" spans="1:63" ht="25" customHeight="1">
+    <row r="15" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>102</v>
       </c>
@@ -11428,7 +11474,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="55"/>
+      <c r="I15" s="60"/>
       <c r="J15" s="18"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
@@ -11437,43 +11483,43 @@
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="36"/>
-      <c r="R15" s="55"/>
+      <c r="R15" s="60"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="55"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="112"/>
+      <c r="AA15" s="60"/>
       <c r="AB15" s="18"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="55"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="80"/>
+      <c r="AI15" s="80"/>
+      <c r="AJ15" s="60"/>
       <c r="AK15" s="18"/>
       <c r="AL15" s="43"/>
       <c r="AM15" s="43"/>
       <c r="AN15" s="43"/>
       <c r="AO15" s="43"/>
-      <c r="AP15" s="78"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="75"/>
-      <c r="AS15" s="55"/>
+      <c r="AP15" s="83"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="80"/>
+      <c r="AS15" s="60"/>
       <c r="AT15" s="18"/>
-      <c r="AU15" s="70"/>
-      <c r="AV15" s="70"/>
-      <c r="AW15" s="70"/>
-      <c r="AX15" s="70"/>
-      <c r="AY15" s="70"/>
-      <c r="AZ15" s="66"/>
+      <c r="AU15" s="75"/>
+      <c r="AV15" s="75"/>
+      <c r="AW15" s="75"/>
+      <c r="AX15" s="75"/>
+      <c r="AY15" s="75"/>
+      <c r="AZ15" s="71"/>
       <c r="BA15" s="45"/>
-      <c r="BB15" s="55"/>
+      <c r="BB15" s="60"/>
       <c r="BC15" s="18"/>
       <c r="BD15" s="43"/>
       <c r="BE15" s="43"/>
@@ -11482,9 +11528,9 @@
       <c r="BH15" s="43"/>
       <c r="BI15" s="43"/>
       <c r="BJ15" s="43"/>
-      <c r="BK15" s="55"/>
+      <c r="BK15" s="60"/>
     </row>
-    <row r="16" spans="1:63" ht="25" customHeight="1">
+    <row r="16" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>126</v>
       </c>
@@ -11495,7 +11541,7 @@
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="56"/>
+      <c r="I16" s="61"/>
       <c r="J16" s="18"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
@@ -11504,43 +11550,43 @@
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
-      <c r="R16" s="56"/>
+      <c r="R16" s="61"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="91"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="101"/>
-      <c r="AA16" s="56"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="112"/>
+      <c r="AA16" s="61"/>
       <c r="AB16" s="18"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="78"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="75"/>
-      <c r="AJ16" s="56"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="83"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="61"/>
       <c r="AK16" s="18"/>
       <c r="AL16" s="43"/>
       <c r="AM16" s="43"/>
       <c r="AN16" s="43"/>
       <c r="AO16" s="43"/>
-      <c r="AP16" s="78"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="76"/>
-      <c r="AS16" s="56"/>
+      <c r="AP16" s="83"/>
+      <c r="AQ16" s="74"/>
+      <c r="AR16" s="81"/>
+      <c r="AS16" s="61"/>
       <c r="AT16" s="18"/>
-      <c r="AU16" s="71"/>
-      <c r="AV16" s="71"/>
-      <c r="AW16" s="71"/>
-      <c r="AX16" s="71"/>
-      <c r="AY16" s="71"/>
-      <c r="AZ16" s="66"/>
+      <c r="AU16" s="76"/>
+      <c r="AV16" s="76"/>
+      <c r="AW16" s="76"/>
+      <c r="AX16" s="76"/>
+      <c r="AY16" s="76"/>
+      <c r="AZ16" s="71"/>
       <c r="BA16" s="45"/>
-      <c r="BB16" s="56"/>
+      <c r="BB16" s="61"/>
       <c r="BC16" s="18"/>
       <c r="BD16" s="43"/>
       <c r="BE16" s="43"/>
@@ -11549,9 +11595,9 @@
       <c r="BH16" s="43"/>
       <c r="BI16" s="43"/>
       <c r="BJ16" s="43"/>
-      <c r="BK16" s="56"/>
+      <c r="BK16" s="61"/>
     </row>
-    <row r="17" spans="1:63" ht="25" customHeight="1">
+    <row r="17" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>103</v>
       </c>
@@ -11562,7 +11608,7 @@
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="56"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="18"/>
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
@@ -11571,43 +11617,43 @@
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
       <c r="Q17" s="36"/>
-      <c r="R17" s="56"/>
+      <c r="R17" s="61"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="56"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="91"/>
+      <c r="W17" s="91"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="112"/>
+      <c r="AA17" s="61"/>
       <c r="AB17" s="18"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="56"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="83"/>
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="77"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="80"/>
+      <c r="AI17" s="80"/>
+      <c r="AJ17" s="61"/>
       <c r="AK17" s="18"/>
       <c r="AL17" s="43"/>
       <c r="AM17" s="43"/>
       <c r="AN17" s="43"/>
       <c r="AO17" s="43"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="70"/>
-      <c r="AR17" s="68"/>
-      <c r="AS17" s="56"/>
+      <c r="AP17" s="83"/>
+      <c r="AQ17" s="75"/>
+      <c r="AR17" s="73"/>
+      <c r="AS17" s="61"/>
       <c r="AT17" s="18"/>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="72"/>
-      <c r="AW17" s="72"/>
-      <c r="AX17" s="72"/>
-      <c r="AY17" s="72"/>
-      <c r="AZ17" s="66"/>
+      <c r="AU17" s="77"/>
+      <c r="AV17" s="77"/>
+      <c r="AW17" s="77"/>
+      <c r="AX17" s="77"/>
+      <c r="AY17" s="77"/>
+      <c r="AZ17" s="71"/>
       <c r="BA17" s="45"/>
-      <c r="BB17" s="56"/>
+      <c r="BB17" s="61"/>
       <c r="BC17" s="18"/>
       <c r="BD17" s="43"/>
       <c r="BE17" s="43"/>
@@ -11616,22 +11662,22 @@
       <c r="BH17" s="43"/>
       <c r="BI17" s="43"/>
       <c r="BJ17" s="43"/>
-      <c r="BK17" s="56"/>
+      <c r="BK17" s="61"/>
     </row>
-    <row r="18" spans="1:63" ht="25" customHeight="1">
+    <row r="18" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>114</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="96" t="s">
+      <c r="E18" s="98" t="s">
         <v>132</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="57"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="18"/>
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
@@ -11640,43 +11686,43 @@
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
       <c r="Q18" s="36"/>
-      <c r="R18" s="57"/>
+      <c r="R18" s="62"/>
       <c r="S18" s="18"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="75"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="57"/>
+      <c r="T18" s="91"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="112"/>
+      <c r="AA18" s="62"/>
       <c r="AB18" s="18"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="78"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="70"/>
-      <c r="AH18" s="75"/>
-      <c r="AI18" s="75"/>
-      <c r="AJ18" s="57"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="75"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="62"/>
       <c r="AK18" s="18"/>
       <c r="AL18" s="43"/>
       <c r="AM18" s="43"/>
       <c r="AN18" s="43"/>
       <c r="AO18" s="43"/>
-      <c r="AP18" s="78"/>
-      <c r="AQ18" s="74"/>
-      <c r="AR18" s="69"/>
-      <c r="AS18" s="57"/>
+      <c r="AP18" s="83"/>
+      <c r="AQ18" s="79"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="62"/>
       <c r="AT18" s="18"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="72"/>
-      <c r="AW18" s="72"/>
-      <c r="AX18" s="72"/>
-      <c r="AY18" s="72"/>
-      <c r="AZ18" s="66"/>
+      <c r="AU18" s="77"/>
+      <c r="AV18" s="77"/>
+      <c r="AW18" s="77"/>
+      <c r="AX18" s="77"/>
+      <c r="AY18" s="77"/>
+      <c r="AZ18" s="71"/>
       <c r="BA18" s="45"/>
-      <c r="BB18" s="57"/>
+      <c r="BB18" s="62"/>
       <c r="BC18" s="18"/>
       <c r="BD18" s="43"/>
       <c r="BE18" s="43"/>
@@ -11685,16 +11731,16 @@
       <c r="BH18" s="43"/>
       <c r="BI18" s="43"/>
       <c r="BJ18" s="43"/>
-      <c r="BK18" s="57"/>
+      <c r="BK18" s="62"/>
     </row>
-    <row r="19" spans="1:63" ht="25" customHeight="1">
+    <row r="19" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="49"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
@@ -11711,22 +11757,22 @@
       <c r="Q19" s="36"/>
       <c r="R19" s="37"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="75"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="101"/>
+      <c r="T19" s="91"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="112"/>
       <c r="AA19" s="37"/>
       <c r="AB19" s="18"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="72"/>
-      <c r="AG19" s="71"/>
-      <c r="AH19" s="75"/>
-      <c r="AI19" s="75"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="83"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="76"/>
+      <c r="AH19" s="80"/>
+      <c r="AI19" s="80"/>
       <c r="AJ19" s="37" t="s">
         <v>43</v>
       </c>
@@ -11735,17 +11781,17 @@
       <c r="AM19" s="43"/>
       <c r="AN19" s="43"/>
       <c r="AO19" s="43"/>
-      <c r="AP19" s="78"/>
-      <c r="AQ19" s="75"/>
-      <c r="AR19" s="69"/>
+      <c r="AP19" s="83"/>
+      <c r="AQ19" s="80"/>
+      <c r="AR19" s="74"/>
       <c r="AS19" s="37"/>
       <c r="AT19" s="18"/>
-      <c r="AU19" s="72"/>
-      <c r="AV19" s="72"/>
-      <c r="AW19" s="72"/>
-      <c r="AX19" s="72"/>
-      <c r="AY19" s="72"/>
-      <c r="AZ19" s="66"/>
+      <c r="AU19" s="77"/>
+      <c r="AV19" s="77"/>
+      <c r="AW19" s="77"/>
+      <c r="AX19" s="77"/>
+      <c r="AY19" s="77"/>
+      <c r="AZ19" s="71"/>
       <c r="BA19" s="45"/>
       <c r="BB19" s="37"/>
       <c r="BC19" s="18"/>
@@ -11758,7 +11804,7 @@
       <c r="BJ19" s="43"/>
       <c r="BK19" s="37"/>
     </row>
-    <row r="20" spans="1:63" ht="25" customHeight="1">
+    <row r="20" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>131</v>
       </c>
@@ -11771,7 +11817,7 @@
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
-      <c r="I20" s="58"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="18"/>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
@@ -11780,43 +11826,43 @@
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
       <c r="Q20" s="36"/>
-      <c r="R20" s="58"/>
+      <c r="R20" s="63"/>
       <c r="S20" s="18"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="58"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="112"/>
+      <c r="AA20" s="63"/>
       <c r="AB20" s="18"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="58"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="63"/>
       <c r="AK20" s="18"/>
       <c r="AL20" s="43"/>
       <c r="AM20" s="43"/>
       <c r="AN20" s="43"/>
       <c r="AO20" s="43"/>
-      <c r="AP20" s="78"/>
-      <c r="AQ20" s="75"/>
-      <c r="AR20" s="69"/>
-      <c r="AS20" s="58"/>
+      <c r="AP20" s="83"/>
+      <c r="AQ20" s="80"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="63"/>
       <c r="AT20" s="18"/>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="72"/>
-      <c r="AW20" s="72"/>
-      <c r="AX20" s="72"/>
-      <c r="AY20" s="72"/>
-      <c r="AZ20" s="66"/>
+      <c r="AU20" s="77"/>
+      <c r="AV20" s="77"/>
+      <c r="AW20" s="77"/>
+      <c r="AX20" s="77"/>
+      <c r="AY20" s="77"/>
+      <c r="AZ20" s="71"/>
       <c r="BA20" s="45"/>
-      <c r="BB20" s="58"/>
+      <c r="BB20" s="63"/>
       <c r="BC20" s="18"/>
       <c r="BD20" s="43"/>
       <c r="BE20" s="43"/>
@@ -11825,22 +11871,22 @@
       <c r="BH20" s="43"/>
       <c r="BI20" s="43"/>
       <c r="BJ20" s="43"/>
-      <c r="BK20" s="58"/>
+      <c r="BK20" s="63"/>
     </row>
-    <row r="21" spans="1:63" ht="25" customHeight="1">
+    <row r="21" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>105</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="109" t="s">
+      <c r="E21" s="52" t="s">
         <v>134</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
-      <c r="I21" s="59"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="18"/>
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
@@ -11849,43 +11895,43 @@
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="36"/>
-      <c r="R21" s="59"/>
+      <c r="R21" s="64"/>
       <c r="S21" s="18"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="59"/>
+      <c r="T21" s="93"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="91"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="64"/>
       <c r="AB21" s="18"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="78"/>
-      <c r="AE21" s="72"/>
-      <c r="AF21" s="72"/>
-      <c r="AG21" s="72"/>
-      <c r="AH21" s="75"/>
-      <c r="AI21" s="75"/>
-      <c r="AJ21" s="59"/>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="80"/>
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="64"/>
       <c r="AK21" s="18"/>
       <c r="AL21" s="43"/>
       <c r="AM21" s="43"/>
       <c r="AN21" s="43"/>
       <c r="AO21" s="43"/>
-      <c r="AP21" s="78"/>
-      <c r="AQ21" s="75"/>
-      <c r="AR21" s="69"/>
-      <c r="AS21" s="59"/>
+      <c r="AP21" s="83"/>
+      <c r="AQ21" s="80"/>
+      <c r="AR21" s="74"/>
+      <c r="AS21" s="64"/>
       <c r="AT21" s="18"/>
-      <c r="AU21" s="72"/>
-      <c r="AV21" s="72"/>
-      <c r="AW21" s="72"/>
-      <c r="AX21" s="72"/>
-      <c r="AY21" s="72"/>
-      <c r="AZ21" s="66"/>
+      <c r="AU21" s="77"/>
+      <c r="AV21" s="77"/>
+      <c r="AW21" s="77"/>
+      <c r="AX21" s="77"/>
+      <c r="AY21" s="77"/>
+      <c r="AZ21" s="71"/>
       <c r="BA21" s="45"/>
-      <c r="BB21" s="59"/>
+      <c r="BB21" s="64"/>
       <c r="BC21" s="18"/>
       <c r="BD21" s="43"/>
       <c r="BE21" s="43"/>
@@ -11894,20 +11940,20 @@
       <c r="BH21" s="43"/>
       <c r="BI21" s="43"/>
       <c r="BJ21" s="43"/>
-      <c r="BK21" s="59"/>
+      <c r="BK21" s="64"/>
     </row>
-    <row r="22" spans="1:63" ht="25" customHeight="1">
+    <row r="22" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>115</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
-      <c r="E22" s="111"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="18"/>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
@@ -11916,43 +11962,43 @@
       <c r="O22" s="36"/>
       <c r="P22" s="36"/>
       <c r="Q22" s="36"/>
-      <c r="R22" s="59"/>
+      <c r="R22" s="64"/>
       <c r="S22" s="18"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="101"/>
-      <c r="AA22" s="59"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="91"/>
+      <c r="W22" s="103"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="112"/>
+      <c r="AA22" s="64"/>
       <c r="AB22" s="18"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="75"/>
-      <c r="AI22" s="75"/>
-      <c r="AJ22" s="59"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="83"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="80"/>
+      <c r="AI22" s="80"/>
+      <c r="AJ22" s="64"/>
       <c r="AK22" s="18"/>
       <c r="AL22" s="43"/>
       <c r="AM22" s="43"/>
       <c r="AN22" s="43"/>
       <c r="AO22" s="43"/>
-      <c r="AP22" s="78"/>
-      <c r="AQ22" s="75"/>
-      <c r="AR22" s="69"/>
-      <c r="AS22" s="59"/>
+      <c r="AP22" s="83"/>
+      <c r="AQ22" s="80"/>
+      <c r="AR22" s="74"/>
+      <c r="AS22" s="64"/>
       <c r="AT22" s="18"/>
-      <c r="AU22" s="72"/>
-      <c r="AV22" s="72"/>
-      <c r="AW22" s="72"/>
-      <c r="AX22" s="72"/>
-      <c r="AY22" s="72"/>
-      <c r="AZ22" s="66"/>
+      <c r="AU22" s="77"/>
+      <c r="AV22" s="77"/>
+      <c r="AW22" s="77"/>
+      <c r="AX22" s="77"/>
+      <c r="AY22" s="77"/>
+      <c r="AZ22" s="71"/>
       <c r="BA22" s="45"/>
-      <c r="BB22" s="59"/>
+      <c r="BB22" s="64"/>
       <c r="BC22" s="18"/>
       <c r="BD22" s="43"/>
       <c r="BE22" s="43"/>
@@ -11961,20 +12007,20 @@
       <c r="BH22" s="43"/>
       <c r="BI22" s="43"/>
       <c r="BJ22" s="43"/>
-      <c r="BK22" s="59"/>
+      <c r="BK22" s="64"/>
     </row>
-    <row r="23" spans="1:63" ht="25" customHeight="1">
+    <row r="23" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>106</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
-      <c r="E23" s="111"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
       <c r="H23" s="36"/>
-      <c r="I23" s="59"/>
+      <c r="I23" s="64"/>
       <c r="J23" s="18"/>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
@@ -11983,43 +12029,43 @@
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
       <c r="Q23" s="36"/>
-      <c r="R23" s="59"/>
+      <c r="R23" s="64"/>
       <c r="S23" s="18"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="75"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="59"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="91"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="103"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="64"/>
       <c r="AB23" s="18"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="75"/>
-      <c r="AI23" s="75"/>
-      <c r="AJ23" s="59"/>
+      <c r="AC23" s="77"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="77"/>
+      <c r="AF23" s="77"/>
+      <c r="AG23" s="77"/>
+      <c r="AH23" s="80"/>
+      <c r="AI23" s="80"/>
+      <c r="AJ23" s="64"/>
       <c r="AK23" s="18"/>
       <c r="AL23" s="43"/>
       <c r="AM23" s="43"/>
       <c r="AN23" s="43"/>
       <c r="AO23" s="43"/>
-      <c r="AP23" s="78"/>
-      <c r="AQ23" s="75"/>
-      <c r="AR23" s="69"/>
-      <c r="AS23" s="59"/>
+      <c r="AP23" s="83"/>
+      <c r="AQ23" s="80"/>
+      <c r="AR23" s="74"/>
+      <c r="AS23" s="64"/>
       <c r="AT23" s="18"/>
-      <c r="AU23" s="72"/>
-      <c r="AV23" s="72"/>
-      <c r="AW23" s="72"/>
-      <c r="AX23" s="72"/>
-      <c r="AY23" s="72"/>
-      <c r="AZ23" s="66"/>
+      <c r="AU23" s="77"/>
+      <c r="AV23" s="77"/>
+      <c r="AW23" s="77"/>
+      <c r="AX23" s="77"/>
+      <c r="AY23" s="77"/>
+      <c r="AZ23" s="71"/>
       <c r="BA23" s="45"/>
-      <c r="BB23" s="59"/>
+      <c r="BB23" s="64"/>
       <c r="BC23" s="18"/>
       <c r="BD23" s="43"/>
       <c r="BE23" s="43"/>
@@ -12028,16 +12074,16 @@
       <c r="BH23" s="43"/>
       <c r="BI23" s="43"/>
       <c r="BJ23" s="43"/>
-      <c r="BK23" s="59"/>
+      <c r="BK23" s="64"/>
     </row>
-    <row r="24" spans="1:63" ht="25" customHeight="1">
+    <row r="24" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
-      <c r="E24" s="112"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
@@ -12054,22 +12100,22 @@
       <c r="Q24" s="36"/>
       <c r="R24" s="37"/>
       <c r="S24" s="18"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="75"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="68"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="73"/>
       <c r="AA24" s="37"/>
       <c r="AB24" s="18"/>
-      <c r="AC24" s="72"/>
-      <c r="AD24" s="79"/>
-      <c r="AE24" s="72"/>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="75"/>
-      <c r="AI24" s="75"/>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="84"/>
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="80"/>
+      <c r="AI24" s="80"/>
       <c r="AJ24" s="37" t="s">
         <v>44</v>
       </c>
@@ -12078,17 +12124,17 @@
       <c r="AM24" s="43"/>
       <c r="AN24" s="43"/>
       <c r="AO24" s="43"/>
-      <c r="AP24" s="78"/>
-      <c r="AQ24" s="75"/>
-      <c r="AR24" s="69"/>
+      <c r="AP24" s="83"/>
+      <c r="AQ24" s="80"/>
+      <c r="AR24" s="74"/>
       <c r="AS24" s="37"/>
       <c r="AT24" s="18"/>
-      <c r="AU24" s="72"/>
-      <c r="AV24" s="72"/>
-      <c r="AW24" s="72"/>
-      <c r="AX24" s="72"/>
-      <c r="AY24" s="72"/>
-      <c r="AZ24" s="66"/>
+      <c r="AU24" s="77"/>
+      <c r="AV24" s="77"/>
+      <c r="AW24" s="77"/>
+      <c r="AX24" s="77"/>
+      <c r="AY24" s="77"/>
+      <c r="AZ24" s="71"/>
       <c r="BA24" s="45"/>
       <c r="BB24" s="37"/>
       <c r="BC24" s="18"/>
@@ -12101,18 +12147,18 @@
       <c r="BJ24" s="43"/>
       <c r="BK24" s="37"/>
     </row>
-    <row r="25" spans="1:63" ht="25" customHeight="1">
+    <row r="25" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
         <v>117</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
-      <c r="E25" s="103"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
-      <c r="I25" s="62"/>
+      <c r="I25" s="67"/>
       <c r="J25" s="18"/>
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
@@ -12121,43 +12167,43 @@
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
-      <c r="R25" s="58"/>
+      <c r="R25" s="63"/>
       <c r="S25" s="18"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="83"/>
-      <c r="X25" s="75"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="58"/>
+      <c r="T25" s="91"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="100"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="63"/>
       <c r="AB25" s="18"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="72"/>
-      <c r="AH25" s="75"/>
-      <c r="AI25" s="75"/>
-      <c r="AJ25" s="58"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="77"/>
+      <c r="AH25" s="80"/>
+      <c r="AI25" s="80"/>
+      <c r="AJ25" s="63"/>
       <c r="AK25" s="18"/>
       <c r="AL25" s="43"/>
       <c r="AM25" s="43"/>
       <c r="AN25" s="43"/>
       <c r="AO25" s="43"/>
-      <c r="AP25" s="78"/>
-      <c r="AQ25" s="75"/>
-      <c r="AR25" s="69"/>
-      <c r="AS25" s="58"/>
+      <c r="AP25" s="83"/>
+      <c r="AQ25" s="80"/>
+      <c r="AR25" s="74"/>
+      <c r="AS25" s="63"/>
       <c r="AT25" s="18"/>
-      <c r="AU25" s="72"/>
-      <c r="AV25" s="72"/>
-      <c r="AW25" s="72"/>
-      <c r="AX25" s="72"/>
-      <c r="AY25" s="72"/>
-      <c r="AZ25" s="66"/>
+      <c r="AU25" s="77"/>
+      <c r="AV25" s="77"/>
+      <c r="AW25" s="77"/>
+      <c r="AX25" s="77"/>
+      <c r="AY25" s="77"/>
+      <c r="AZ25" s="71"/>
       <c r="BA25" s="45"/>
-      <c r="BB25" s="58"/>
+      <c r="BB25" s="63"/>
       <c r="BC25" s="18"/>
       <c r="BD25" s="43"/>
       <c r="BE25" s="43"/>
@@ -12166,22 +12212,22 @@
       <c r="BH25" s="43"/>
       <c r="BI25" s="43"/>
       <c r="BJ25" s="43"/>
-      <c r="BK25" s="58"/>
+      <c r="BK25" s="63"/>
     </row>
-    <row r="26" spans="1:63" ht="25" customHeight="1">
+    <row r="26" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="36"/>
-      <c r="E26" s="107" t="s">
+      <c r="E26" s="106" t="s">
         <v>135</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
-      <c r="I26" s="63"/>
+      <c r="I26" s="68"/>
       <c r="J26" s="18"/>
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
@@ -12190,43 +12236,43 @@
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
       <c r="Q26" s="36"/>
-      <c r="R26" s="59"/>
+      <c r="R26" s="64"/>
       <c r="S26" s="18"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="84"/>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="59"/>
+      <c r="T26" s="91"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="91"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="74"/>
+      <c r="AA26" s="64"/>
       <c r="AB26" s="18"/>
-      <c r="AC26" s="73"/>
-      <c r="AD26" s="78"/>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="72"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="75"/>
-      <c r="AI26" s="75"/>
-      <c r="AJ26" s="59"/>
+      <c r="AC26" s="78"/>
+      <c r="AD26" s="83"/>
+      <c r="AE26" s="77"/>
+      <c r="AF26" s="77"/>
+      <c r="AG26" s="77"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="64"/>
       <c r="AK26" s="18"/>
       <c r="AL26" s="43"/>
       <c r="AM26" s="43"/>
       <c r="AN26" s="43"/>
       <c r="AO26" s="43"/>
-      <c r="AP26" s="78"/>
-      <c r="AQ26" s="75"/>
-      <c r="AR26" s="69"/>
-      <c r="AS26" s="59"/>
+      <c r="AP26" s="83"/>
+      <c r="AQ26" s="80"/>
+      <c r="AR26" s="74"/>
+      <c r="AS26" s="64"/>
       <c r="AT26" s="18"/>
-      <c r="AU26" s="73"/>
-      <c r="AV26" s="73"/>
-      <c r="AW26" s="73"/>
-      <c r="AX26" s="73"/>
-      <c r="AY26" s="73"/>
-      <c r="AZ26" s="66"/>
+      <c r="AU26" s="78"/>
+      <c r="AV26" s="78"/>
+      <c r="AW26" s="78"/>
+      <c r="AX26" s="78"/>
+      <c r="AY26" s="78"/>
+      <c r="AZ26" s="71"/>
       <c r="BA26" s="45"/>
-      <c r="BB26" s="59"/>
+      <c r="BB26" s="64"/>
       <c r="BC26" s="18"/>
       <c r="BD26" s="43"/>
       <c r="BE26" s="43"/>
@@ -12235,20 +12281,20 @@
       <c r="BH26" s="43"/>
       <c r="BI26" s="43"/>
       <c r="BJ26" s="43"/>
-      <c r="BK26" s="59"/>
+      <c r="BK26" s="64"/>
     </row>
-    <row r="27" spans="1:63" ht="25" customHeight="1">
+    <row r="27" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
         <v>107</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="108"/>
+      <c r="E27" s="107"/>
       <c r="F27" s="36"/>
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="63"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="18"/>
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
@@ -12257,43 +12303,43 @@
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
-      <c r="R27" s="59"/>
+      <c r="R27" s="64"/>
       <c r="S27" s="18"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="75"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="59"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="97"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="91"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="74"/>
+      <c r="AA27" s="64"/>
       <c r="AB27" s="18"/>
-      <c r="AC27" s="68"/>
-      <c r="AD27" s="78"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="75"/>
-      <c r="AI27" s="75"/>
-      <c r="AJ27" s="59"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="83"/>
+      <c r="AE27" s="77"/>
+      <c r="AF27" s="77"/>
+      <c r="AG27" s="77"/>
+      <c r="AH27" s="80"/>
+      <c r="AI27" s="80"/>
+      <c r="AJ27" s="64"/>
       <c r="AK27" s="18"/>
       <c r="AL27" s="43"/>
       <c r="AM27" s="43"/>
       <c r="AN27" s="43"/>
       <c r="AO27" s="43"/>
-      <c r="AP27" s="78"/>
-      <c r="AQ27" s="75"/>
-      <c r="AR27" s="70"/>
-      <c r="AS27" s="59"/>
+      <c r="AP27" s="83"/>
+      <c r="AQ27" s="80"/>
+      <c r="AR27" s="75"/>
+      <c r="AS27" s="64"/>
       <c r="AT27" s="18"/>
-      <c r="AU27" s="68"/>
-      <c r="AV27" s="68"/>
-      <c r="AW27" s="68"/>
-      <c r="AX27" s="68"/>
-      <c r="AY27" s="68"/>
-      <c r="AZ27" s="66"/>
+      <c r="AU27" s="73"/>
+      <c r="AV27" s="73"/>
+      <c r="AW27" s="73"/>
+      <c r="AX27" s="73"/>
+      <c r="AY27" s="73"/>
+      <c r="AZ27" s="71"/>
       <c r="BA27" s="45"/>
-      <c r="BB27" s="59"/>
+      <c r="BB27" s="64"/>
       <c r="BC27" s="18"/>
       <c r="BD27" s="43"/>
       <c r="BE27" s="43"/>
@@ -12302,22 +12348,22 @@
       <c r="BH27" s="43"/>
       <c r="BI27" s="43"/>
       <c r="BJ27" s="43"/>
-      <c r="BK27" s="59"/>
+      <c r="BK27" s="64"/>
     </row>
-    <row r="28" spans="1:63" ht="25" customHeight="1">
+    <row r="28" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>127</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
-      <c r="E28" s="104" t="s">
+      <c r="E28" s="108" t="s">
         <v>136</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
       <c r="H28" s="36"/>
-      <c r="I28" s="63"/>
+      <c r="I28" s="68"/>
       <c r="J28" s="18"/>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
@@ -12326,43 +12372,43 @@
       <c r="O28" s="36"/>
       <c r="P28" s="36"/>
       <c r="Q28" s="36"/>
-      <c r="R28" s="59"/>
+      <c r="R28" s="64"/>
       <c r="S28" s="18"/>
       <c r="T28" s="35"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="84"/>
-      <c r="X28" s="75"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="70"/>
-      <c r="AA28" s="59"/>
+      <c r="U28" s="97"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="91"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="64"/>
       <c r="AB28" s="18"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="73"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="75"/>
-      <c r="AI28" s="75"/>
-      <c r="AJ28" s="59"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="78"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="77"/>
+      <c r="AH28" s="80"/>
+      <c r="AI28" s="80"/>
+      <c r="AJ28" s="64"/>
       <c r="AK28" s="18"/>
       <c r="AL28" s="43"/>
       <c r="AM28" s="43"/>
       <c r="AN28" s="43"/>
       <c r="AO28" s="43"/>
-      <c r="AP28" s="78"/>
-      <c r="AQ28" s="76"/>
-      <c r="AR28" s="71"/>
-      <c r="AS28" s="59"/>
+      <c r="AP28" s="83"/>
+      <c r="AQ28" s="81"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="64"/>
       <c r="AT28" s="18"/>
-      <c r="AU28" s="69"/>
-      <c r="AV28" s="69"/>
-      <c r="AW28" s="69"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="69"/>
-      <c r="AZ28" s="66"/>
+      <c r="AU28" s="74"/>
+      <c r="AV28" s="74"/>
+      <c r="AW28" s="74"/>
+      <c r="AX28" s="74"/>
+      <c r="AY28" s="74"/>
+      <c r="AZ28" s="71"/>
       <c r="BA28" s="45"/>
-      <c r="BB28" s="59"/>
+      <c r="BB28" s="64"/>
       <c r="BC28" s="18"/>
       <c r="BD28" s="43"/>
       <c r="BE28" s="43"/>
@@ -12371,20 +12417,20 @@
       <c r="BH28" s="43"/>
       <c r="BI28" s="43"/>
       <c r="BJ28" s="43"/>
-      <c r="BK28" s="59"/>
+      <c r="BK28" s="64"/>
     </row>
-    <row r="29" spans="1:63" ht="25" customHeight="1">
+    <row r="29" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
-      <c r="E29" s="105"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="36"/>
       <c r="G29" s="36"/>
       <c r="H29" s="36"/>
-      <c r="I29" s="63"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="18"/>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
@@ -12393,43 +12439,43 @@
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
       <c r="Q29" s="36"/>
-      <c r="R29" s="59"/>
+      <c r="R29" s="64"/>
       <c r="S29" s="18"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="85"/>
-      <c r="X29" s="75"/>
-      <c r="Y29" s="72"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="97"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="77"/>
       <c r="Z29" s="41"/>
-      <c r="AA29" s="59"/>
+      <c r="AA29" s="64"/>
       <c r="AB29" s="18"/>
-      <c r="AC29" s="69"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="68"/>
-      <c r="AF29" s="71"/>
-      <c r="AG29" s="72"/>
-      <c r="AH29" s="75"/>
-      <c r="AI29" s="75"/>
-      <c r="AJ29" s="59"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="73"/>
+      <c r="AF29" s="76"/>
+      <c r="AG29" s="77"/>
+      <c r="AH29" s="80"/>
+      <c r="AI29" s="80"/>
+      <c r="AJ29" s="64"/>
       <c r="AK29" s="18"/>
       <c r="AL29" s="43"/>
       <c r="AM29" s="43"/>
       <c r="AN29" s="43"/>
       <c r="AO29" s="43"/>
-      <c r="AP29" s="78"/>
-      <c r="AQ29" s="74"/>
-      <c r="AR29" s="72"/>
-      <c r="AS29" s="59"/>
+      <c r="AP29" s="83"/>
+      <c r="AQ29" s="79"/>
+      <c r="AR29" s="77"/>
+      <c r="AS29" s="64"/>
       <c r="AT29" s="18"/>
-      <c r="AU29" s="70"/>
-      <c r="AV29" s="70"/>
-      <c r="AW29" s="70"/>
-      <c r="AX29" s="70"/>
-      <c r="AY29" s="70"/>
-      <c r="AZ29" s="66"/>
+      <c r="AU29" s="75"/>
+      <c r="AV29" s="75"/>
+      <c r="AW29" s="75"/>
+      <c r="AX29" s="75"/>
+      <c r="AY29" s="75"/>
+      <c r="AZ29" s="71"/>
       <c r="BA29" s="45"/>
-      <c r="BB29" s="59"/>
+      <c r="BB29" s="64"/>
       <c r="BC29" s="18"/>
       <c r="BD29" s="43"/>
       <c r="BE29" s="43"/>
@@ -12438,22 +12484,22 @@
       <c r="BH29" s="43"/>
       <c r="BI29" s="43"/>
       <c r="BJ29" s="43"/>
-      <c r="BK29" s="59"/>
+      <c r="BK29" s="64"/>
     </row>
-    <row r="30" spans="1:63" ht="25" customHeight="1">
+    <row r="30" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>119</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
-      <c r="E30" s="106" t="s">
+      <c r="E30" s="50" t="s">
         <v>137</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
-      <c r="I30" s="63"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="18"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
@@ -12462,43 +12508,43 @@
       <c r="O30" s="36"/>
       <c r="P30" s="36"/>
       <c r="Q30" s="36"/>
-      <c r="R30" s="59"/>
+      <c r="R30" s="64"/>
       <c r="S30" s="18"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="75"/>
-      <c r="Y30" s="72"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="59"/>
+      <c r="T30" s="91"/>
+      <c r="U30" s="97"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="77"/>
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="64"/>
       <c r="AB30" s="18"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="69"/>
-      <c r="AF30" s="72"/>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="75"/>
-      <c r="AI30" s="75"/>
-      <c r="AJ30" s="59"/>
+      <c r="AC30" s="74"/>
+      <c r="AD30" s="84"/>
+      <c r="AE30" s="74"/>
+      <c r="AF30" s="77"/>
+      <c r="AG30" s="77"/>
+      <c r="AH30" s="80"/>
+      <c r="AI30" s="80"/>
+      <c r="AJ30" s="64"/>
       <c r="AK30" s="18"/>
       <c r="AL30" s="43"/>
       <c r="AM30" s="43"/>
       <c r="AN30" s="43"/>
       <c r="AO30" s="43"/>
-      <c r="AP30" s="78"/>
-      <c r="AQ30" s="75"/>
-      <c r="AR30" s="72"/>
-      <c r="AS30" s="59"/>
+      <c r="AP30" s="83"/>
+      <c r="AQ30" s="80"/>
+      <c r="AR30" s="77"/>
+      <c r="AS30" s="64"/>
       <c r="AT30" s="18"/>
-      <c r="AU30" s="71"/>
-      <c r="AV30" s="71"/>
-      <c r="AW30" s="71"/>
-      <c r="AX30" s="71"/>
-      <c r="AY30" s="71"/>
-      <c r="AZ30" s="66"/>
+      <c r="AU30" s="76"/>
+      <c r="AV30" s="76"/>
+      <c r="AW30" s="76"/>
+      <c r="AX30" s="76"/>
+      <c r="AY30" s="76"/>
+      <c r="AZ30" s="71"/>
       <c r="BA30" s="45"/>
-      <c r="BB30" s="59"/>
+      <c r="BB30" s="64"/>
       <c r="BC30" s="18"/>
       <c r="BD30" s="43"/>
       <c r="BE30" s="43"/>
@@ -12507,22 +12553,22 @@
       <c r="BH30" s="43"/>
       <c r="BI30" s="43"/>
       <c r="BJ30" s="43"/>
-      <c r="BK30" s="59"/>
+      <c r="BK30" s="64"/>
     </row>
-    <row r="31" spans="1:63" ht="25" customHeight="1">
+    <row r="31" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
         <v>128</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
-      <c r="E31" s="104" t="s">
+      <c r="E31" s="108" t="s">
         <v>138</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
       <c r="H31" s="36"/>
-      <c r="I31" s="63"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="18"/>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
@@ -12531,43 +12577,43 @@
       <c r="O31" s="36"/>
       <c r="P31" s="36"/>
       <c r="Q31" s="36"/>
-      <c r="R31" s="59"/>
+      <c r="R31" s="64"/>
       <c r="S31" s="18"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="99"/>
-      <c r="X31" s="75"/>
-      <c r="Y31" s="72"/>
-      <c r="Z31" s="72"/>
-      <c r="AA31" s="59"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="97"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="105"/>
+      <c r="X31" s="80"/>
+      <c r="Y31" s="77"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="64"/>
       <c r="AB31" s="18"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="68"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="72"/>
-      <c r="AG31" s="73"/>
-      <c r="AH31" s="75"/>
-      <c r="AI31" s="75"/>
-      <c r="AJ31" s="59"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="73"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="77"/>
+      <c r="AG31" s="78"/>
+      <c r="AH31" s="80"/>
+      <c r="AI31" s="80"/>
+      <c r="AJ31" s="64"/>
       <c r="AK31" s="18"/>
       <c r="AL31" s="43"/>
       <c r="AM31" s="43"/>
       <c r="AN31" s="43"/>
       <c r="AO31" s="43"/>
-      <c r="AP31" s="78"/>
-      <c r="AQ31" s="75"/>
-      <c r="AR31" s="72"/>
-      <c r="AS31" s="59"/>
+      <c r="AP31" s="83"/>
+      <c r="AQ31" s="80"/>
+      <c r="AR31" s="77"/>
+      <c r="AS31" s="64"/>
       <c r="AT31" s="18"/>
-      <c r="AU31" s="72"/>
-      <c r="AV31" s="72"/>
-      <c r="AW31" s="72"/>
-      <c r="AX31" s="72"/>
-      <c r="AY31" s="72"/>
-      <c r="AZ31" s="66"/>
+      <c r="AU31" s="77"/>
+      <c r="AV31" s="77"/>
+      <c r="AW31" s="77"/>
+      <c r="AX31" s="77"/>
+      <c r="AY31" s="77"/>
+      <c r="AZ31" s="71"/>
       <c r="BA31" s="45"/>
-      <c r="BB31" s="59"/>
+      <c r="BB31" s="64"/>
       <c r="BC31" s="18"/>
       <c r="BD31" s="43"/>
       <c r="BE31" s="43"/>
@@ -12576,20 +12622,20 @@
       <c r="BH31" s="43"/>
       <c r="BI31" s="43"/>
       <c r="BJ31" s="43"/>
-      <c r="BK31" s="59"/>
+      <c r="BK31" s="64"/>
     </row>
-    <row r="32" spans="1:63" ht="25" customHeight="1">
+    <row r="32" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
         <v>129</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="105"/>
+      <c r="E32" s="109"/>
       <c r="F32" s="36"/>
       <c r="G32" s="36"/>
       <c r="H32" s="36"/>
-      <c r="I32" s="63"/>
+      <c r="I32" s="68"/>
       <c r="J32" s="18"/>
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
@@ -12598,43 +12644,43 @@
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
       <c r="Q32" s="36"/>
-      <c r="R32" s="59"/>
+      <c r="R32" s="64"/>
       <c r="S32" s="18"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="99"/>
-      <c r="X32" s="75"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="72"/>
-      <c r="AA32" s="59"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="97"/>
+      <c r="V32" s="101"/>
+      <c r="W32" s="105"/>
+      <c r="X32" s="80"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="64"/>
       <c r="AB32" s="18"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="69"/>
-      <c r="AF32" s="72"/>
-      <c r="AG32" s="68"/>
-      <c r="AH32" s="75"/>
-      <c r="AI32" s="75"/>
-      <c r="AJ32" s="59"/>
+      <c r="AC32" s="74"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="74"/>
+      <c r="AF32" s="77"/>
+      <c r="AG32" s="73"/>
+      <c r="AH32" s="80"/>
+      <c r="AI32" s="80"/>
+      <c r="AJ32" s="64"/>
       <c r="AK32" s="18"/>
       <c r="AL32" s="43"/>
       <c r="AM32" s="43"/>
       <c r="AN32" s="43"/>
       <c r="AO32" s="43"/>
-      <c r="AP32" s="78"/>
-      <c r="AQ32" s="75"/>
-      <c r="AR32" s="77"/>
-      <c r="AS32" s="59"/>
+      <c r="AP32" s="83"/>
+      <c r="AQ32" s="80"/>
+      <c r="AR32" s="82"/>
+      <c r="AS32" s="64"/>
       <c r="AT32" s="18"/>
-      <c r="AU32" s="72"/>
-      <c r="AV32" s="72"/>
-      <c r="AW32" s="72"/>
-      <c r="AX32" s="72"/>
-      <c r="AY32" s="72"/>
-      <c r="AZ32" s="66"/>
+      <c r="AU32" s="77"/>
+      <c r="AV32" s="77"/>
+      <c r="AW32" s="77"/>
+      <c r="AX32" s="77"/>
+      <c r="AY32" s="77"/>
+      <c r="AZ32" s="71"/>
       <c r="BA32" s="45"/>
-      <c r="BB32" s="59"/>
+      <c r="BB32" s="64"/>
       <c r="BC32" s="18"/>
       <c r="BD32" s="43"/>
       <c r="BE32" s="43"/>
@@ -12643,22 +12689,22 @@
       <c r="BH32" s="43"/>
       <c r="BI32" s="43"/>
       <c r="BJ32" s="43"/>
-      <c r="BK32" s="59"/>
+      <c r="BK32" s="64"/>
     </row>
-    <row r="33" spans="1:63" ht="25" customHeight="1">
+    <row r="33" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
         <v>109</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="104" t="s">
+      <c r="E33" s="108" t="s">
         <v>139</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="36"/>
       <c r="H33" s="36"/>
-      <c r="I33" s="63"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="18"/>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
@@ -12667,43 +12713,43 @@
       <c r="O33" s="36"/>
       <c r="P33" s="36"/>
       <c r="Q33" s="36"/>
-      <c r="R33" s="60"/>
+      <c r="R33" s="65"/>
       <c r="S33" s="18"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="75"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="60"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="97"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="96"/>
+      <c r="X33" s="80"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="78"/>
+      <c r="AA33" s="65"/>
       <c r="AB33" s="18"/>
-      <c r="AC33" s="69"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="69"/>
-      <c r="AF33" s="72"/>
-      <c r="AG33" s="69"/>
-      <c r="AH33" s="75"/>
-      <c r="AI33" s="75"/>
-      <c r="AJ33" s="60"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="74"/>
+      <c r="AF33" s="77"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="80"/>
+      <c r="AI33" s="80"/>
+      <c r="AJ33" s="65"/>
       <c r="AK33" s="18"/>
       <c r="AL33" s="43"/>
       <c r="AM33" s="43"/>
       <c r="AN33" s="43"/>
       <c r="AO33" s="43"/>
-      <c r="AP33" s="78"/>
-      <c r="AQ33" s="75"/>
-      <c r="AR33" s="78"/>
-      <c r="AS33" s="60"/>
+      <c r="AP33" s="83"/>
+      <c r="AQ33" s="80"/>
+      <c r="AR33" s="83"/>
+      <c r="AS33" s="65"/>
       <c r="AT33" s="18"/>
-      <c r="AU33" s="72"/>
-      <c r="AV33" s="72"/>
-      <c r="AW33" s="72"/>
-      <c r="AX33" s="72"/>
-      <c r="AY33" s="72"/>
-      <c r="AZ33" s="66"/>
+      <c r="AU33" s="77"/>
+      <c r="AV33" s="77"/>
+      <c r="AW33" s="77"/>
+      <c r="AX33" s="77"/>
+      <c r="AY33" s="77"/>
+      <c r="AZ33" s="71"/>
       <c r="BA33" s="45"/>
-      <c r="BB33" s="60"/>
+      <c r="BB33" s="65"/>
       <c r="BC33" s="18"/>
       <c r="BD33" s="43"/>
       <c r="BE33" s="43"/>
@@ -12712,20 +12758,20 @@
       <c r="BH33" s="43"/>
       <c r="BI33" s="43"/>
       <c r="BJ33" s="43"/>
-      <c r="BK33" s="60"/>
+      <c r="BK33" s="65"/>
     </row>
-    <row r="34" spans="1:63" ht="25" customHeight="1">
+    <row r="34" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
         <v>120</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="105"/>
+      <c r="E34" s="109"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
       <c r="H34" s="36"/>
-      <c r="I34" s="63"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="18"/>
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
@@ -12736,22 +12782,22 @@
       <c r="Q34" s="36"/>
       <c r="R34" s="37"/>
       <c r="S34" s="18"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="90"/>
-      <c r="W34" s="86"/>
-      <c r="X34" s="75"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="101"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="80"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
       <c r="AA34" s="37"/>
       <c r="AB34" s="18"/>
-      <c r="AC34" s="69"/>
-      <c r="AD34" s="69"/>
-      <c r="AE34" s="69"/>
-      <c r="AF34" s="72"/>
-      <c r="AG34" s="69"/>
-      <c r="AH34" s="75"/>
-      <c r="AI34" s="75"/>
+      <c r="AC34" s="74"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="74"/>
+      <c r="AF34" s="77"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="80"/>
+      <c r="AI34" s="80"/>
       <c r="AJ34" s="37" t="s">
         <v>45</v>
       </c>
@@ -12760,17 +12806,17 @@
       <c r="AM34" s="43"/>
       <c r="AN34" s="43"/>
       <c r="AO34" s="43"/>
-      <c r="AP34" s="78"/>
-      <c r="AQ34" s="75"/>
-      <c r="AR34" s="78"/>
+      <c r="AP34" s="83"/>
+      <c r="AQ34" s="80"/>
+      <c r="AR34" s="83"/>
       <c r="AS34" s="37"/>
       <c r="AT34" s="18"/>
-      <c r="AU34" s="73"/>
-      <c r="AV34" s="73"/>
-      <c r="AW34" s="73"/>
-      <c r="AX34" s="73"/>
-      <c r="AY34" s="73"/>
-      <c r="AZ34" s="66"/>
+      <c r="AU34" s="78"/>
+      <c r="AV34" s="78"/>
+      <c r="AW34" s="78"/>
+      <c r="AX34" s="78"/>
+      <c r="AY34" s="78"/>
+      <c r="AZ34" s="71"/>
       <c r="BA34" s="45"/>
       <c r="BB34" s="37"/>
       <c r="BC34" s="18"/>
@@ -12783,20 +12829,20 @@
       <c r="BJ34" s="43"/>
       <c r="BK34" s="37"/>
     </row>
-    <row r="35" spans="1:63" ht="25" customHeight="1">
+    <row r="35" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
       <c r="D35" s="36"/>
-      <c r="E35" s="109" t="s">
+      <c r="E35" s="52" t="s">
         <v>140</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36"/>
       <c r="H35" s="36"/>
-      <c r="I35" s="63"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="18"/>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
@@ -12805,25 +12851,25 @@
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
       <c r="Q35" s="36"/>
-      <c r="R35" s="61"/>
+      <c r="R35" s="66"/>
       <c r="S35" s="18"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="87"/>
-      <c r="X35" s="75"/>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="61"/>
+      <c r="T35" s="97"/>
+      <c r="U35" s="97"/>
+      <c r="V35" s="101"/>
+      <c r="W35" s="97"/>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="66"/>
       <c r="AB35" s="18"/>
-      <c r="AC35" s="69"/>
-      <c r="AD35" s="69"/>
-      <c r="AE35" s="69"/>
-      <c r="AF35" s="72"/>
-      <c r="AG35" s="69"/>
-      <c r="AH35" s="75"/>
-      <c r="AI35" s="75"/>
-      <c r="AJ35" s="61">
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="74"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="77"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="80"/>
+      <c r="AI35" s="80"/>
+      <c r="AJ35" s="66">
         <f>AJ40/4-AJ41/2</f>
         <v>3.625</v>
       </c>
@@ -12832,19 +12878,19 @@
       <c r="AM35" s="43"/>
       <c r="AN35" s="43"/>
       <c r="AO35" s="43"/>
-      <c r="AP35" s="78"/>
-      <c r="AQ35" s="75"/>
-      <c r="AR35" s="78"/>
-      <c r="AS35" s="61"/>
+      <c r="AP35" s="83"/>
+      <c r="AQ35" s="80"/>
+      <c r="AR35" s="83"/>
+      <c r="AS35" s="66"/>
       <c r="AT35" s="18"/>
-      <c r="AU35" s="68"/>
-      <c r="AV35" s="68"/>
-      <c r="AW35" s="68"/>
-      <c r="AX35" s="68"/>
-      <c r="AY35" s="68"/>
-      <c r="AZ35" s="66"/>
+      <c r="AU35" s="73"/>
+      <c r="AV35" s="73"/>
+      <c r="AW35" s="73"/>
+      <c r="AX35" s="73"/>
+      <c r="AY35" s="73"/>
+      <c r="AZ35" s="71"/>
       <c r="BA35" s="45"/>
-      <c r="BB35" s="61"/>
+      <c r="BB35" s="66"/>
       <c r="BC35" s="18"/>
       <c r="BD35" s="43"/>
       <c r="BE35" s="43"/>
@@ -12853,9 +12899,9 @@
       <c r="BH35" s="43"/>
       <c r="BI35" s="43"/>
       <c r="BJ35" s="43"/>
-      <c r="BK35" s="61"/>
+      <c r="BK35" s="66"/>
     </row>
-    <row r="36" spans="1:63" ht="25" customHeight="1">
+    <row r="36" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>130</v>
       </c>
@@ -12866,7 +12912,7 @@
       <c r="F36" s="36"/>
       <c r="G36" s="36"/>
       <c r="H36" s="36"/>
-      <c r="I36" s="64"/>
+      <c r="I36" s="69"/>
       <c r="J36" s="18"/>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
@@ -12875,43 +12921,43 @@
       <c r="O36" s="36"/>
       <c r="P36" s="36"/>
       <c r="Q36" s="36"/>
-      <c r="R36" s="61"/>
+      <c r="R36" s="66"/>
       <c r="S36" s="18"/>
-      <c r="T36" s="88"/>
-      <c r="U36" s="88"/>
-      <c r="V36" s="91"/>
-      <c r="W36" s="88"/>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="70"/>
-      <c r="Z36" s="70"/>
-      <c r="AA36" s="61"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="102"/>
+      <c r="W36" s="94"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="75"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="66"/>
       <c r="AB36" s="18"/>
-      <c r="AC36" s="70"/>
-      <c r="AD36" s="70"/>
-      <c r="AE36" s="70"/>
-      <c r="AF36" s="73"/>
-      <c r="AG36" s="70"/>
-      <c r="AH36" s="76"/>
-      <c r="AI36" s="76"/>
-      <c r="AJ36" s="61"/>
+      <c r="AC36" s="75"/>
+      <c r="AD36" s="75"/>
+      <c r="AE36" s="75"/>
+      <c r="AF36" s="78"/>
+      <c r="AG36" s="75"/>
+      <c r="AH36" s="81"/>
+      <c r="AI36" s="81"/>
+      <c r="AJ36" s="66"/>
       <c r="AK36" s="18"/>
       <c r="AL36" s="43"/>
       <c r="AM36" s="43"/>
       <c r="AN36" s="43"/>
       <c r="AO36" s="43"/>
-      <c r="AP36" s="79"/>
-      <c r="AQ36" s="76"/>
-      <c r="AR36" s="79"/>
-      <c r="AS36" s="61"/>
+      <c r="AP36" s="84"/>
+      <c r="AQ36" s="81"/>
+      <c r="AR36" s="84"/>
+      <c r="AS36" s="66"/>
       <c r="AT36" s="18"/>
-      <c r="AU36" s="70"/>
-      <c r="AV36" s="70"/>
-      <c r="AW36" s="70"/>
-      <c r="AX36" s="70"/>
-      <c r="AY36" s="70"/>
-      <c r="AZ36" s="67"/>
+      <c r="AU36" s="75"/>
+      <c r="AV36" s="75"/>
+      <c r="AW36" s="75"/>
+      <c r="AX36" s="75"/>
+      <c r="AY36" s="75"/>
+      <c r="AZ36" s="72"/>
       <c r="BA36" s="46"/>
-      <c r="BB36" s="61"/>
+      <c r="BB36" s="66"/>
       <c r="BC36" s="18"/>
       <c r="BD36" s="43"/>
       <c r="BE36" s="43"/>
@@ -12920,11 +12966,11 @@
       <c r="BH36" s="43"/>
       <c r="BI36" s="43"/>
       <c r="BJ36" s="43"/>
-      <c r="BK36" s="61"/>
+      <c r="BK36" s="66"/>
     </row>
-    <row r="37" spans="1:63" ht="25" customHeight="1">
+    <row r="37" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -13030,9 +13076,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:63" ht="25" customHeight="1">
+    <row r="38" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -13186,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:63" ht="25" customHeight="1">
+    <row r="39" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>48</v>
       </c>
@@ -13288,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:63" ht="25" customHeight="1">
+    <row r="40" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>49</v>
       </c>
@@ -13432,8 +13478,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:63" ht="25" customHeight="1">
-      <c r="A41" s="103" t="s">
+    <row r="41" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="49" t="s">
         <v>141</v>
       </c>
       <c r="B41" s="28"/>
@@ -13566,7 +13612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:63" ht="25" customHeight="1">
+    <row r="42" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>51</v>
       </c>
@@ -13813,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:63" ht="25" customHeight="1">
+    <row r="43" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>52</v>
       </c>
@@ -13896,7 +13942,7 @@
       <c r="BJ43" s="23"/>
       <c r="BK43" s="24"/>
     </row>
-    <row r="44" spans="1:63" ht="25" customHeight="1">
+    <row r="44" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>55</v>
       </c>
@@ -13979,14 +14025,14 @@
       <c r="BJ44" s="23"/>
       <c r="BK44" s="24"/>
     </row>
-    <row r="45" spans="1:63" ht="25" customHeight="1">
+    <row r="45" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="51" t="s">
         <v>53</v>
       </c>
       <c r="F45" s="32"/>
@@ -14064,7 +14110,7 @@
       <c r="BJ45" s="23"/>
       <c r="BK45" s="23"/>
     </row>
-    <row r="46" spans="1:63" ht="25" customHeight="1">
+    <row r="46" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>57</v>
       </c>
@@ -14147,7 +14193,7 @@
       <c r="BJ46" s="23"/>
       <c r="BK46" s="23"/>
     </row>
-    <row r="47" spans="1:63" ht="25" customHeight="1">
+    <row r="47" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>58</v>
       </c>
@@ -14230,7 +14276,7 @@
       <c r="BJ47" s="23"/>
       <c r="BK47" s="23"/>
     </row>
-    <row r="48" spans="1:63" ht="25" customHeight="1">
+    <row r="48" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>59</v>
       </c>
@@ -14315,7 +14361,7 @@
       <c r="BJ48" s="23"/>
       <c r="BK48" s="24"/>
     </row>
-    <row r="49" spans="1:63" ht="25" customHeight="1">
+    <row r="49" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>60</v>
       </c>
@@ -14398,7 +14444,7 @@
       <c r="BJ49" s="23"/>
       <c r="BK49" s="24"/>
     </row>
-    <row r="50" spans="1:63" ht="25" customHeight="1">
+    <row r="50" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>61</v>
       </c>
@@ -14477,7 +14523,7 @@
       <c r="BJ50" s="23"/>
       <c r="BK50" s="24"/>
     </row>
-    <row r="51" spans="1:63" ht="25" customHeight="1">
+    <row r="51" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>62</v>
       </c>
@@ -14556,7 +14602,7 @@
       <c r="BJ51" s="23"/>
       <c r="BK51" s="24"/>
     </row>
-    <row r="52" spans="1:63" ht="25" customHeight="1">
+    <row r="52" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>63</v>
       </c>
@@ -14635,7 +14681,7 @@
       <c r="BJ52" s="23"/>
       <c r="BK52" s="24"/>
     </row>
-    <row r="53" spans="1:63" ht="25" customHeight="1">
+    <row r="53" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>64</v>
       </c>
@@ -14714,7 +14760,7 @@
       <c r="BJ53" s="23"/>
       <c r="BK53" s="24"/>
     </row>
-    <row r="54" spans="1:63" ht="25" customHeight="1">
+    <row r="54" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>65</v>
       </c>
@@ -14793,7 +14839,7 @@
       <c r="BJ54" s="23"/>
       <c r="BK54" s="24"/>
     </row>
-    <row r="55" spans="1:63" ht="25" customHeight="1">
+    <row r="55" spans="1:63" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>66</v>
       </c>
@@ -14873,7 +14919,7 @@
       <c r="BK55" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
+  <mergeCells count="168">
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="E31:E32"/>
@@ -14898,8 +14944,6 @@
     <mergeCell ref="AI3:AI36"/>
     <mergeCell ref="AJ5:AJ6"/>
     <mergeCell ref="AJ8:AJ13"/>
-    <mergeCell ref="AJ15:AJ18"/>
-    <mergeCell ref="AJ20:AJ23"/>
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="I20:I23"/>
     <mergeCell ref="R5:R6"/>
@@ -14907,6 +14951,11 @@
     <mergeCell ref="R15:R18"/>
     <mergeCell ref="R20:R23"/>
     <mergeCell ref="R25:R33"/>
+    <mergeCell ref="V3:V7"/>
+    <mergeCell ref="V8:V12"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="V16:V24"/>
+    <mergeCell ref="V25:V36"/>
     <mergeCell ref="R35:R36"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:R1"/>
@@ -14931,21 +14980,6 @@
     <mergeCell ref="U13:U16"/>
     <mergeCell ref="U17:U25"/>
     <mergeCell ref="U26:U36"/>
-    <mergeCell ref="V3:V7"/>
-    <mergeCell ref="V8:V12"/>
-    <mergeCell ref="V13:V15"/>
-    <mergeCell ref="V16:V24"/>
-    <mergeCell ref="V25:V36"/>
-    <mergeCell ref="Z24:Z28"/>
-    <mergeCell ref="Z30:Z33"/>
-    <mergeCell ref="Z34:Z36"/>
-    <mergeCell ref="AD6:AD9"/>
-    <mergeCell ref="AD10:AD24"/>
-    <mergeCell ref="AD25:AD30"/>
-    <mergeCell ref="AD31:AD36"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="X5:X11"/>
-    <mergeCell ref="X12:X16"/>
     <mergeCell ref="X17:X36"/>
     <mergeCell ref="Y3:Y8"/>
     <mergeCell ref="Y9:Y12"/>
@@ -14957,6 +14991,12 @@
     <mergeCell ref="AA20:AA23"/>
     <mergeCell ref="AA25:AA33"/>
     <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="Z24:Z28"/>
+    <mergeCell ref="Z30:Z33"/>
+    <mergeCell ref="Z34:Z36"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="X5:X11"/>
+    <mergeCell ref="X12:X16"/>
     <mergeCell ref="AG32:AG36"/>
     <mergeCell ref="AG3:AG5"/>
     <mergeCell ref="AG6:AG15"/>
@@ -14976,6 +15016,10 @@
     <mergeCell ref="AE13:AE15"/>
     <mergeCell ref="AE16:AE28"/>
     <mergeCell ref="AE29:AE36"/>
+    <mergeCell ref="AD6:AD9"/>
+    <mergeCell ref="AD10:AD24"/>
+    <mergeCell ref="AD25:AD30"/>
+    <mergeCell ref="AD31:AD36"/>
     <mergeCell ref="AJ25:AJ33"/>
     <mergeCell ref="AJ35:AJ36"/>
     <mergeCell ref="AQ18:AQ28"/>
@@ -14997,6 +15041,10 @@
     <mergeCell ref="AS20:AS23"/>
     <mergeCell ref="AS25:AS33"/>
     <mergeCell ref="AS35:AS36"/>
+    <mergeCell ref="AJ15:AJ18"/>
+    <mergeCell ref="AJ20:AJ23"/>
+    <mergeCell ref="AX3:AX6"/>
+    <mergeCell ref="AX7:AX12"/>
     <mergeCell ref="AX13:AX15"/>
     <mergeCell ref="AX16:AX26"/>
     <mergeCell ref="AX27:AX29"/>
@@ -15016,6 +15064,8 @@
     <mergeCell ref="AW35:AW36"/>
     <mergeCell ref="AV30:AV34"/>
     <mergeCell ref="AV35:AV36"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="E21:E24"/>
     <mergeCell ref="BK5:BK6"/>
     <mergeCell ref="BK8:BK13"/>
@@ -15038,8 +15088,6 @@
     <mergeCell ref="AY27:AY29"/>
     <mergeCell ref="AY30:AY34"/>
     <mergeCell ref="AY35:AY36"/>
-    <mergeCell ref="AX3:AX6"/>
-    <mergeCell ref="AX7:AX12"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15048,7 +15096,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>数据源!$A$1:$B$1</xm:f>
           </x14:formula1>
@@ -15061,16 +15109,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>53</v>
       </c>
@@ -15085,7 +15133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -15093,20 +15141,20 @@
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="13.6640625" style="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25" customHeight="1">
+    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
@@ -15129,7 +15177,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25" customHeight="1">
+    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -15153,7 +15201,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25" customHeight="1">
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -15177,7 +15225,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25" customHeight="1">
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -15201,7 +15249,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25" customHeight="1">
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -15225,7 +15273,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25" customHeight="1">
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -15249,7 +15297,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25" customHeight="1">
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -15273,7 +15321,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25" customHeight="1">
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -15297,7 +15345,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25" customHeight="1">
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -15321,7 +15369,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="25" customHeight="1">
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -15345,7 +15393,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="25" customHeight="1">
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -15369,7 +15417,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="25" customHeight="1">
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -15393,7 +15441,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="25" customHeight="1">
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -15417,7 +15465,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="25" customHeight="1">
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -15441,7 +15489,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25" customHeight="1">
+    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -15465,7 +15513,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="25" customHeight="1">
+    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -15489,7 +15537,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="25" customHeight="1">
+    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -15513,7 +15561,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="25" customHeight="1">
+    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -15537,7 +15585,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="25" customHeight="1">
+    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -15561,7 +15609,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="25" customHeight="1">
+    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -15585,7 +15633,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="25" customHeight="1">
+    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -15609,7 +15657,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="25" customHeight="1">
+    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -15633,7 +15681,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="25" customHeight="1">
+    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -15657,7 +15705,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="25" customHeight="1">
+    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -15681,7 +15729,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="25" customHeight="1">
+    <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -15705,7 +15753,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="25" customHeight="1">
+    <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -15729,7 +15777,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="25" customHeight="1">
+    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -15753,7 +15801,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="25" customHeight="1">
+    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>69</v>
       </c>
@@ -15782,7 +15830,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="25" customHeight="1">
+    <row r="29" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="14" t="s">
         <v>70</v>
